--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/Downloads/26Q1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3C905C-2A69-5D42-A8E7-3EC7FBDB6ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B733C7-17A5-064F-BE61-AF776C18F05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="1780" windowWidth="19960" windowHeight="20040" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
+    <workbookView xWindow="13320" yWindow="840" windowWidth="19960" windowHeight="20040" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
   <sheets>
     <sheet name="26Q1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="45">
   <si>
     <t>總計</t>
   </si>
@@ -293,6 +293,14 @@
   </si>
   <si>
     <t>11/23~11/29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26Q1W10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-30~12/06</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +655,12 @@
     <cellStyle name="一般 2" xfId="2" xr:uid="{0CB5398D-811F-454E-A670-53B654D1D081}"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1029,11 +1042,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B745F6-4B2F-7944-A1EC-E7E5896AE27B}">
-  <dimension ref="A1:BS65"/>
+  <sheetPr codeName="工作表1"/>
+  <dimension ref="A1:CA65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT51" sqref="BT51"/>
+      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BW42" sqref="BW42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1090,9 +1104,12 @@
     <col min="60" max="60" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="13" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="5" customWidth="1"/>
+    <col min="68" max="68" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="5" customWidth="1"/>
+    <col min="76" max="76" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="26" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:79" s="26" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
@@ -1134,8 +1151,11 @@
       <c r="BM1" s="28" t="s">
         <v>41</v>
       </c>
+      <c r="BU1" s="28" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:71" s="22" customFormat="1" ht="18">
+    <row r="2" spans="1:79" s="22" customFormat="1" ht="18">
       <c r="A2" s="25" t="s">
         <v>34</v>
       </c>
@@ -1191,8 +1211,16 @@
       <c r="BQ2" s="23"/>
       <c r="BR2" s="23"/>
       <c r="BS2" s="23"/>
+      <c r="BU2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="BV2" s="23"/>
+      <c r="BX2" s="23"/>
+      <c r="BY2" s="23"/>
+      <c r="BZ2" s="23"/>
+      <c r="CA2" s="23"/>
     </row>
-    <row r="3" spans="1:71" s="22" customFormat="1" ht="28" customHeight="1">
+    <row r="3" spans="1:79" s="22" customFormat="1" ht="28" customHeight="1">
       <c r="I3" s="34" t="s">
         <v>29</v>
       </c>
@@ -1212,7 +1240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:71" s="17" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:79" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>18</v>
       </c>
@@ -1402,8 +1430,29 @@
       <c r="BS4" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="BU4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="BV4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="BX4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="BY4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="BZ4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA4" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" s="42" customFormat="1" ht="22" customHeight="1">
+    <row r="5" spans="1:79" s="42" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="16">
         <v>75</v>
       </c>
@@ -1601,8 +1650,31 @@
         <f t="shared" ref="BS5:BS65" si="23">(BP5-BH5)/BH5</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="16">
+        <v>75</v>
+      </c>
+      <c r="BV5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="BW5" s="17">
+        <v>8336</v>
+      </c>
+      <c r="BX5" s="36"/>
+      <c r="BY5" s="12">
+        <f t="shared" ref="BY5:BY65" si="24">BW5-BO5</f>
+        <v>-470</v>
+      </c>
+      <c r="BZ5" s="14">
+        <f t="shared" ref="BZ5:BZ65" si="25">BX5-BP5</f>
+        <v>0</v>
+      </c>
+      <c r="CA5" s="13" t="e">
+        <f t="shared" ref="CA5:CA65" si="26">(BX5-BP5)/BP5</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" s="17" customFormat="1" ht="22" customHeight="1">
+    <row r="6" spans="1:79" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="35" t="s">
         <v>33</v>
@@ -1623,15 +1695,15 @@
       </c>
       <c r="L6" s="36"/>
       <c r="M6" s="12">
-        <f t="shared" ref="M6" si="24">K6-C6</f>
+        <f t="shared" ref="M6" si="27">K6-C6</f>
         <v>3</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" ref="N6" si="25">L6-D6</f>
+        <f t="shared" ref="N6" si="28">L6-D6</f>
         <v>0</v>
       </c>
       <c r="O6" s="13" t="e">
-        <f t="shared" ref="O6" si="26">(L6-D6)/D6</f>
+        <f t="shared" ref="O6" si="29">(L6-D6)/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q6" s="16"/>
@@ -1774,8 +1846,25 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BU6" s="16"/>
+      <c r="BV6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX6" s="36"/>
+      <c r="BY6" s="12">
+        <f t="shared" si="24"/>
+        <v>-34</v>
+      </c>
+      <c r="BZ6" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA6" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="7" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -1799,15 +1888,15 @@
         <v>317130.47618950985</v>
       </c>
       <c r="M7" s="12">
-        <f t="shared" ref="M7:M42" si="27">K7-C7</f>
+        <f t="shared" ref="M7:M42" si="30">K7-C7</f>
         <v>15</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" ref="N7:N42" si="28">L7-D7</f>
+        <f t="shared" ref="N7:N42" si="31">L7-D7</f>
         <v>34120.952380939736</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" ref="O7:O42" si="29">(L7-D7)/D7</f>
+        <f t="shared" ref="O7:O42" si="32">(L7-D7)/D7</f>
         <v>0.12056467896119079</v>
       </c>
       <c r="Q7" s="16"/>
@@ -1931,15 +2020,15 @@
         <v>261304.76190385997</v>
       </c>
       <c r="BI7" s="12">
-        <f t="shared" ref="BI7:BI65" si="30">BG7-AY7</f>
+        <f t="shared" ref="BI7:BI65" si="33">BG7-AY7</f>
         <v>-24</v>
       </c>
       <c r="BJ7" s="14">
-        <f t="shared" ref="BJ7:BJ65" si="31">BH7-AZ7</f>
+        <f t="shared" ref="BJ7:BJ65" si="34">BH7-AZ7</f>
         <v>-51955.238095139735</v>
       </c>
       <c r="BK7" s="13">
-        <f t="shared" ref="BK7:BK65" si="32">(BH7-AZ7)/AZ7</f>
+        <f t="shared" ref="BK7:BK65" si="35">(BH7-AZ7)/AZ7</f>
         <v>-0.16585340642056323</v>
       </c>
       <c r="BM7" s="16"/>
@@ -1964,8 +2053,30 @@
         <f t="shared" si="23"/>
         <v>5.3650180413427569E-2</v>
       </c>
+      <c r="BU7" s="16"/>
+      <c r="BV7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW7" s="12">
+        <v>254</v>
+      </c>
+      <c r="BX7" s="14">
+        <v>267507.61904672981</v>
+      </c>
+      <c r="BY7" s="12">
+        <f t="shared" si="24"/>
+        <v>-11</v>
+      </c>
+      <c r="BZ7" s="14">
+        <f t="shared" si="25"/>
+        <v>-7816.1904761599726</v>
+      </c>
+      <c r="CA7" s="13">
+        <f t="shared" si="26"/>
+        <v>-2.8389082984521731E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="8" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
@@ -1989,15 +2100,15 @@
         <v>421600.95238075999</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-121</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-41953.333333299961</v>
       </c>
       <c r="O8" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-9.0503603625786702E-2</v>
       </c>
       <c r="Q8" s="16"/>
@@ -2121,15 +2232,15 @@
         <v>416720.95238074992</v>
       </c>
       <c r="BI8" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>23</v>
       </c>
       <c r="BJ8" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>70825.714285709953</v>
       </c>
       <c r="BK8" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.20476059362878396</v>
       </c>
       <c r="BM8" s="16"/>
@@ -2154,8 +2265,30 @@
         <f t="shared" si="23"/>
         <v>-0.13124004415422399</v>
       </c>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW8" s="12">
+        <v>324</v>
+      </c>
+      <c r="BX8" s="14">
+        <v>367419.04761880974</v>
+      </c>
+      <c r="BY8" s="12">
+        <f t="shared" si="24"/>
+        <v>-34</v>
+      </c>
+      <c r="BZ8" s="14">
+        <f t="shared" si="25"/>
+        <v>5388.5714284997084</v>
+      </c>
+      <c r="CA8" s="13">
+        <f t="shared" si="26"/>
+        <v>1.4884303347067047E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="9" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="15" t="s">
         <v>8</v>
@@ -2179,15 +2312,15 @@
         <v>536015.23809521995</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>146310.47619046993</v>
       </c>
       <c r="O9" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.3754392824849046</v>
       </c>
       <c r="Q9" s="16"/>
@@ -2311,15 +2444,15 @@
         <v>1352394.2857142598</v>
       </c>
       <c r="BI9" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>148</v>
       </c>
       <c r="BJ9" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1021451.4285714298</v>
       </c>
       <c r="BK9" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3.0864888198224096</v>
       </c>
       <c r="BM9" s="16"/>
@@ -2344,8 +2477,30 @@
         <f t="shared" si="23"/>
         <v>-0.55318609534837049</v>
       </c>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW9" s="12">
+        <v>126</v>
+      </c>
+      <c r="BX9" s="14">
+        <v>842444.76190473</v>
+      </c>
+      <c r="BY9" s="12">
+        <f t="shared" si="24"/>
+        <v>43</v>
+      </c>
+      <c r="BZ9" s="14">
+        <f t="shared" si="25"/>
+        <v>238176.19047619007</v>
+      </c>
+      <c r="CA9" s="13">
+        <f t="shared" si="26"/>
+        <v>0.39415617779544981</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="15" t="s">
         <v>7</v>
@@ -2369,15 +2524,15 @@
         <v>2351999.9999997998</v>
       </c>
       <c r="M10" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>46</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>834666.66666666977</v>
       </c>
       <c r="O10" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.55008787346229016</v>
       </c>
       <c r="Q10" s="16"/>
@@ -2501,15 +2656,15 @@
         <v>784666.66666658001</v>
       </c>
       <c r="BI10" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-18</v>
       </c>
       <c r="BJ10" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-379238.09523808013</v>
       </c>
       <c r="BK10" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.32583258325834136</v>
       </c>
       <c r="BM10" s="16"/>
@@ -2534,8 +2689,30 @@
         <f t="shared" si="23"/>
         <v>0.30379900473362742</v>
       </c>
+      <c r="BU10" s="16"/>
+      <c r="BV10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW10" s="12">
+        <v>42</v>
+      </c>
+      <c r="BX10" s="14">
+        <v>681714.2857141901</v>
+      </c>
+      <c r="BY10" s="12">
+        <f t="shared" si="24"/>
+        <v>-21</v>
+      </c>
+      <c r="BZ10" s="14">
+        <f t="shared" si="25"/>
+        <v>-341333.3333333499</v>
+      </c>
+      <c r="CA10" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.33364364177997125</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="11" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="15" t="s">
         <v>6</v>
@@ -2559,15 +2736,15 @@
         <v>34857.142857129998</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>11999.999999989999</v>
       </c>
       <c r="O11" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.5249999999996281</v>
       </c>
       <c r="Q11" s="16"/>
@@ -2691,15 +2868,15 @@
         <v>2857.1428571400002</v>
       </c>
       <c r="BI11" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-2</v>
       </c>
       <c r="BJ11" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-5714.2857142800012</v>
       </c>
       <c r="BK11" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.66666666666666674</v>
       </c>
       <c r="BM11" s="16"/>
@@ -2724,8 +2901,30 @@
         <f t="shared" si="23"/>
         <v>7.9330000000029308</v>
       </c>
+      <c r="BU11" s="16"/>
+      <c r="BV11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW11" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="14">
+        <v>2657.1428571400002</v>
+      </c>
+      <c r="BY11" s="12">
+        <f t="shared" si="24"/>
+        <v>-5</v>
+      </c>
+      <c r="BZ11" s="14">
+        <f t="shared" si="25"/>
+        <v>-22865.714285699996</v>
+      </c>
+      <c r="CA11" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.89589163774771918</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="12" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="15" t="s">
         <v>5</v>
@@ -2749,15 +2948,15 @@
         <v>27320</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-4</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-32060</v>
       </c>
       <c r="O12" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.53991242842707987</v>
       </c>
       <c r="Q12" s="16"/>
@@ -2881,15 +3080,15 @@
         <v>56600</v>
       </c>
       <c r="BI12" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-5</v>
       </c>
       <c r="BJ12" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-13850</v>
       </c>
       <c r="BK12" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.19659332860184528</v>
       </c>
       <c r="BM12" s="16"/>
@@ -2914,8 +3113,30 @@
         <f t="shared" si="23"/>
         <v>0.62773851590106011</v>
       </c>
+      <c r="BU12" s="16"/>
+      <c r="BV12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW12" s="12">
+        <v>6</v>
+      </c>
+      <c r="BX12" s="14">
+        <v>32540</v>
+      </c>
+      <c r="BY12" s="12">
+        <f t="shared" si="24"/>
+        <v>-11</v>
+      </c>
+      <c r="BZ12" s="14">
+        <f t="shared" si="25"/>
+        <v>-59590</v>
+      </c>
+      <c r="CA12" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.64680342993596007</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="13" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="15" t="s">
         <v>4</v>
@@ -2939,15 +3160,15 @@
         <v>1833147.61904752</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>36</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1377523.8095237501</v>
       </c>
       <c r="O13" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>3.0233797723687315</v>
       </c>
       <c r="Q13" s="16"/>
@@ -3071,15 +3292,15 @@
         <v>600719.04761899996</v>
       </c>
       <c r="BI13" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="BJ13" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>21761.904761879938</v>
       </c>
       <c r="BK13" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3.7588109984248913E-2</v>
       </c>
       <c r="BM13" s="16"/>
@@ -3104,8 +3325,30 @@
         <f t="shared" si="23"/>
         <v>-0.46888252966680394</v>
       </c>
+      <c r="BU13" s="16"/>
+      <c r="BV13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW13" s="12">
+        <v>30</v>
+      </c>
+      <c r="BX13" s="14">
+        <v>1284623.8095237501</v>
+      </c>
+      <c r="BY13" s="12">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="BZ13" s="14">
+        <f t="shared" si="25"/>
+        <v>965571.42857138009</v>
+      </c>
+      <c r="CA13" s="13">
+        <f t="shared" si="26"/>
+        <v>3.0263727407053147</v>
+      </c>
     </row>
-    <row r="14" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="14" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="15" t="s">
         <v>3</v>
@@ -3129,15 +3372,15 @@
         <v>1778285.71428558</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>53</v>
       </c>
       <c r="N14" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>948190.47619039996</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.1422670949976934</v>
       </c>
       <c r="Q14" s="16"/>
@@ -3261,15 +3504,15 @@
         <v>683952.38095230004</v>
       </c>
       <c r="BI14" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-4</v>
       </c>
       <c r="BJ14" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-187952.38095238013</v>
       </c>
       <c r="BK14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.21556526488259709</v>
       </c>
       <c r="BM14" s="16"/>
@@ -3294,8 +3537,30 @@
         <f t="shared" si="23"/>
         <v>0.66295342198709739</v>
       </c>
+      <c r="BU14" s="16"/>
+      <c r="BV14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW14" s="12">
+        <v>71</v>
+      </c>
+      <c r="BX14" s="14">
+        <v>1444952.38095225</v>
+      </c>
+      <c r="BY14" s="12">
+        <f t="shared" si="24"/>
+        <v>18</v>
+      </c>
+      <c r="BZ14" s="14">
+        <f t="shared" si="25"/>
+        <v>307571.42857139977</v>
+      </c>
+      <c r="CA14" s="13">
+        <f t="shared" si="26"/>
+        <v>0.27042076617123617</v>
+      </c>
     </row>
-    <row r="15" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="15" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="15" t="s">
         <v>2</v>
@@ -3319,15 +3584,15 @@
         <v>4514433.3333332296</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-92</v>
       </c>
       <c r="N15" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-4670519.0476190317</v>
       </c>
       <c r="O15" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.50849681673959968</v>
       </c>
       <c r="Q15" s="16"/>
@@ -3451,15 +3716,15 @@
         <v>9620359.047618961</v>
       </c>
       <c r="BI15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-5</v>
       </c>
       <c r="BJ15" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-163926.66666667908</v>
       </c>
       <c r="BK15" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-1.6754076020831687E-2</v>
       </c>
       <c r="BM15" s="16"/>
@@ -3484,8 +3749,30 @@
         <f t="shared" si="23"/>
         <v>-0.23857034540934272</v>
       </c>
+      <c r="BU15" s="16"/>
+      <c r="BV15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW15" s="12">
+        <v>231</v>
+      </c>
+      <c r="BX15" s="14">
+        <v>8895390.4761903901</v>
+      </c>
+      <c r="BY15" s="12">
+        <f t="shared" si="24"/>
+        <v>39</v>
+      </c>
+      <c r="BZ15" s="14">
+        <f t="shared" si="25"/>
+        <v>1570163.8095237799</v>
+      </c>
+      <c r="CA15" s="13">
+        <f t="shared" si="26"/>
+        <v>0.21435020115743295</v>
+      </c>
     </row>
-    <row r="16" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
@@ -3510,15 +3797,15 @@
         <v>11814790.476188749</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-44</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1391720.0000001118</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.10538135736229202</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -3642,15 +3929,15 @@
         <v>13779574.285712851</v>
       </c>
       <c r="BI16" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>112</v>
       </c>
       <c r="BJ16" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>311402.38095246069</v>
       </c>
       <c r="BK16" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.3121354787756607E-2</v>
       </c>
       <c r="BM16" s="11" t="s">
@@ -3675,8 +3962,30 @@
         <f t="shared" si="23"/>
         <v>-0.18981652830108389</v>
       </c>
+      <c r="BU16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV16" s="11"/>
+      <c r="BW16" s="10">
+        <v>1085</v>
+      </c>
+      <c r="BX16" s="9">
+        <v>13819249.523807989</v>
+      </c>
+      <c r="BY16" s="29">
+        <f t="shared" si="24"/>
+        <v>38</v>
+      </c>
+      <c r="BZ16" s="30">
+        <f t="shared" si="25"/>
+        <v>2655266.1904760394</v>
+      </c>
+      <c r="CA16" s="31">
+        <f t="shared" si="26"/>
+        <v>0.23784218510505079</v>
+      </c>
     </row>
-    <row r="17" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="17" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="16">
         <v>76</v>
       </c>
@@ -3701,15 +4010,15 @@
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-958</v>
       </c>
       <c r="N17" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O17" s="13" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="16">
@@ -3833,15 +4142,15 @@
       </c>
       <c r="BH17" s="36"/>
       <c r="BI17" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-1227</v>
       </c>
       <c r="BJ17" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BK17" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM17" s="16">
@@ -3866,8 +4175,30 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BU17" s="16">
+        <v>76</v>
+      </c>
+      <c r="BV17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="BW17" s="17">
+        <v>5739</v>
+      </c>
+      <c r="BX17" s="36"/>
+      <c r="BY17" s="12">
+        <f t="shared" si="24"/>
+        <v>-40</v>
+      </c>
+      <c r="BZ17" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA17" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="18" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="18" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="35" t="s">
         <v>33</v>
@@ -3888,15 +4219,15 @@
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-6</v>
       </c>
       <c r="N18" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O18" s="13" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="16"/>
@@ -4008,15 +4339,15 @@
       </c>
       <c r="BH18" s="36"/>
       <c r="BI18" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>18</v>
       </c>
       <c r="BJ18" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BK18" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM18" s="16"/>
@@ -4039,8 +4370,26 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BU18" s="16"/>
+      <c r="BV18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW18" s="17"/>
+      <c r="BX18" s="36"/>
+      <c r="BY18" s="12">
+        <f t="shared" si="24"/>
+        <v>-30</v>
+      </c>
+      <c r="BZ18" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA18" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="19" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="19" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="15" t="s">
         <v>10</v>
@@ -4064,15 +4413,15 @@
         <v>228808.57142773012</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" ref="M19:M27" si="33">K19-C19</f>
+        <f t="shared" ref="M19:M27" si="36">K19-C19</f>
         <v>5</v>
       </c>
       <c r="N19" s="14">
-        <f t="shared" ref="N19:N27" si="34">L19-D19</f>
+        <f t="shared" ref="N19:N27" si="37">L19-D19</f>
         <v>16320.952380870236</v>
       </c>
       <c r="O19" s="13">
-        <f t="shared" ref="O19:O27" si="35">(L19-D19)/D19</f>
+        <f t="shared" ref="O19:O27" si="38">(L19-D19)/D19</f>
         <v>7.6808956936314385E-2</v>
       </c>
       <c r="Q19" s="16"/>
@@ -4196,15 +4545,15 @@
         <v>261547.61904664987</v>
       </c>
       <c r="BI19" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="BJ19" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>35514.285714209807</v>
       </c>
       <c r="BK19" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.1571196831485776</v>
       </c>
       <c r="BM19" s="16"/>
@@ -4229,8 +4578,30 @@
         <f t="shared" si="23"/>
         <v>-0.23599817933529227</v>
       </c>
+      <c r="BU19" s="16"/>
+      <c r="BV19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW19" s="12">
+        <v>243</v>
+      </c>
+      <c r="BX19" s="14">
+        <v>222998.09523728993</v>
+      </c>
+      <c r="BY19" s="12">
+        <f t="shared" si="24"/>
+        <v>42</v>
+      </c>
+      <c r="BZ19" s="14">
+        <f t="shared" si="25"/>
+        <v>23175.238095130044</v>
+      </c>
+      <c r="CA19" s="13">
+        <f t="shared" si="26"/>
+        <v>0.11597891465760843</v>
+      </c>
     </row>
-    <row r="20" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="15" t="s">
         <v>9</v>
@@ -4254,15 +4625,15 @@
         <v>270610.4761902999</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="N20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-1189.5238095000386</v>
       </c>
       <c r="O20" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-4.3764672902903388E-3</v>
       </c>
       <c r="Q20" s="16"/>
@@ -4386,15 +4757,15 @@
         <v>352294.28571410995</v>
       </c>
       <c r="BI20" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-25</v>
       </c>
       <c r="BJ20" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>27284.761904729938</v>
       </c>
       <c r="BK20" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>8.3950653460643232E-2</v>
       </c>
       <c r="BM20" s="16"/>
@@ -4419,8 +4790,30 @@
         <f t="shared" si="23"/>
         <v>-0.15584373454008885</v>
       </c>
+      <c r="BU20" s="16"/>
+      <c r="BV20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW20" s="12">
+        <v>239</v>
+      </c>
+      <c r="BX20" s="14">
+        <v>260047.61904747997</v>
+      </c>
+      <c r="BY20" s="12">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="BZ20" s="14">
+        <f t="shared" si="25"/>
+        <v>-37343.809523810021</v>
+      </c>
+      <c r="CA20" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.12557123688202751</v>
+      </c>
     </row>
-    <row r="21" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="15" t="s">
         <v>8</v>
@@ -4444,15 +4837,15 @@
         <v>242700.95238094</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4253.3333333399787</v>
       </c>
       <c r="O21" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.7837600351509102E-2</v>
       </c>
       <c r="Q21" s="16"/>
@@ -4576,15 +4969,15 @@
         <v>897705.71428569988</v>
       </c>
       <c r="BI21" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>83</v>
       </c>
       <c r="BJ21" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>578200.95238095988</v>
       </c>
       <c r="BK21" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.8096786693694094</v>
       </c>
       <c r="BM21" s="16"/>
@@ -4609,8 +5002,30 @@
         <f t="shared" si="23"/>
         <v>-0.34845548069098758</v>
       </c>
+      <c r="BU21" s="16"/>
+      <c r="BV21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW21" s="12">
+        <v>68</v>
+      </c>
+      <c r="BX21" s="14">
+        <v>447091.42857140995</v>
+      </c>
+      <c r="BY21" s="12">
+        <f t="shared" si="24"/>
+        <v>-18</v>
+      </c>
+      <c r="BZ21" s="14">
+        <f t="shared" si="25"/>
+        <v>-137803.80952382</v>
+      </c>
+      <c r="CA21" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.23560425961509268</v>
+      </c>
     </row>
-    <row r="22" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="22" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="15" t="s">
         <v>7</v>
@@ -4634,15 +5049,15 @@
         <v>859333.33333321998</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-2</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-128857.14285715017</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.1303970701619335</v>
       </c>
       <c r="Q22" s="16"/>
@@ -4766,15 +5181,15 @@
         <v>833999.99999991001</v>
       </c>
       <c r="BI22" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="BJ22" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>159904.76190476993</v>
       </c>
       <c r="BK22" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.23721390223231539</v>
       </c>
       <c r="BM22" s="16"/>
@@ -4799,8 +5214,30 @@
         <f t="shared" si="23"/>
         <v>-0.27121160214686385</v>
       </c>
+      <c r="BU22" s="16"/>
+      <c r="BV22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW22" s="12">
+        <v>45</v>
+      </c>
+      <c r="BX22" s="14">
+        <v>602857.14285708009</v>
+      </c>
+      <c r="BY22" s="12">
+        <f t="shared" si="24"/>
+        <v>-3</v>
+      </c>
+      <c r="BZ22" s="14">
+        <f t="shared" si="25"/>
+        <v>-4952.3809523698874</v>
+      </c>
+      <c r="CA22" s="13">
+        <f t="shared" si="26"/>
+        <v>-8.1479160137715653E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="23" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="15" t="s">
         <v>6</v>
@@ -4824,15 +5261,15 @@
         <v>14285.714285710001</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-8857.1428571299984</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.38271604938244391</v>
       </c>
       <c r="Q23" s="16"/>
@@ -4951,15 +5388,15 @@
         <v>5714.2857142800003</v>
       </c>
       <c r="BI23" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BJ23" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BK23" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BM23" s="16"/>
@@ -4984,8 +5421,30 @@
         <f t="shared" si="23"/>
         <v>-1</v>
       </c>
+      <c r="BU23" s="16"/>
+      <c r="BV23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW23" s="12">
+        <v>0</v>
+      </c>
+      <c r="BX23" s="14">
+        <v>0</v>
+      </c>
+      <c r="BY23" s="12">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA23" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="24" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="24" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="15" t="s">
         <v>5</v>
@@ -5009,15 +5468,15 @@
         <v>13370</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-2</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-11080</v>
       </c>
       <c r="O24" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.45316973415132922</v>
       </c>
       <c r="Q24" s="16"/>
@@ -5141,15 +5600,15 @@
         <v>55980</v>
       </c>
       <c r="BI24" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="BJ24" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-18590</v>
       </c>
       <c r="BK24" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.24929596352420544</v>
       </c>
       <c r="BM24" s="16"/>
@@ -5174,8 +5633,30 @@
         <f t="shared" si="23"/>
         <v>-0.41354055019649877</v>
       </c>
+      <c r="BU24" s="16"/>
+      <c r="BV24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW24" s="12">
+        <v>14</v>
+      </c>
+      <c r="BX24" s="14">
+        <v>77360</v>
+      </c>
+      <c r="BY24" s="12">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="BZ24" s="14">
+        <f t="shared" si="25"/>
+        <v>44530</v>
+      </c>
+      <c r="CA24" s="13">
+        <f t="shared" si="26"/>
+        <v>1.3563813585135547</v>
+      </c>
     </row>
-    <row r="25" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="25" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="15" t="s">
         <v>4</v>
@@ -5199,15 +5680,15 @@
         <v>375433.33333329996</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-4</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-75333.333333309973</v>
       </c>
       <c r="O25" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.16712267987869434</v>
       </c>
       <c r="Q25" s="16"/>
@@ -5331,15 +5812,15 @@
         <v>572699.04761901998</v>
       </c>
       <c r="BI25" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="BJ25" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>239511.42857142998</v>
       </c>
       <c r="BK25" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.71884852521251685</v>
       </c>
       <c r="BM25" s="16"/>
@@ -5364,8 +5845,30 @@
         <f t="shared" si="23"/>
         <v>-0.72246538529336768</v>
       </c>
+      <c r="BU25" s="16"/>
+      <c r="BV25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW25" s="12">
+        <v>12</v>
+      </c>
+      <c r="BX25" s="14">
+        <v>404292.38095238002</v>
+      </c>
+      <c r="BY25" s="12">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="BZ25" s="14">
+        <f t="shared" si="25"/>
+        <v>245348.57142858003</v>
+      </c>
+      <c r="CA25" s="13">
+        <f t="shared" si="26"/>
+        <v>1.5436182897821003</v>
+      </c>
     </row>
-    <row r="26" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="26" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="15" t="s">
         <v>3</v>
@@ -5389,15 +5892,15 @@
         <v>840799.9999998901</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-4</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-72390.476190499961</v>
       </c>
       <c r="O26" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-7.9272044636838013E-2</v>
       </c>
       <c r="Q26" s="16"/>
@@ -5521,15 +6024,15 @@
         <v>594714.28571418999</v>
       </c>
       <c r="BI26" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-9</v>
       </c>
       <c r="BJ26" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-198380.95238094009</v>
       </c>
       <c r="BK26" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.25013509456621491</v>
       </c>
       <c r="BM26" s="16"/>
@@ -5554,8 +6057,30 @@
         <f t="shared" si="23"/>
         <v>0.43382176315169374</v>
       </c>
+      <c r="BU26" s="16"/>
+      <c r="BV26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW26" s="12">
+        <v>48</v>
+      </c>
+      <c r="BX26" s="14">
+        <v>816761.90476183</v>
+      </c>
+      <c r="BY26" s="12">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="BZ26" s="14">
+        <f t="shared" si="25"/>
+        <v>-35952.380952390027</v>
+      </c>
+      <c r="CA26" s="13">
+        <f t="shared" si="26"/>
+        <v>-4.2162282906139985E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="27" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="15" t="s">
         <v>2</v>
@@ -5579,15 +6104,15 @@
         <v>1390874.28571424</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-5</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-664649.52380951005</v>
       </c>
       <c r="O27" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.32334800537460301</v>
       </c>
       <c r="Q27" s="16"/>
@@ -5711,15 +6236,15 @@
         <v>7777809.5238094311</v>
       </c>
       <c r="BI27" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>46</v>
       </c>
       <c r="BJ27" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1565619.0476190113</v>
       </c>
       <c r="BK27" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.25202367081621035</v>
       </c>
       <c r="BM27" s="16"/>
@@ -5744,8 +6269,30 @@
         <f t="shared" si="23"/>
         <v>-0.41771878482128999</v>
       </c>
+      <c r="BU27" s="16"/>
+      <c r="BV27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW27" s="12">
+        <v>152</v>
+      </c>
+      <c r="BX27" s="14">
+        <v>5663375.2380951596</v>
+      </c>
+      <c r="BY27" s="12">
+        <f t="shared" si="24"/>
+        <v>33</v>
+      </c>
+      <c r="BZ27" s="14">
+        <f t="shared" si="25"/>
+        <v>1134502.8571428601</v>
+      </c>
+      <c r="CA27" s="13">
+        <f t="shared" si="26"/>
+        <v>0.25050448802982273</v>
+      </c>
     </row>
-    <row r="28" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="28" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
@@ -5770,15 +6317,15 @@
         <v>4236216.6666653296</v>
       </c>
       <c r="M28" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-941782.8571428908</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.18188160366037376</v>
       </c>
       <c r="Q28" s="11" t="s">
@@ -5902,15 +6449,15 @@
         <v>11352464.76190329</v>
       </c>
       <c r="BI28" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>126</v>
       </c>
       <c r="BJ28" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>2389064.28571417</v>
       </c>
       <c r="BK28" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.26653548416815853</v>
       </c>
       <c r="BM28" s="11" t="s">
@@ -5935,8 +6482,30 @@
         <f t="shared" si="23"/>
         <v>-0.36020241629089811</v>
       </c>
+      <c r="BU28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV28" s="11"/>
+      <c r="BW28" s="10">
+        <v>821</v>
+      </c>
+      <c r="BX28" s="9">
+        <v>8494783.8095226288</v>
+      </c>
+      <c r="BY28" s="29">
+        <f t="shared" si="24"/>
+        <v>97</v>
+      </c>
+      <c r="BZ28" s="30">
+        <f t="shared" si="25"/>
+        <v>1231504.2857141793</v>
+      </c>
+      <c r="CA28" s="31">
+        <f t="shared" si="26"/>
+        <v>0.16955209856338405</v>
+      </c>
     </row>
-    <row r="29" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="16">
         <v>77</v>
       </c>
@@ -5961,15 +6530,15 @@
       </c>
       <c r="L29" s="38"/>
       <c r="M29" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>685</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O29" s="13" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="16">
@@ -6093,15 +6662,15 @@
       </c>
       <c r="BH29" s="36"/>
       <c r="BI29" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-431</v>
       </c>
       <c r="BJ29" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BK29" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM29" s="16">
@@ -6126,8 +6695,30 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BU29" s="16">
+        <v>77</v>
+      </c>
+      <c r="BV29" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="BW29" s="17">
+        <v>3823</v>
+      </c>
+      <c r="BX29" s="36"/>
+      <c r="BY29" s="12">
+        <f t="shared" si="24"/>
+        <v>-846</v>
+      </c>
+      <c r="BZ29" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA29" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="30" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="30" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="35" t="s">
         <v>33</v>
@@ -6148,15 +6739,15 @@
       </c>
       <c r="L30" s="38"/>
       <c r="M30" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-9</v>
       </c>
       <c r="N30" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O30" s="13" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="16"/>
@@ -6268,15 +6859,15 @@
       </c>
       <c r="BH30" s="36"/>
       <c r="BI30" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="BJ30" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BK30" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM30" s="16"/>
@@ -6299,8 +6890,26 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BU30" s="16"/>
+      <c r="BV30" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW30" s="17"/>
+      <c r="BX30" s="36"/>
+      <c r="BY30" s="12">
+        <f t="shared" si="24"/>
+        <v>-13</v>
+      </c>
+      <c r="BZ30" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA30" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="31" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="31" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="15" t="s">
         <v>10</v>
@@ -6324,15 +6933,15 @@
         <v>177112.38095158999</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" ref="M31:M39" si="36">K31-C31</f>
+        <f t="shared" ref="M31:M39" si="39">K31-C31</f>
         <v>50</v>
       </c>
       <c r="N31" s="14">
-        <f t="shared" ref="N31:N39" si="37">L31-D31</f>
+        <f t="shared" ref="N31:N39" si="40">L31-D31</f>
         <v>59494.285713969963</v>
       </c>
       <c r="O31" s="13">
-        <f t="shared" ref="O31:O39" si="38">(L31-D31)/D31</f>
+        <f t="shared" ref="O31:O39" si="41">(L31-D31)/D31</f>
         <v>0.5058259581042831</v>
       </c>
       <c r="Q31" s="16"/>
@@ -6456,15 +7065,15 @@
         <v>143581.90476134996</v>
       </c>
       <c r="BI31" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="BJ31" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>12963.809523710006</v>
       </c>
       <c r="BK31" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>9.9249721105826166E-2</v>
       </c>
       <c r="BM31" s="16"/>
@@ -6489,8 +7098,30 @@
         <f t="shared" si="23"/>
         <v>-0.1259874901337108</v>
       </c>
+      <c r="BU31" s="16"/>
+      <c r="BV31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW31" s="12">
+        <v>119</v>
+      </c>
+      <c r="BX31" s="14">
+        <v>106534.28571378994</v>
+      </c>
+      <c r="BY31" s="12">
+        <f t="shared" si="24"/>
+        <v>-15</v>
+      </c>
+      <c r="BZ31" s="14">
+        <f t="shared" si="25"/>
+        <v>-18958.095238060036</v>
+      </c>
+      <c r="CA31" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.15106969119769945</v>
+      </c>
     </row>
-    <row r="32" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="32" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="15" t="s">
         <v>9</v>
@@ -6514,15 +7145,15 @@
         <v>89939.047618969998</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>12</v>
       </c>
       <c r="N32" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>7165.7142857699801</v>
       </c>
       <c r="O32" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>8.6570324006703295E-2</v>
       </c>
       <c r="Q32" s="16"/>
@@ -6646,15 +7277,15 @@
         <v>128144.76190464999</v>
       </c>
       <c r="BI32" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>19</v>
       </c>
       <c r="BJ32" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>31128.571428589974</v>
       </c>
       <c r="BK32" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.32085955216177392</v>
       </c>
       <c r="BM32" s="16"/>
@@ -6679,8 +7310,30 @@
         <f t="shared" si="23"/>
         <v>-0.34834116178158198</v>
       </c>
+      <c r="BU32" s="16"/>
+      <c r="BV32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW32" s="12">
+        <v>74</v>
+      </c>
+      <c r="BX32" s="14">
+        <v>67507.619047529995</v>
+      </c>
+      <c r="BY32" s="12">
+        <f t="shared" si="24"/>
+        <v>-16</v>
+      </c>
+      <c r="BZ32" s="14">
+        <f t="shared" si="25"/>
+        <v>-15999.047619030011</v>
+      </c>
+      <c r="CA32" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.19159006409528714</v>
+      </c>
     </row>
-    <row r="33" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="33" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="15" t="s">
         <v>8</v>
@@ -6704,15 +7357,15 @@
         <v>211971.42857141001</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>15</v>
       </c>
       <c r="N33" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>110428.57142856001</v>
       </c>
       <c r="O33" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0875070343274824</v>
       </c>
       <c r="Q33" s="16"/>
@@ -6836,15 +7489,15 @@
         <v>209704.76190474999</v>
       </c>
       <c r="BI33" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>19</v>
       </c>
       <c r="BJ33" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>151247.61904761998</v>
       </c>
       <c r="BK33" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.587324861518995</v>
       </c>
       <c r="BM33" s="16"/>
@@ -6869,8 +7522,30 @@
         <f t="shared" si="23"/>
         <v>0.68023070984154377</v>
       </c>
+      <c r="BU33" s="16"/>
+      <c r="BV33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW33" s="12">
+        <v>24</v>
+      </c>
+      <c r="BX33" s="14">
+        <v>144844.76190475002</v>
+      </c>
+      <c r="BY33" s="12">
+        <f t="shared" si="24"/>
+        <v>-29</v>
+      </c>
+      <c r="BZ33" s="14">
+        <f t="shared" si="25"/>
+        <v>-207507.61904761998</v>
+      </c>
+      <c r="CA33" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.58892072330191025</v>
+      </c>
     </row>
-    <row r="34" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="34" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="15" t="s">
         <v>7</v>
@@ -6894,15 +7569,15 @@
         <v>513999.99999994005</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="N34" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>194190.47619048005</v>
       </c>
       <c r="O34" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.6072066706374174</v>
       </c>
       <c r="Q34" s="16"/>
@@ -7026,15 +7701,15 @@
         <v>256857.14285710003</v>
       </c>
       <c r="BI34" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-5</v>
       </c>
       <c r="BJ34" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-121428.57142856999</v>
       </c>
       <c r="BK34" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.32099697885199752</v>
       </c>
       <c r="BM34" s="16"/>
@@ -7059,8 +7734,30 @@
         <f t="shared" si="23"/>
         <v>-0.38598442714134362</v>
       </c>
+      <c r="BU34" s="16"/>
+      <c r="BV34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW34" s="12">
+        <v>11</v>
+      </c>
+      <c r="BX34" s="14">
+        <v>189428.57142853003</v>
+      </c>
+      <c r="BY34" s="12">
+        <f t="shared" si="24"/>
+        <v>-3</v>
+      </c>
+      <c r="BZ34" s="14">
+        <f t="shared" si="25"/>
+        <v>31714.285714290017</v>
+      </c>
+      <c r="CA34" s="13">
+        <f t="shared" si="26"/>
+        <v>0.20108695652182468</v>
+      </c>
     </row>
-    <row r="35" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="35" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="15" t="s">
         <v>6</v>
@@ -7084,15 +7781,15 @@
         <v>0</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-6</v>
       </c>
       <c r="N35" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-17551.428571409997</v>
       </c>
       <c r="O35" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="Q35" s="16"/>
@@ -7211,15 +7908,15 @@
         <v>4713.3333333299997</v>
       </c>
       <c r="BI35" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BJ35" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1856.1904761899996</v>
       </c>
       <c r="BK35" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.64966666666714945</v>
       </c>
       <c r="BM35" s="16"/>
@@ -7244,8 +7941,30 @@
         <f t="shared" si="23"/>
         <v>-1</v>
       </c>
+      <c r="BU35" s="16"/>
+      <c r="BV35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW35" s="12">
+        <v>0</v>
+      </c>
+      <c r="BX35" s="14">
+        <v>0</v>
+      </c>
+      <c r="BY35" s="12">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BZ35" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA35" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="36" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="16"/>
       <c r="B36" s="15" t="s">
         <v>5</v>
@@ -7269,15 +7988,15 @@
         <v>33040</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="N36" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>23980</v>
       </c>
       <c r="O36" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.6467991169977925</v>
       </c>
       <c r="Q36" s="16"/>
@@ -7401,15 +8120,15 @@
         <v>19750</v>
       </c>
       <c r="BI36" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="BJ36" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>13360</v>
       </c>
       <c r="BK36" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.0907668231611893</v>
       </c>
       <c r="BM36" s="16"/>
@@ -7434,8 +8153,30 @@
         <f t="shared" si="23"/>
         <v>-0.29265822784810125</v>
       </c>
+      <c r="BU36" s="16"/>
+      <c r="BV36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW36" s="12">
+        <v>5</v>
+      </c>
+      <c r="BX36" s="14">
+        <v>21950</v>
+      </c>
+      <c r="BY36" s="12">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="BZ36" s="14">
+        <f t="shared" si="25"/>
+        <v>7980</v>
+      </c>
+      <c r="CA36" s="13">
+        <f t="shared" si="26"/>
+        <v>0.57122405153901212</v>
+      </c>
     </row>
-    <row r="37" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="37" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="15" t="s">
         <v>4</v>
@@ -7459,15 +8200,15 @@
         <v>168163.80952380001</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="N37" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>8449.5238095299865</v>
       </c>
       <c r="O37" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>5.2903995229620498E-2</v>
       </c>
       <c r="Q37" s="16"/>
@@ -7586,15 +8327,15 @@
         <v>31333.33333333</v>
       </c>
       <c r="BI37" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>3333.3333333299997</v>
       </c>
       <c r="BK37" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.1190476190475</v>
       </c>
       <c r="BM37" s="16"/>
@@ -7619,8 +8360,30 @@
         <f t="shared" si="23"/>
         <v>1.6110030395136821</v>
       </c>
+      <c r="BU37" s="16"/>
+      <c r="BV37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW37" s="12">
+        <v>2</v>
+      </c>
+      <c r="BX37" s="14">
+        <v>100006.66666665999</v>
+      </c>
+      <c r="BY37" s="12">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="BZ37" s="14">
+        <f t="shared" si="25"/>
+        <v>18195.238095239998</v>
+      </c>
+      <c r="CA37" s="13">
+        <f t="shared" si="26"/>
+        <v>0.22240460059141814</v>
+      </c>
     </row>
-    <row r="38" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="38" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -7644,15 +8407,15 @@
         <v>224190.47619045002</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N38" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>45666.666666680016</v>
       </c>
       <c r="O38" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.25580154707935254</v>
       </c>
       <c r="Q38" s="16"/>
@@ -7776,15 +8539,15 @@
         <v>280428.57142852998</v>
       </c>
       <c r="BI38" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-2</v>
       </c>
       <c r="BJ38" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-1285.7142856900464</v>
       </c>
       <c r="BK38" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-4.5638945232415939E-3</v>
       </c>
       <c r="BM38" s="16"/>
@@ -7809,8 +8572,30 @@
         <f t="shared" si="23"/>
         <v>-0.18424180675836649</v>
       </c>
+      <c r="BU38" s="16"/>
+      <c r="BV38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW38" s="12">
+        <v>10</v>
+      </c>
+      <c r="BX38" s="14">
+        <v>153619.04761901998</v>
+      </c>
+      <c r="BY38" s="12">
+        <f t="shared" si="24"/>
+        <v>-2</v>
+      </c>
+      <c r="BZ38" s="14">
+        <f t="shared" si="25"/>
+        <v>-75142.85714285</v>
+      </c>
+      <c r="CA38" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.32847626977520605</v>
+      </c>
     </row>
-    <row r="39" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="39" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="15" t="s">
         <v>2</v>
@@ -7834,15 +8619,15 @@
         <v>734112.38095234998</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-39</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-1661411.4285714002</v>
       </c>
       <c r="O39" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.69354828449887229</v>
       </c>
       <c r="Q39" s="16"/>
@@ -7966,15 +8751,15 @@
         <v>2722285.7142856703</v>
       </c>
       <c r="BI39" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>26</v>
       </c>
       <c r="BJ39" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>918476.1904761903</v>
       </c>
       <c r="BK39" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.50918690601901961</v>
       </c>
       <c r="BM39" s="16"/>
@@ -7999,8 +8784,30 @@
         <f t="shared" si="23"/>
         <v>-0.54247131262244963</v>
       </c>
+      <c r="BU39" s="16"/>
+      <c r="BV39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW39" s="12">
+        <v>36</v>
+      </c>
+      <c r="BX39" s="14">
+        <v>1287047.61904756</v>
+      </c>
+      <c r="BY39" s="12">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="BZ39" s="14">
+        <f t="shared" si="25"/>
+        <v>41523.809523780132</v>
+      </c>
+      <c r="CA39" s="13">
+        <f t="shared" si="26"/>
+        <v>3.3338430952722264E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="40" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>12</v>
       </c>
@@ -8025,15 +8832,15 @@
         <v>2152529.52380851</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>46</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1229587.6190478201</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.36355559760694311</v>
       </c>
       <c r="Q40" s="11" t="s">
@@ -8157,15 +8964,15 @@
         <v>3796799.5238087103</v>
       </c>
       <c r="BI40" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>70</v>
       </c>
       <c r="BJ40" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1009651.4285713704</v>
       </c>
       <c r="BK40" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.36225252267601282</v>
       </c>
       <c r="BM40" s="11" t="s">
@@ -8190,8 +8997,30 @@
         <f t="shared" si="23"/>
         <v>-0.39708882631607162</v>
       </c>
+      <c r="BU40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV40" s="11"/>
+      <c r="BW40" s="10">
+        <v>281</v>
+      </c>
+      <c r="BX40" s="9">
+        <v>2070938.5714278398</v>
+      </c>
+      <c r="BY40" s="29">
+        <f t="shared" si="24"/>
+        <v>-60</v>
+      </c>
+      <c r="BZ40" s="30">
+        <f t="shared" si="25"/>
+        <v>-218194.28571425006</v>
+      </c>
+      <c r="CA40" s="31">
+        <f t="shared" si="26"/>
+        <v>-9.5317440852541319E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="41" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="16">
         <v>81</v>
       </c>
@@ -8216,15 +9045,15 @@
       </c>
       <c r="L41" s="38"/>
       <c r="M41" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-261</v>
       </c>
       <c r="N41" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O41" s="13" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="16">
@@ -8348,15 +9177,15 @@
       </c>
       <c r="BH41" s="36"/>
       <c r="BI41" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-210</v>
       </c>
       <c r="BJ41" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BK41" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM41" s="16">
@@ -8381,8 +9210,30 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BU41" s="16">
+        <v>81</v>
+      </c>
+      <c r="BV41" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="BW41" s="17">
+        <v>1595</v>
+      </c>
+      <c r="BX41" s="36"/>
+      <c r="BY41" s="12">
+        <f t="shared" si="24"/>
+        <v>-78</v>
+      </c>
+      <c r="BZ41" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA41" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="42" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="42" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="35" t="s">
         <v>33</v>
@@ -8403,15 +9254,15 @@
       </c>
       <c r="L42" s="38"/>
       <c r="M42" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-9</v>
       </c>
       <c r="N42" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O42" s="13" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="16"/>
@@ -8523,15 +9374,15 @@
       </c>
       <c r="BH42" s="36"/>
       <c r="BI42" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="BJ42" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BK42" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM42" s="16"/>
@@ -8554,8 +9405,26 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BU42" s="16"/>
+      <c r="BV42" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW42" s="17"/>
+      <c r="BX42" s="36"/>
+      <c r="BY42" s="12">
+        <f t="shared" si="24"/>
+        <v>-2</v>
+      </c>
+      <c r="BZ42" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA42" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="43" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="43" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="15" t="s">
         <v>10</v>
@@ -8579,15 +9448,15 @@
         <v>140190.47618992999</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" ref="M43:M51" si="39">K43-C43</f>
+        <f t="shared" ref="M43:M51" si="42">K43-C43</f>
         <v>32</v>
       </c>
       <c r="N43" s="14">
-        <f t="shared" ref="N43:N51" si="40">L43-D43</f>
+        <f t="shared" ref="N43:N51" si="43">L43-D43</f>
         <v>36774.285714210011</v>
       </c>
       <c r="O43" s="13">
-        <f t="shared" ref="O43:O51" si="41">(L43-D43)/D43</f>
+        <f t="shared" ref="O43:O51" si="44">(L43-D43)/D43</f>
         <v>0.35559505281567944</v>
       </c>
       <c r="Q43" s="16"/>
@@ -8711,15 +9580,15 @@
         <v>127592.38095183</v>
       </c>
       <c r="BI43" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="BJ43" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1656.1904762000049</v>
       </c>
       <c r="BK43" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.3151028865848499E-2</v>
       </c>
       <c r="BM43" s="16"/>
@@ -8744,8 +9613,30 @@
         <f t="shared" si="23"/>
         <v>-0.14600812109998351</v>
       </c>
+      <c r="BU43" s="16"/>
+      <c r="BV43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW43" s="12">
+        <v>119</v>
+      </c>
+      <c r="BX43" s="14">
+        <v>100208.57142813996</v>
+      </c>
+      <c r="BY43" s="12">
+        <f t="shared" si="24"/>
+        <v>-16</v>
+      </c>
+      <c r="BZ43" s="14">
+        <f t="shared" si="25"/>
+        <v>-8754.2857142400171</v>
+      </c>
+      <c r="CA43" s="13">
+        <f t="shared" si="26"/>
+        <v>-8.034192516447082E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="44" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="15" t="s">
         <v>9</v>
@@ -8769,15 +9660,15 @@
         <v>84724.761904650004</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>26</v>
       </c>
       <c r="N44" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>14286.666666670004</v>
       </c>
       <c r="O44" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.20282585181216936</v>
       </c>
       <c r="Q44" s="16"/>
@@ -8901,15 +9792,15 @@
         <v>58333.333333240007</v>
       </c>
       <c r="BI44" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-20</v>
       </c>
       <c r="BJ44" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-27973.333333309987</v>
       </c>
       <c r="BK44" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.32411555692894872</v>
       </c>
       <c r="BM44" s="16"/>
@@ -8934,8 +9825,30 @@
         <f t="shared" si="23"/>
         <v>0.24199183673472974</v>
       </c>
+      <c r="BU44" s="16"/>
+      <c r="BV44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW44" s="12">
+        <v>98</v>
+      </c>
+      <c r="BX44" s="14">
+        <v>89000.952380849994</v>
+      </c>
+      <c r="BY44" s="12">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="BZ44" s="14">
+        <f t="shared" si="25"/>
+        <v>16551.428571440003</v>
+      </c>
+      <c r="CA44" s="13">
+        <f t="shared" si="26"/>
+        <v>0.22845462193762889</v>
+      </c>
     </row>
-    <row r="45" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="45" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="15" t="s">
         <v>8</v>
@@ -8959,15 +9872,15 @@
         <v>91266.666666649995</v>
       </c>
       <c r="M45" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-2866.6666666700039</v>
       </c>
       <c r="O45" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-3.0453257790408039E-2</v>
       </c>
       <c r="Q45" s="16"/>
@@ -9091,15 +10004,15 @@
         <v>204697.14285713001</v>
       </c>
       <c r="BI45" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>19</v>
       </c>
       <c r="BJ45" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>139106.66666665999</v>
       </c>
       <c r="BK45" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.120836358356422</v>
       </c>
       <c r="BM45" s="16"/>
@@ -9124,8 +10037,30 @@
         <f t="shared" si="23"/>
         <v>0.10802486367781644</v>
       </c>
+      <c r="BU45" s="16"/>
+      <c r="BV45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW45" s="12">
+        <v>26</v>
+      </c>
+      <c r="BX45" s="14">
+        <v>186895.23809522</v>
+      </c>
+      <c r="BY45" s="12">
+        <f t="shared" si="24"/>
+        <v>-9</v>
+      </c>
+      <c r="BZ45" s="14">
+        <f t="shared" si="25"/>
+        <v>-39914.285714289988</v>
+      </c>
+      <c r="CA45" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.17598152424945221</v>
+      </c>
     </row>
-    <row r="46" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="46" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="15" t="s">
         <v>7</v>
@@ -9149,15 +10084,15 @@
         <v>300476.19047614001</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
       <c r="N46" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>133142.85714283999</v>
       </c>
       <c r="O46" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.79567444507689145</v>
       </c>
       <c r="Q46" s="16"/>
@@ -9281,15 +10216,15 @@
         <v>74666.666666659992</v>
       </c>
       <c r="BI46" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-4</v>
       </c>
       <c r="BJ46" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-36761.90476188001</v>
       </c>
       <c r="BK46" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.32991452991440084</v>
       </c>
       <c r="BM46" s="16"/>
@@ -9314,8 +10249,30 @@
         <f t="shared" si="23"/>
         <v>3.0637755102037563</v>
       </c>
+      <c r="BU46" s="16"/>
+      <c r="BV46" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW46" s="12">
+        <v>11</v>
+      </c>
+      <c r="BX46" s="14">
+        <v>134190.47619044001</v>
+      </c>
+      <c r="BY46" s="12">
+        <f t="shared" si="24"/>
+        <v>-13</v>
+      </c>
+      <c r="BZ46" s="14">
+        <f t="shared" si="25"/>
+        <v>-169238.09523808002</v>
+      </c>
+      <c r="CA46" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.55775266792220379</v>
+      </c>
     </row>
-    <row r="47" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="47" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="15" t="s">
         <v>6</v>
@@ -9339,15 +10296,15 @@
         <v>0</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="N47" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-2857.1428571400002</v>
       </c>
       <c r="O47" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="Q47" s="16"/>
@@ -9461,15 +10418,15 @@
         <v>0</v>
       </c>
       <c r="BI47" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-1</v>
       </c>
       <c r="BJ47" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-2857.1428571400002</v>
       </c>
       <c r="BK47" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="BM47" s="16"/>
@@ -9494,8 +10451,30 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BU47" s="16"/>
+      <c r="BV47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW47" s="12">
+        <v>0</v>
+      </c>
+      <c r="BX47" s="14">
+        <v>0</v>
+      </c>
+      <c r="BY47" s="12">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BZ47" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA47" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="48" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="48" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="16"/>
       <c r="B48" s="15" t="s">
         <v>5</v>
@@ -9519,15 +10498,15 @@
         <v>2190</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N48" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-6800</v>
       </c>
       <c r="O48" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.75639599555061177</v>
       </c>
       <c r="Q48" s="16"/>
@@ -9651,15 +10630,15 @@
         <v>4890</v>
       </c>
       <c r="BI48" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-6</v>
       </c>
       <c r="BJ48" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-35540</v>
       </c>
       <c r="BK48" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.8790502102399208</v>
       </c>
       <c r="BM48" s="16"/>
@@ -9684,8 +10663,30 @@
         <f t="shared" si="23"/>
         <v>2.572597137014315</v>
       </c>
+      <c r="BU48" s="16"/>
+      <c r="BV48" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW48" s="12">
+        <v>5</v>
+      </c>
+      <c r="BX48" s="14">
+        <v>26550</v>
+      </c>
+      <c r="BY48" s="12">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="BZ48" s="14">
+        <f t="shared" si="25"/>
+        <v>9080</v>
+      </c>
+      <c r="CA48" s="13">
+        <f t="shared" si="26"/>
+        <v>0.51974813966800226</v>
+      </c>
     </row>
-    <row r="49" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="49" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="15" t="s">
         <v>4</v>
@@ -9709,15 +10710,15 @@
         <v>53290.476190469999</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-2</v>
       </c>
       <c r="N49" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-76190.476190459987</v>
       </c>
       <c r="O49" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.58842999521898287</v>
       </c>
       <c r="Q49" s="16"/>
@@ -9841,15 +10842,15 @@
         <v>117333.33333333</v>
       </c>
       <c r="BI49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BJ49" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>53526.666666669997</v>
       </c>
       <c r="BK49" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.83888830843186069</v>
       </c>
       <c r="BM49" s="16"/>
@@ -9874,8 +10875,30 @@
         <f t="shared" si="23"/>
         <v>-0.38961038961043709</v>
       </c>
+      <c r="BU49" s="16"/>
+      <c r="BV49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW49" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX49" s="14">
+        <v>35340</v>
+      </c>
+      <c r="BY49" s="12">
+        <f t="shared" si="24"/>
+        <v>-2</v>
+      </c>
+      <c r="BZ49" s="14">
+        <f t="shared" si="25"/>
+        <v>-36279.047619040008</v>
+      </c>
+      <c r="CA49" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.50655585106377732</v>
+      </c>
     </row>
-    <row r="50" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="50" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="15" t="s">
         <v>3</v>
@@ -9899,15 +10922,15 @@
         <v>390285.71428562998</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>13</v>
       </c>
       <c r="N50" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>205619.04761898998</v>
       </c>
       <c r="O50" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.1134605466733918</v>
       </c>
       <c r="Q50" s="16"/>
@@ -10031,15 +11054,15 @@
         <v>143333.33333331</v>
       </c>
       <c r="BI50" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-2</v>
       </c>
       <c r="BJ50" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-40380.952380940027</v>
       </c>
       <c r="BK50" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.21980300673921857</v>
       </c>
       <c r="BM50" s="16"/>
@@ -10064,8 +11087,30 @@
         <f t="shared" si="23"/>
         <v>-0.37009966777408354</v>
       </c>
+      <c r="BU50" s="16"/>
+      <c r="BV50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW50" s="12">
+        <v>13</v>
+      </c>
+      <c r="BX50" s="14">
+        <v>253142.85714282002</v>
+      </c>
+      <c r="BY50" s="12">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="BZ50" s="14">
+        <f t="shared" si="25"/>
+        <v>162857.14285712002</v>
+      </c>
+      <c r="CA50" s="13">
+        <f t="shared" si="26"/>
+        <v>1.8037974683544629</v>
+      </c>
     </row>
-    <row r="51" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="51" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="15" t="s">
         <v>2</v>
@@ -10089,15 +11134,15 @@
         <v>1090714.2857142501</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-6</v>
       </c>
       <c r="N51" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-406999.99999997998</v>
       </c>
       <c r="O51" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.27174742464707802</v>
       </c>
       <c r="Q51" s="16"/>
@@ -10221,15 +11266,15 @@
         <v>2179809.5238094702</v>
       </c>
       <c r="BI51" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="BJ51" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>74761.904761900194</v>
       </c>
       <c r="BK51" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3.5515540876802712E-2</v>
       </c>
       <c r="BM51" s="16"/>
@@ -10254,8 +11299,30 @@
         <f t="shared" si="23"/>
         <v>-0.33899860188745079</v>
       </c>
+      <c r="BU51" s="16"/>
+      <c r="BV51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW51" s="12">
+        <v>34</v>
+      </c>
+      <c r="BX51" s="14">
+        <v>1291999.9999999399</v>
+      </c>
+      <c r="BY51" s="12">
+        <f t="shared" si="24"/>
+        <v>-7</v>
+      </c>
+      <c r="BZ51" s="14">
+        <f t="shared" si="25"/>
+        <v>-148857.14285716997</v>
+      </c>
+      <c r="CA51" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.10331152092010842</v>
+      </c>
     </row>
-    <row r="52" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="52" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>11</v>
       </c>
@@ -10280,15 +11347,15 @@
         <v>2153138.5714277201</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" ref="M52:M65" si="42">K52-C52</f>
+        <f t="shared" ref="M52:M65" si="45">K52-C52</f>
         <v>75</v>
       </c>
       <c r="N52" s="9">
-        <f t="shared" ref="N52:N65" si="43">L52-D52</f>
+        <f t="shared" ref="N52:N65" si="46">L52-D52</f>
         <v>-105891.42857153993</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" ref="O52:O65" si="44">(L52-D52)/D52</f>
+        <f t="shared" ref="O52:O65" si="47">(L52-D52)/D52</f>
         <v>-4.6874733213624703E-2</v>
       </c>
       <c r="Q52" s="11" t="s">
@@ -10412,15 +11479,15 @@
         <v>2910655.7142849704</v>
       </c>
       <c r="BI52" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="BJ52" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>125538.09523816034</v>
       </c>
       <c r="BK52" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>4.5074611707467134E-2</v>
       </c>
       <c r="BM52" s="11" t="s">
@@ -10445,8 +11512,30 @@
         <f t="shared" si="23"/>
         <v>-0.19884637351397688</v>
       </c>
+      <c r="BU52" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV52" s="11"/>
+      <c r="BW52" s="10">
+        <v>307</v>
+      </c>
+      <c r="BX52" s="9">
+        <v>2117328.0952374097</v>
+      </c>
+      <c r="BY52" s="29">
+        <f t="shared" si="24"/>
+        <v>-26</v>
+      </c>
+      <c r="BZ52" s="30">
+        <f t="shared" si="25"/>
+        <v>-214554.2857142603</v>
+      </c>
+      <c r="CA52" s="31">
+        <f t="shared" si="26"/>
+        <v>-9.2009051342760287E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="53" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="16">
         <v>84</v>
       </c>
@@ -10465,15 +11554,15 @@
       </c>
       <c r="L53" s="38"/>
       <c r="M53" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N53" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O53" s="13" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="16">
@@ -10580,15 +11669,15 @@
       <c r="BG53" s="17"/>
       <c r="BH53" s="36"/>
       <c r="BI53" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BJ53" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BK53" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM53" s="16">
@@ -10611,8 +11700,28 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BU53" s="16">
+        <v>84</v>
+      </c>
+      <c r="BV53" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="BW53" s="17"/>
+      <c r="BX53" s="36"/>
+      <c r="BY53" s="12">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BZ53" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA53" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="54" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="54" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="35" t="s">
         <v>33</v>
@@ -10633,15 +11742,15 @@
       </c>
       <c r="L54" s="38"/>
       <c r="M54" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-4</v>
       </c>
       <c r="N54" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O54" s="13" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="16"/>
@@ -10753,15 +11862,15 @@
       </c>
       <c r="BH54" s="36"/>
       <c r="BI54" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-2</v>
       </c>
       <c r="BJ54" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BK54" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM54" s="16"/>
@@ -10784,8 +11893,26 @@
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BU54" s="16"/>
+      <c r="BV54" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW54" s="17"/>
+      <c r="BX54" s="36"/>
+      <c r="BY54" s="12">
+        <f t="shared" si="24"/>
+        <v>-3</v>
+      </c>
+      <c r="BZ54" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA54" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="55" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="55" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="15" t="s">
         <v>10</v>
@@ -10809,15 +11936,15 @@
         <v>176664.76190412001</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-18</v>
       </c>
       <c r="N55" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-24420.952380899951</v>
       </c>
       <c r="O55" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.12144548640728184</v>
       </c>
       <c r="Q55" s="16"/>
@@ -10941,15 +12068,15 @@
         <v>165906.66666602998</v>
       </c>
       <c r="BI55" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="BJ55" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-72.380952419975074</v>
       </c>
       <c r="BK55" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-4.3608487612462553E-4</v>
       </c>
       <c r="BM55" s="16"/>
@@ -10974,8 +12101,30 @@
         <f t="shared" si="23"/>
         <v>-0.10304129688521038</v>
       </c>
+      <c r="BU55" s="16"/>
+      <c r="BV55" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BW55" s="12">
+        <v>135</v>
+      </c>
+      <c r="BX55" s="14">
+        <v>109628.57142809997</v>
+      </c>
+      <c r="BY55" s="12">
+        <f t="shared" si="24"/>
+        <v>-54</v>
+      </c>
+      <c r="BZ55" s="14">
+        <f t="shared" si="25"/>
+        <v>-39182.857142759982</v>
+      </c>
+      <c r="CA55" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.26330542969085319</v>
+      </c>
     </row>
-    <row r="56" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="56" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A56" s="16"/>
       <c r="B56" s="15" t="s">
         <v>9</v>
@@ -10999,15 +12148,15 @@
         <v>146590.47619036003</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-24</v>
       </c>
       <c r="N56" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-76438.095238119946</v>
       </c>
       <c r="O56" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.34272781621000448</v>
       </c>
       <c r="Q56" s="16"/>
@@ -11131,15 +12280,15 @@
         <v>62961.904761820013</v>
       </c>
       <c r="BI56" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="BJ56" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-4819.047619060002</v>
       </c>
       <c r="BK56" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-7.1097372488666641E-2</v>
       </c>
       <c r="BM56" s="16"/>
@@ -11164,8 +12313,30 @@
         <f t="shared" si="23"/>
         <v>0.31933141733510662</v>
       </c>
+      <c r="BU56" s="16"/>
+      <c r="BV56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW56" s="12">
+        <v>76</v>
+      </c>
+      <c r="BX56" s="14">
+        <v>82657.142857049999</v>
+      </c>
+      <c r="BY56" s="12">
+        <f t="shared" si="24"/>
+        <v>-12</v>
+      </c>
+      <c r="BZ56" s="14">
+        <f t="shared" si="25"/>
+        <v>-410.47619047999615</v>
+      </c>
+      <c r="CA56" s="13">
+        <f t="shared" si="26"/>
+        <v>-4.9414705174723747E-3</v>
+      </c>
     </row>
-    <row r="57" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="57" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="15" t="s">
         <v>8</v>
@@ -11189,15 +12360,15 @@
         <v>119809.52380950999</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="N57" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>24522.857142859983</v>
       </c>
       <c r="O57" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.2573587470390849</v>
       </c>
       <c r="Q57" s="16"/>
@@ -11321,15 +12492,15 @@
         <v>308152.38095237</v>
       </c>
       <c r="BI57" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>27</v>
       </c>
       <c r="BJ57" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>194028.57142857002</v>
       </c>
       <c r="BK57" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.7001585579572356</v>
       </c>
       <c r="BM57" s="16"/>
@@ -11354,8 +12525,30 @@
         <f t="shared" si="23"/>
         <v>-0.32520707133147098</v>
       </c>
+      <c r="BU57" s="16"/>
+      <c r="BV57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW57" s="12">
+        <v>27</v>
+      </c>
+      <c r="BX57" s="14">
+        <v>174028.57142855</v>
+      </c>
+      <c r="BY57" s="12">
+        <f t="shared" si="24"/>
+        <v>-2</v>
+      </c>
+      <c r="BZ57" s="14">
+        <f t="shared" si="25"/>
+        <v>-33910.476190479996</v>
+      </c>
+      <c r="CA57" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.16307892422691178</v>
+      </c>
     </row>
-    <row r="58" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="58" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="16"/>
       <c r="B58" s="15" t="s">
         <v>7</v>
@@ -11379,15 +12572,15 @@
         <v>279142.8571428</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-17</v>
       </c>
       <c r="N58" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-169809.52380950004</v>
       </c>
       <c r="O58" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.37823504454816964</v>
       </c>
       <c r="Q58" s="16"/>
@@ -11511,15 +12704,15 @@
         <v>237428.57142852998</v>
       </c>
       <c r="BI58" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="BJ58" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>78761.904761919985</v>
       </c>
       <c r="BK58" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.49639855942404276</v>
       </c>
       <c r="BM58" s="16"/>
@@ -11544,8 +12737,30 @@
         <f t="shared" si="23"/>
         <v>1.0028078620001766E-2</v>
       </c>
+      <c r="BU58" s="16"/>
+      <c r="BV58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW58" s="12">
+        <v>10</v>
+      </c>
+      <c r="BX58" s="14">
+        <v>136190.47619043</v>
+      </c>
+      <c r="BY58" s="12">
+        <f t="shared" si="24"/>
+        <v>-8</v>
+      </c>
+      <c r="BZ58" s="14">
+        <f t="shared" si="25"/>
+        <v>-103619.04761901998</v>
+      </c>
+      <c r="CA58" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.43208895949167786</v>
+      </c>
     </row>
-    <row r="59" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="59" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="15" t="s">
         <v>6</v>
@@ -11569,15 +12784,15 @@
         <v>0</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N59" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O59" s="13" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="16"/>
@@ -11686,15 +12901,15 @@
         <v>2857.1428571400002</v>
       </c>
       <c r="BI59" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BJ59" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>2857.1428571400002</v>
       </c>
       <c r="BK59" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM59" s="16"/>
@@ -11719,8 +12934,30 @@
         <f t="shared" si="23"/>
         <v>-1</v>
       </c>
+      <c r="BU59" s="16"/>
+      <c r="BV59" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW59" s="12">
+        <v>0</v>
+      </c>
+      <c r="BX59" s="14">
+        <v>0</v>
+      </c>
+      <c r="BY59" s="12">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BZ59" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="CA59" s="13" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="60" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="60" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="15" t="s">
         <v>5</v>
@@ -11744,15 +12981,15 @@
         <v>144623.80952380001</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="N60" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>129873.80952380001</v>
       </c>
       <c r="O60" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>8.8050040355118657</v>
       </c>
       <c r="Q60" s="16"/>
@@ -11871,15 +13108,15 @@
         <v>7080</v>
       </c>
       <c r="BI60" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="BJ60" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>7080</v>
       </c>
       <c r="BK60" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM60" s="16"/>
@@ -11904,8 +13141,30 @@
         <f t="shared" si="23"/>
         <v>0.57909604519774016</v>
       </c>
+      <c r="BU60" s="16"/>
+      <c r="BV60" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW60" s="12">
+        <v>0</v>
+      </c>
+      <c r="BX60" s="14">
+        <v>0</v>
+      </c>
+      <c r="BY60" s="12">
+        <f t="shared" si="24"/>
+        <v>-2</v>
+      </c>
+      <c r="BZ60" s="14">
+        <f t="shared" si="25"/>
+        <v>-11180</v>
+      </c>
+      <c r="CA60" s="13">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="61" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="61" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="15" t="s">
         <v>4</v>
@@ -11929,15 +13188,15 @@
         <v>144623.80952380001</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-3</v>
       </c>
       <c r="N61" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-150952.38095236997</v>
       </c>
       <c r="O61" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.51070548243140745</v>
       </c>
       <c r="Q61" s="16"/>
@@ -12061,15 +13320,15 @@
         <v>82666.666666659992</v>
       </c>
       <c r="BI61" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="BJ61" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>44666.666666659992</v>
       </c>
       <c r="BK61" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.1754385964910525</v>
       </c>
       <c r="BM61" s="16"/>
@@ -12094,8 +13353,30 @@
         <f t="shared" si="23"/>
         <v>1.73508064516139</v>
       </c>
+      <c r="BU61" s="16"/>
+      <c r="BV61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW61" s="12">
+        <v>2</v>
+      </c>
+      <c r="BX61" s="14">
+        <v>50285.714285709997</v>
+      </c>
+      <c r="BY61" s="12">
+        <f t="shared" si="24"/>
+        <v>-4</v>
+      </c>
+      <c r="BZ61" s="14">
+        <f t="shared" si="25"/>
+        <v>-175814.28571427998</v>
+      </c>
+      <c r="CA61" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.77759524862577512</v>
+      </c>
     </row>
-    <row r="62" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="62" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="15" t="s">
         <v>3</v>
@@ -12119,15 +13400,15 @@
         <v>530333.33333328005</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-6</v>
       </c>
       <c r="N62" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-78476.190476179938</v>
       </c>
       <c r="O62" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.12890105592490822</v>
       </c>
       <c r="Q62" s="16"/>
@@ -12251,15 +13532,15 @@
         <v>157904.76190473</v>
       </c>
       <c r="BI62" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BJ62" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-43333.333333340008</v>
       </c>
       <c r="BK62" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.2153336488405713</v>
       </c>
       <c r="BM62" s="16"/>
@@ -12284,8 +13565,30 @@
         <f t="shared" si="23"/>
         <v>0.91224366706882098</v>
       </c>
+      <c r="BU62" s="16"/>
+      <c r="BV62" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW62" s="12">
+        <v>14</v>
+      </c>
+      <c r="BX62" s="14">
+        <v>253428.57142852998</v>
+      </c>
+      <c r="BY62" s="12">
+        <f t="shared" si="24"/>
+        <v>-4</v>
+      </c>
+      <c r="BZ62" s="14">
+        <f t="shared" si="25"/>
+        <v>-48523.809523799981</v>
+      </c>
+      <c r="CA62" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.16070020501497739</v>
+      </c>
     </row>
-    <row r="63" spans="1:71" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="63" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="16"/>
       <c r="B63" s="15" t="s">
         <v>2</v>
@@ -12309,15 +13612,15 @@
         <v>2725142.8571427902</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="N63" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>197904.76190476026</v>
       </c>
       <c r="O63" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>7.8308712692193111E-2</v>
       </c>
       <c r="Q63" s="16"/>
@@ -12441,15 +13744,15 @@
         <v>2176285.7142856899</v>
       </c>
       <c r="BI63" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="BJ63" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>261428.57142858999</v>
       </c>
       <c r="BK63" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.13652641002687041</v>
       </c>
       <c r="BM63" s="16"/>
@@ -12474,8 +13777,30 @@
         <f t="shared" si="23"/>
         <v>-0.27241696205855942</v>
       </c>
+      <c r="BU63" s="16"/>
+      <c r="BV63" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW63" s="12">
+        <v>34</v>
+      </c>
+      <c r="BX63" s="14">
+        <v>1234655.2380952002</v>
+      </c>
+      <c r="BY63" s="12">
+        <f t="shared" si="24"/>
+        <v>-10</v>
+      </c>
+      <c r="BZ63" s="14">
+        <f t="shared" si="25"/>
+        <v>-348773.33333334001</v>
+      </c>
+      <c r="CA63" s="13">
+        <f t="shared" si="26"/>
+        <v>-0.22026464573560342</v>
+      </c>
     </row>
-    <row r="64" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="64" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>1</v>
       </c>
@@ -12500,15 +13825,15 @@
         <v>4128597.6190466601</v>
       </c>
       <c r="M64" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-60</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-286129.52380944975</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-6.4812504725793335E-2</v>
       </c>
       <c r="Q64" s="11" t="s">
@@ -12632,15 +13957,15 @@
         <v>3201243.8095229696</v>
       </c>
       <c r="BI64" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>55</v>
       </c>
       <c r="BJ64" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>540598.09523805976</v>
       </c>
       <c r="BK64" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.20318304400154003</v>
       </c>
       <c r="BM64" s="11" t="s">
@@ -12665,8 +13990,30 @@
         <f t="shared" si="23"/>
         <v>-0.12462507132647596</v>
       </c>
+      <c r="BU64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV64" s="11"/>
+      <c r="BW64" s="10">
+        <v>298</v>
+      </c>
+      <c r="BX64" s="9">
+        <v>2040874.2857135702</v>
+      </c>
+      <c r="BY64" s="29">
+        <f t="shared" si="24"/>
+        <v>-96</v>
+      </c>
+      <c r="BZ64" s="30">
+        <f t="shared" si="25"/>
+        <v>-761414.28571415972</v>
+      </c>
+      <c r="CA64" s="31">
+        <f t="shared" si="26"/>
+        <v>-0.27171159083242769</v>
+      </c>
     </row>
-    <row r="65" spans="1:71" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="65" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>0</v>
       </c>
@@ -12691,15 +14038,15 @@
         <v>24485272.857136972</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>19</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-3955111.4285718128</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.13906673654052015</v>
       </c>
       <c r="Q65" s="5" t="s">
@@ -12823,15 +14170,15 @@
         <v>35040738.095232792</v>
       </c>
       <c r="BI65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>369</v>
       </c>
       <c r="BJ65" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>4376254.2857142128</v>
       </c>
       <c r="BK65" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.14271410250694574</v>
       </c>
       <c r="BM65" s="5" t="s">
@@ -12855,6 +14202,28 @@
       <c r="BS65" s="32">
         <f t="shared" si="23"/>
         <v>-0.26227105729320244</v>
+      </c>
+      <c r="BU65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV65" s="5"/>
+      <c r="BW65" s="4">
+        <v>2792</v>
+      </c>
+      <c r="BX65" s="3">
+        <v>28543174.285709437</v>
+      </c>
+      <c r="BY65" s="7">
+        <f t="shared" si="24"/>
+        <v>-47</v>
+      </c>
+      <c r="BZ65" s="6">
+        <f t="shared" si="25"/>
+        <v>2692607.6190475449</v>
+      </c>
+      <c r="CA65" s="32">
+        <f t="shared" si="26"/>
+        <v>0.10416048722522042</v>
       </c>
     </row>
   </sheetData>
@@ -12864,7 +14233,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="93" operator="containsText" id="{84E91190-11E8-AE4A-9A8E-E0B241655290}">
+          <x14:cfRule type="containsText" priority="94" operator="containsText" id="{84E91190-11E8-AE4A-9A8E-E0B241655290}">
             <xm:f>NOT(ISERROR(SEARCH("-",E7)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -12876,7 +14245,7 @@
           <xm:sqref>E7:G65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{60840A7F-E021-4B40-B286-D13634467BA2}">
+          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{60840A7F-E021-4B40-B286-D13634467BA2}">
             <xm:f>NOT(ISERROR(SEARCH("-",M5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -12888,7 +14257,7 @@
           <xm:sqref>M5:O65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{96F4512B-498A-3E44-B11A-3104E93335EF}">
+          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{96F4512B-498A-3E44-B11A-3104E93335EF}">
             <xm:f>NOT(ISERROR(SEARCH("-",U5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -12900,7 +14269,7 @@
           <xm:sqref>U5:W65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{59A196DB-3B52-FC49-B067-A760A3E265FD}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{59A196DB-3B52-FC49-B067-A760A3E265FD}">
             <xm:f>NOT(ISERROR(SEARCH("-",AC5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -12912,7 +14281,7 @@
           <xm:sqref>AC5:AE65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{CBEC2621-80C7-C843-831D-784A61EBAE2F}">
+          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{CBEC2621-80C7-C843-831D-784A61EBAE2F}">
             <xm:f>NOT(ISERROR(SEARCH("-",AK5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -12924,7 +14293,7 @@
           <xm:sqref>AK5:AM65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{D62FF824-945D-FB42-AE3E-9595C55730D7}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{D62FF824-945D-FB42-AE3E-9595C55730D7}">
             <xm:f>NOT(ISERROR(SEARCH("-",AS5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -12936,7 +14305,7 @@
           <xm:sqref>AS5:AU65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{5770E50C-855E-B144-A816-CD9AC490993E}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{5770E50C-855E-B144-A816-CD9AC490993E}">
             <xm:f>NOT(ISERROR(SEARCH("-",BA5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -12948,7 +14317,7 @@
           <xm:sqref>BA5:BC65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{6AB50C64-405B-B04E-92D0-54759F295C03}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{6AB50C64-405B-B04E-92D0-54759F295C03}">
             <xm:f>NOT(ISERROR(SEARCH("-",BI5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -12960,7 +14329,7 @@
           <xm:sqref>BI5:BK65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{C8A3EFC3-B895-0845-A11B-C21B6413863E}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{C8A3EFC3-B895-0845-A11B-C21B6413863E}">
             <xm:f>NOT(ISERROR(SEARCH("-",BQ5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -12971,6 +14340,18 @@
           </x14:cfRule>
           <xm:sqref>BQ5:BS65</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{F92DB01E-9288-5849-81E4-35B4E2C95774}">
+            <xm:f>NOT(ISERROR(SEARCH("-",BY5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>BY5:CA65</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B733C7-17A5-064F-BE61-AF776C18F05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1658C2-1AB6-0940-9BB0-6334391614BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13320" yWindow="840" windowWidth="19960" windowHeight="20040" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>09/27~10/04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10/05~10/11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -301,6 +297,10 @@
   </si>
   <si>
     <t>11-30~12/06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09/28~10/04</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1046,8 +1046,8 @@
   <dimension ref="A1:CA65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BW42" sqref="BW42"/>
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1146,23 +1146,23 @@
       <c r="AX1" s="28"/>
       <c r="AZ1" s="27"/>
       <c r="BE1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="BM1" s="28" t="s">
-        <v>41</v>
-      </c>
       <c r="BU1" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:79" s="22" customFormat="1" ht="18">
       <c r="A2" s="25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B2" s="24"/>
       <c r="D2" s="23"/>
       <c r="I2" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="25"/>
       <c r="M2" s="25"/>
@@ -1179,24 +1179,24 @@
       <c r="Z2" s="24"/>
       <c r="AB2" s="23"/>
       <c r="AG2" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AK2" s="24"/>
       <c r="AL2" s="24"/>
       <c r="AN2" s="23"/>
       <c r="AO2" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AQ2" s="24"/>
       <c r="AR2" s="24"/>
       <c r="AT2" s="23"/>
       <c r="AW2" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AX2" s="24"/>
       <c r="AZ2" s="23"/>
       <c r="BE2" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BF2" s="23"/>
       <c r="BH2" s="23"/>
@@ -1204,7 +1204,7 @@
       <c r="BJ2" s="23"/>
       <c r="BK2" s="23"/>
       <c r="BM2" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BN2" s="23"/>
       <c r="BP2" s="23"/>
@@ -1212,7 +1212,7 @@
       <c r="BR2" s="23"/>
       <c r="BS2" s="23"/>
       <c r="BU2" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BV2" s="23"/>
       <c r="BX2" s="23"/>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1658C2-1AB6-0940-9BB0-6334391614BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86A7012-B4D2-5B49-99B6-0DD0D1A0F6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="840" windowWidth="19960" windowHeight="20040" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
+    <workbookView xWindow="24540" yWindow="2100" windowWidth="19960" windowHeight="20040" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
   <sheets>
     <sheet name="26Q1" sheetId="2" r:id="rId1"/>
@@ -1045,9 +1045,9 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BX42" sqref="BX42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1850,10 +1850,13 @@
       <c r="BV6" s="35" t="s">
         <v>33</v>
       </c>
+      <c r="BW6" s="17">
+        <v>27</v>
+      </c>
       <c r="BX6" s="36"/>
       <c r="BY6" s="12">
         <f t="shared" si="24"/>
-        <v>-34</v>
+        <v>-7</v>
       </c>
       <c r="BZ6" s="14">
         <f t="shared" si="25"/>
@@ -4374,11 +4377,13 @@
       <c r="BV18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="BW18" s="17"/>
+      <c r="BW18" s="17">
+        <v>15</v>
+      </c>
       <c r="BX18" s="36"/>
       <c r="BY18" s="12">
         <f t="shared" si="24"/>
-        <v>-30</v>
+        <v>-15</v>
       </c>
       <c r="BZ18" s="14">
         <f t="shared" si="25"/>
@@ -6894,11 +6899,13 @@
       <c r="BV30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="BW30" s="17"/>
+      <c r="BW30" s="17">
+        <v>6</v>
+      </c>
       <c r="BX30" s="36"/>
       <c r="BY30" s="12">
         <f t="shared" si="24"/>
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="BZ30" s="14">
         <f t="shared" si="25"/>
@@ -9409,11 +9416,13 @@
       <c r="BV42" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="BW42" s="17"/>
+      <c r="BW42" s="17">
+        <v>10</v>
+      </c>
       <c r="BX42" s="36"/>
       <c r="BY42" s="12">
         <f t="shared" si="24"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="BZ42" s="14">
         <f t="shared" si="25"/>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86A7012-B4D2-5B49-99B6-0DD0D1A0F6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D03A71-B0B2-DB45-9A8B-5C21C3AB1CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="2100" windowWidth="19960" windowHeight="20040" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
+    <workbookView xWindow="11160" yWindow="8280" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
   <sheets>
     <sheet name="26Q1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="47">
   <si>
     <t>總計</t>
   </si>
@@ -301,6 +301,14 @@
   </si>
   <si>
     <t>09/28~10/04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26Q1W11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/07~12/13</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +663,12 @@
     <cellStyle name="一般 2" xfId="2" xr:uid="{0CB5398D-811F-454E-A670-53B654D1D081}"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1043,11 +1056,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B745F6-4B2F-7944-A1EC-E7E5896AE27B}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CA65"/>
+  <dimension ref="A1:CI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BX42" sqref="BX42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CK51" sqref="CK51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1107,9 +1120,11 @@
     <col min="68" max="68" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="5" customWidth="1"/>
     <col min="76" max="76" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="5" customWidth="1"/>
+    <col min="84" max="84" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="26" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:87" s="26" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1169,11 @@
       <c r="BU1" s="28" t="s">
         <v>42</v>
       </c>
+      <c r="CC1" s="28" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:79" s="22" customFormat="1" ht="18">
+    <row r="2" spans="1:87" s="22" customFormat="1" ht="18">
       <c r="A2" s="25" t="s">
         <v>44</v>
       </c>
@@ -1219,8 +1237,16 @@
       <c r="BY2" s="23"/>
       <c r="BZ2" s="23"/>
       <c r="CA2" s="23"/>
+      <c r="CC2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="CD2" s="23"/>
+      <c r="CF2" s="23"/>
+      <c r="CG2" s="23"/>
+      <c r="CH2" s="23"/>
+      <c r="CI2" s="23"/>
     </row>
-    <row r="3" spans="1:79" s="22" customFormat="1" ht="28" customHeight="1">
+    <row r="3" spans="1:87" s="22" customFormat="1" ht="28" customHeight="1">
       <c r="I3" s="34" t="s">
         <v>29</v>
       </c>
@@ -1240,7 +1266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="17" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:87" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>18</v>
       </c>
@@ -1451,8 +1477,29 @@
       <c r="CA4" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="CC4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="CD4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="CE4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="CF4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="CG4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI4" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:79" s="42" customFormat="1" ht="22" customHeight="1">
+    <row r="5" spans="1:87" s="42" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="16">
         <v>75</v>
       </c>
@@ -1673,8 +1720,31 @@
         <f t="shared" ref="CA5:CA65" si="26">(BX5-BP5)/BP5</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="CB5" s="41"/>
+      <c r="CC5" s="16">
+        <v>75</v>
+      </c>
+      <c r="CD5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE5" s="17">
+        <v>8335</v>
+      </c>
+      <c r="CF5" s="36"/>
+      <c r="CG5" s="12">
+        <f t="shared" ref="CG5:CG65" si="27">CE5-BW5</f>
+        <v>-1</v>
+      </c>
+      <c r="CH5" s="14">
+        <f t="shared" ref="CH5:CH65" si="28">CF5-BX5</f>
+        <v>0</v>
+      </c>
+      <c r="CI5" s="13" t="e">
+        <f t="shared" ref="CI5:CI65" si="29">(CF5-BX5)/BX5</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="1:79" s="17" customFormat="1" ht="22" customHeight="1">
+    <row r="6" spans="1:87" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="35" t="s">
         <v>33</v>
@@ -1695,15 +1765,15 @@
       </c>
       <c r="L6" s="36"/>
       <c r="M6" s="12">
-        <f t="shared" ref="M6" si="27">K6-C6</f>
+        <f t="shared" ref="M6" si="30">K6-C6</f>
         <v>3</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" ref="N6" si="28">L6-D6</f>
+        <f t="shared" ref="N6" si="31">L6-D6</f>
         <v>0</v>
       </c>
       <c r="O6" s="13" t="e">
-        <f t="shared" ref="O6" si="29">(L6-D6)/D6</f>
+        <f t="shared" ref="O6" si="32">(L6-D6)/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q6" s="16"/>
@@ -1866,8 +1936,25 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC6" s="16"/>
+      <c r="CD6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF6" s="36"/>
+      <c r="CG6" s="12">
+        <f t="shared" si="27"/>
+        <v>-27</v>
+      </c>
+      <c r="CH6" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI6" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="7" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -1891,15 +1978,15 @@
         <v>317130.47618950985</v>
       </c>
       <c r="M7" s="12">
-        <f t="shared" ref="M7:M42" si="30">K7-C7</f>
+        <f t="shared" ref="M7:M42" si="33">K7-C7</f>
         <v>15</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" ref="N7:N42" si="31">L7-D7</f>
+        <f t="shared" ref="N7:N42" si="34">L7-D7</f>
         <v>34120.952380939736</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" ref="O7:O42" si="32">(L7-D7)/D7</f>
+        <f t="shared" ref="O7:O42" si="35">(L7-D7)/D7</f>
         <v>0.12056467896119079</v>
       </c>
       <c r="Q7" s="16"/>
@@ -2023,15 +2110,15 @@
         <v>261304.76190385997</v>
       </c>
       <c r="BI7" s="12">
-        <f t="shared" ref="BI7:BI65" si="33">BG7-AY7</f>
+        <f t="shared" ref="BI7:BI65" si="36">BG7-AY7</f>
         <v>-24</v>
       </c>
       <c r="BJ7" s="14">
-        <f t="shared" ref="BJ7:BJ65" si="34">BH7-AZ7</f>
+        <f t="shared" ref="BJ7:BJ65" si="37">BH7-AZ7</f>
         <v>-51955.238095139735</v>
       </c>
       <c r="BK7" s="13">
-        <f t="shared" ref="BK7:BK65" si="35">(BH7-AZ7)/AZ7</f>
+        <f t="shared" ref="BK7:BK65" si="38">(BH7-AZ7)/AZ7</f>
         <v>-0.16585340642056323</v>
       </c>
       <c r="BM7" s="16"/>
@@ -2078,8 +2165,30 @@
         <f t="shared" si="26"/>
         <v>-2.8389082984521731E-2</v>
       </c>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE7" s="12">
+        <v>277</v>
+      </c>
+      <c r="CF7" s="14">
+        <v>282864.76190379006</v>
+      </c>
+      <c r="CG7" s="12">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="CH7" s="14">
+        <f t="shared" si="28"/>
+        <v>15357.142857060244</v>
+      </c>
+      <c r="CI7" s="13">
+        <f t="shared" si="29"/>
+        <v>5.7408244713873242E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="8" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
@@ -2103,15 +2212,15 @@
         <v>421600.95238075999</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-121</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-41953.333333299961</v>
       </c>
       <c r="O8" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-9.0503603625786702E-2</v>
       </c>
       <c r="Q8" s="16"/>
@@ -2235,15 +2344,15 @@
         <v>416720.95238074992</v>
       </c>
       <c r="BI8" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>23</v>
       </c>
       <c r="BJ8" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>70825.714285709953</v>
       </c>
       <c r="BK8" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.20476059362878396</v>
       </c>
       <c r="BM8" s="16"/>
@@ -2290,8 +2399,30 @@
         <f t="shared" si="26"/>
         <v>1.4884303347067047E-2</v>
       </c>
+      <c r="CC8" s="16"/>
+      <c r="CD8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE8" s="12">
+        <v>319</v>
+      </c>
+      <c r="CF8" s="14">
+        <v>421211.42857125989</v>
+      </c>
+      <c r="CG8" s="12">
+        <f t="shared" si="27"/>
+        <v>-5</v>
+      </c>
+      <c r="CH8" s="14">
+        <f t="shared" si="28"/>
+        <v>53792.380952450156</v>
+      </c>
+      <c r="CI8" s="13">
+        <f t="shared" si="29"/>
+        <v>0.14640607584465443</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="9" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="15" t="s">
         <v>8</v>
@@ -2315,15 +2446,15 @@
         <v>536015.23809521995</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>23</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>146310.47619046993</v>
       </c>
       <c r="O9" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.3754392824849046</v>
       </c>
       <c r="Q9" s="16"/>
@@ -2447,15 +2578,15 @@
         <v>1352394.2857142598</v>
       </c>
       <c r="BI9" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>148</v>
       </c>
       <c r="BJ9" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1021451.4285714298</v>
       </c>
       <c r="BK9" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.0864888198224096</v>
       </c>
       <c r="BM9" s="16"/>
@@ -2502,8 +2633,30 @@
         <f t="shared" si="26"/>
         <v>0.39415617779544981</v>
       </c>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE9" s="12">
+        <v>141</v>
+      </c>
+      <c r="CF9" s="14">
+        <v>970085.7142857</v>
+      </c>
+      <c r="CG9" s="12">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="CH9" s="14">
+        <f t="shared" si="28"/>
+        <v>127640.95238097</v>
+      </c>
+      <c r="CI9" s="13">
+        <f t="shared" si="29"/>
+        <v>0.15151254794721439</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="15" t="s">
         <v>7</v>
@@ -2527,15 +2680,15 @@
         <v>2351999.9999997998</v>
       </c>
       <c r="M10" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>46</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>834666.66666666977</v>
       </c>
       <c r="O10" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.55008787346229016</v>
       </c>
       <c r="Q10" s="16"/>
@@ -2659,15 +2812,15 @@
         <v>784666.66666658001</v>
       </c>
       <c r="BI10" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-18</v>
       </c>
       <c r="BJ10" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-379238.09523808013</v>
       </c>
       <c r="BK10" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.32583258325834136</v>
       </c>
       <c r="BM10" s="16"/>
@@ -2714,8 +2867,30 @@
         <f t="shared" si="26"/>
         <v>-0.33364364177997125</v>
       </c>
+      <c r="CC10" s="16"/>
+      <c r="CD10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE10" s="12">
+        <v>40</v>
+      </c>
+      <c r="CF10" s="14">
+        <v>563809.52380946989</v>
+      </c>
+      <c r="CG10" s="12">
+        <f t="shared" si="27"/>
+        <v>-2</v>
+      </c>
+      <c r="CH10" s="14">
+        <f t="shared" si="28"/>
+        <v>-117904.76190472022</v>
+      </c>
+      <c r="CI10" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.17295333892144957</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="11" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="15" t="s">
         <v>6</v>
@@ -2739,15 +2914,15 @@
         <v>34857.142857129998</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>11999.999999989999</v>
       </c>
       <c r="O11" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.5249999999996281</v>
       </c>
       <c r="Q11" s="16"/>
@@ -2871,15 +3046,15 @@
         <v>2857.1428571400002</v>
       </c>
       <c r="BI11" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-2</v>
       </c>
       <c r="BJ11" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-5714.2857142800012</v>
       </c>
       <c r="BK11" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.66666666666666674</v>
       </c>
       <c r="BM11" s="16"/>
@@ -2926,8 +3101,30 @@
         <f t="shared" si="26"/>
         <v>-0.89589163774771918</v>
       </c>
+      <c r="CC11" s="16"/>
+      <c r="CD11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE11" s="12">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="12">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="CH11" s="14">
+        <f t="shared" si="28"/>
+        <v>-2657.1428571400002</v>
+      </c>
+      <c r="CI11" s="13">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="12" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="12" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="15" t="s">
         <v>5</v>
@@ -2951,15 +3148,15 @@
         <v>27320</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-4</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-32060</v>
       </c>
       <c r="O12" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.53991242842707987</v>
       </c>
       <c r="Q12" s="16"/>
@@ -3083,15 +3280,15 @@
         <v>56600</v>
       </c>
       <c r="BI12" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-5</v>
       </c>
       <c r="BJ12" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-13850</v>
       </c>
       <c r="BK12" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.19659332860184528</v>
       </c>
       <c r="BM12" s="16"/>
@@ -3138,8 +3335,30 @@
         <f t="shared" si="26"/>
         <v>-0.64680342993596007</v>
       </c>
+      <c r="CC12" s="16"/>
+      <c r="CD12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE12" s="12">
+        <v>7</v>
+      </c>
+      <c r="CF12" s="14">
+        <v>43230</v>
+      </c>
+      <c r="CG12" s="12">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="CH12" s="14">
+        <f t="shared" si="28"/>
+        <v>10690</v>
+      </c>
+      <c r="CI12" s="13">
+        <f t="shared" si="29"/>
+        <v>0.32851874615857407</v>
+      </c>
     </row>
-    <row r="13" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="13" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="15" t="s">
         <v>4</v>
@@ -3163,15 +3382,15 @@
         <v>1833147.61904752</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>36</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1377523.8095237501</v>
       </c>
       <c r="O13" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3.0233797723687315</v>
       </c>
       <c r="Q13" s="16"/>
@@ -3295,15 +3514,15 @@
         <v>600719.04761899996</v>
       </c>
       <c r="BI13" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="BJ13" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>21761.904761879938</v>
       </c>
       <c r="BK13" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.7588109984248913E-2</v>
       </c>
       <c r="BM13" s="16"/>
@@ -3350,8 +3569,30 @@
         <f t="shared" si="26"/>
         <v>3.0263727407053147</v>
       </c>
+      <c r="CC13" s="16"/>
+      <c r="CD13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE13" s="12">
+        <v>14</v>
+      </c>
+      <c r="CF13" s="14">
+        <v>641538.09523804998</v>
+      </c>
+      <c r="CG13" s="12">
+        <f t="shared" si="27"/>
+        <v>-16</v>
+      </c>
+      <c r="CH13" s="14">
+        <f t="shared" si="28"/>
+        <v>-643085.71428570012</v>
+      </c>
+      <c r="CI13" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.50060236274471037</v>
+      </c>
     </row>
-    <row r="14" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="14" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="15" t="s">
         <v>3</v>
@@ -3375,15 +3616,15 @@
         <v>1778285.71428558</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>53</v>
       </c>
       <c r="N14" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>948190.47619039996</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.1422670949976934</v>
       </c>
       <c r="Q14" s="16"/>
@@ -3507,15 +3748,15 @@
         <v>683952.38095230004</v>
       </c>
       <c r="BI14" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-4</v>
       </c>
       <c r="BJ14" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-187952.38095238013</v>
       </c>
       <c r="BK14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.21556526488259709</v>
       </c>
       <c r="BM14" s="16"/>
@@ -3562,8 +3803,30 @@
         <f t="shared" si="26"/>
         <v>0.27042076617123617</v>
       </c>
+      <c r="CC14" s="16"/>
+      <c r="CD14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE14" s="12">
+        <v>56</v>
+      </c>
+      <c r="CF14" s="14">
+        <v>1187238.0952380102</v>
+      </c>
+      <c r="CG14" s="12">
+        <f t="shared" si="27"/>
+        <v>-15</v>
+      </c>
+      <c r="CH14" s="14">
+        <f t="shared" si="28"/>
+        <v>-257714.28571423981</v>
+      </c>
+      <c r="CI14" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.17835486422355412</v>
+      </c>
     </row>
-    <row r="15" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="15" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="15" t="s">
         <v>2</v>
@@ -3587,15 +3850,15 @@
         <v>4514433.3333332296</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-92</v>
       </c>
       <c r="N15" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-4670519.0476190317</v>
       </c>
       <c r="O15" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.50849681673959968</v>
       </c>
       <c r="Q15" s="16"/>
@@ -3719,15 +3982,15 @@
         <v>9620359.047618961</v>
       </c>
       <c r="BI15" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-5</v>
       </c>
       <c r="BJ15" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-163926.66666667908</v>
       </c>
       <c r="BK15" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-1.6754076020831687E-2</v>
       </c>
       <c r="BM15" s="16"/>
@@ -3774,8 +4037,30 @@
         <f t="shared" si="26"/>
         <v>0.21435020115743295</v>
       </c>
+      <c r="CC15" s="16"/>
+      <c r="CD15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE15" s="12">
+        <v>224</v>
+      </c>
+      <c r="CF15" s="14">
+        <v>8576784.7619046718</v>
+      </c>
+      <c r="CG15" s="12">
+        <f t="shared" si="27"/>
+        <v>-7</v>
+      </c>
+      <c r="CH15" s="14">
+        <f t="shared" si="28"/>
+        <v>-318605.71428571828</v>
+      </c>
+      <c r="CI15" s="13">
+        <f t="shared" si="29"/>
+        <v>-3.5816945319995311E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
@@ -3800,15 +4085,15 @@
         <v>11814790.476188749</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-44</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-1391720.0000001118</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.10538135736229202</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -3932,15 +4217,15 @@
         <v>13779574.285712851</v>
       </c>
       <c r="BI16" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>112</v>
       </c>
       <c r="BJ16" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>311402.38095246069</v>
       </c>
       <c r="BK16" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.3121354787756607E-2</v>
       </c>
       <c r="BM16" s="11" t="s">
@@ -3987,8 +4272,30 @@
         <f t="shared" si="26"/>
         <v>0.23784218510505079</v>
       </c>
+      <c r="CC16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD16" s="11"/>
+      <c r="CE16" s="10">
+        <v>1079</v>
+      </c>
+      <c r="CF16" s="9">
+        <v>12687705.238093801</v>
+      </c>
+      <c r="CG16" s="29">
+        <f t="shared" si="27"/>
+        <v>-6</v>
+      </c>
+      <c r="CH16" s="30">
+        <f t="shared" si="28"/>
+        <v>-1131544.2857141886</v>
+      </c>
+      <c r="CI16" s="31">
+        <f t="shared" si="29"/>
+        <v>-8.1881746455532825E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="17" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="16">
         <v>76</v>
       </c>
@@ -4013,15 +4320,15 @@
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-958</v>
       </c>
       <c r="N17" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O17" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="16">
@@ -4145,15 +4452,15 @@
       </c>
       <c r="BH17" s="36"/>
       <c r="BI17" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-1227</v>
       </c>
       <c r="BJ17" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BK17" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM17" s="16">
@@ -4200,8 +4507,30 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC17" s="16">
+        <v>76</v>
+      </c>
+      <c r="CD17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE17" s="17">
+        <v>5282</v>
+      </c>
+      <c r="CF17" s="36"/>
+      <c r="CG17" s="12">
+        <f t="shared" si="27"/>
+        <v>-457</v>
+      </c>
+      <c r="CH17" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI17" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="18" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="35" t="s">
         <v>33</v>
@@ -4222,15 +4551,15 @@
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-6</v>
       </c>
       <c r="N18" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O18" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="16"/>
@@ -4342,15 +4671,15 @@
       </c>
       <c r="BH18" s="36"/>
       <c r="BI18" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>18</v>
       </c>
       <c r="BJ18" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BK18" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM18" s="16"/>
@@ -4393,8 +4722,26 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC18" s="16"/>
+      <c r="CD18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE18" s="17"/>
+      <c r="CF18" s="36"/>
+      <c r="CG18" s="12">
+        <f t="shared" si="27"/>
+        <v>-15</v>
+      </c>
+      <c r="CH18" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI18" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="19" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="19" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="15" t="s">
         <v>10</v>
@@ -4418,15 +4765,15 @@
         <v>228808.57142773012</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" ref="M19:M27" si="36">K19-C19</f>
+        <f t="shared" ref="M19:M27" si="39">K19-C19</f>
         <v>5</v>
       </c>
       <c r="N19" s="14">
-        <f t="shared" ref="N19:N27" si="37">L19-D19</f>
+        <f t="shared" ref="N19:N27" si="40">L19-D19</f>
         <v>16320.952380870236</v>
       </c>
       <c r="O19" s="13">
-        <f t="shared" ref="O19:O27" si="38">(L19-D19)/D19</f>
+        <f t="shared" ref="O19:O27" si="41">(L19-D19)/D19</f>
         <v>7.6808956936314385E-2</v>
       </c>
       <c r="Q19" s="16"/>
@@ -4550,15 +4897,15 @@
         <v>261547.61904664987</v>
       </c>
       <c r="BI19" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>14</v>
       </c>
       <c r="BJ19" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>35514.285714209807</v>
       </c>
       <c r="BK19" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.1571196831485776</v>
       </c>
       <c r="BM19" s="16"/>
@@ -4605,8 +4952,30 @@
         <f t="shared" si="26"/>
         <v>0.11597891465760843</v>
       </c>
+      <c r="CC19" s="16"/>
+      <c r="CD19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE19" s="12">
+        <v>302</v>
+      </c>
+      <c r="CF19" s="14">
+        <v>272119.99999901006</v>
+      </c>
+      <c r="CG19" s="12">
+        <f t="shared" si="27"/>
+        <v>59</v>
+      </c>
+      <c r="CH19" s="14">
+        <f t="shared" si="28"/>
+        <v>49121.904761720129</v>
+      </c>
+      <c r="CI19" s="13">
+        <f t="shared" si="29"/>
+        <v>0.22027948135364128</v>
+      </c>
     </row>
-    <row r="20" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="15" t="s">
         <v>9</v>
@@ -4630,15 +4999,15 @@
         <v>270610.4761902999</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>16</v>
       </c>
       <c r="N20" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-1189.5238095000386</v>
       </c>
       <c r="O20" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-4.3764672902903388E-3</v>
       </c>
       <c r="Q20" s="16"/>
@@ -4762,15 +5131,15 @@
         <v>352294.28571410995</v>
       </c>
       <c r="BI20" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-25</v>
       </c>
       <c r="BJ20" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>27284.761904729938</v>
       </c>
       <c r="BK20" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>8.3950653460643232E-2</v>
       </c>
       <c r="BM20" s="16"/>
@@ -4817,8 +5186,30 @@
         <f t="shared" si="26"/>
         <v>-0.12557123688202751</v>
       </c>
+      <c r="CC20" s="16"/>
+      <c r="CD20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE20" s="12">
+        <v>228</v>
+      </c>
+      <c r="CF20" s="14">
+        <v>262438.09523795999</v>
+      </c>
+      <c r="CG20" s="12">
+        <f t="shared" si="27"/>
+        <v>-11</v>
+      </c>
+      <c r="CH20" s="14">
+        <f t="shared" si="28"/>
+        <v>2390.4761904800253</v>
+      </c>
+      <c r="CI20" s="13">
+        <f t="shared" si="29"/>
+        <v>9.192455594233177E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="15" t="s">
         <v>8</v>
@@ -4842,15 +5233,15 @@
         <v>242700.95238094</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4253.3333333399787</v>
       </c>
       <c r="O21" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.7837600351509102E-2</v>
       </c>
       <c r="Q21" s="16"/>
@@ -4974,15 +5365,15 @@
         <v>897705.71428569988</v>
       </c>
       <c r="BI21" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>83</v>
       </c>
       <c r="BJ21" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>578200.95238095988</v>
       </c>
       <c r="BK21" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.8096786693694094</v>
       </c>
       <c r="BM21" s="16"/>
@@ -5029,8 +5420,30 @@
         <f t="shared" si="26"/>
         <v>-0.23560425961509268</v>
       </c>
+      <c r="CC21" s="16"/>
+      <c r="CD21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE21" s="12">
+        <v>71</v>
+      </c>
+      <c r="CF21" s="14">
+        <v>445038.09523808002</v>
+      </c>
+      <c r="CG21" s="12">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="CH21" s="14">
+        <f t="shared" si="28"/>
+        <v>-2053.3333333299379</v>
+      </c>
+      <c r="CI21" s="13">
+        <f t="shared" si="29"/>
+        <v>-4.5926475036458395E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="22" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="15" t="s">
         <v>7</v>
@@ -5054,15 +5467,15 @@
         <v>859333.33333321998</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-2</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-128857.14285715017</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.1303970701619335</v>
       </c>
       <c r="Q22" s="16"/>
@@ -5186,15 +5599,15 @@
         <v>833999.99999991001</v>
       </c>
       <c r="BI22" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="BJ22" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>159904.76190476993</v>
       </c>
       <c r="BK22" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.23721390223231539</v>
       </c>
       <c r="BM22" s="16"/>
@@ -5241,8 +5654,30 @@
         <f t="shared" si="26"/>
         <v>-8.1479160137715653E-3</v>
       </c>
+      <c r="CC22" s="16"/>
+      <c r="CD22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE22" s="12">
+        <v>31</v>
+      </c>
+      <c r="CF22" s="14">
+        <v>359904.76190470997</v>
+      </c>
+      <c r="CG22" s="12">
+        <f t="shared" si="27"/>
+        <v>-14</v>
+      </c>
+      <c r="CH22" s="14">
+        <f t="shared" si="28"/>
+        <v>-242952.38095237012</v>
+      </c>
+      <c r="CI22" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.40300157977885498</v>
+      </c>
     </row>
-    <row r="23" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="23" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="15" t="s">
         <v>6</v>
@@ -5266,15 +5701,15 @@
         <v>14285.714285710001</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-8857.1428571299984</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.38271604938244391</v>
       </c>
       <c r="Q23" s="16"/>
@@ -5393,15 +5828,15 @@
         <v>5714.2857142800003</v>
       </c>
       <c r="BI23" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BJ23" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BK23" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BM23" s="16"/>
@@ -5448,8 +5883,30 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC23" s="16"/>
+      <c r="CD23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE23" s="12">
+        <v>1</v>
+      </c>
+      <c r="CF23" s="14">
+        <v>2857.1428571400002</v>
+      </c>
+      <c r="CG23" s="12">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="CH23" s="14">
+        <f t="shared" si="28"/>
+        <v>2857.1428571400002</v>
+      </c>
+      <c r="CI23" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="24" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="24" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="15" t="s">
         <v>5</v>
@@ -5473,15 +5930,15 @@
         <v>13370</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-2</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-11080</v>
       </c>
       <c r="O24" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.45316973415132922</v>
       </c>
       <c r="Q24" s="16"/>
@@ -5605,15 +6062,15 @@
         <v>55980</v>
       </c>
       <c r="BI24" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="BJ24" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-18590</v>
       </c>
       <c r="BK24" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.24929596352420544</v>
       </c>
       <c r="BM24" s="16"/>
@@ -5660,8 +6117,30 @@
         <f t="shared" si="26"/>
         <v>1.3563813585135547</v>
       </c>
+      <c r="CC24" s="16"/>
+      <c r="CD24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE24" s="12">
+        <v>15</v>
+      </c>
+      <c r="CF24" s="14">
+        <v>98750</v>
+      </c>
+      <c r="CG24" s="12">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="CH24" s="14">
+        <f t="shared" si="28"/>
+        <v>21390</v>
+      </c>
+      <c r="CI24" s="13">
+        <f t="shared" si="29"/>
+        <v>0.27649948293691828</v>
+      </c>
     </row>
-    <row r="25" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="25" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="15" t="s">
         <v>4</v>
@@ -5685,15 +6164,15 @@
         <v>375433.33333329996</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-4</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-75333.333333309973</v>
       </c>
       <c r="O25" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.16712267987869434</v>
       </c>
       <c r="Q25" s="16"/>
@@ -5817,15 +6296,15 @@
         <v>572699.04761901998</v>
       </c>
       <c r="BI25" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="BJ25" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>239511.42857142998</v>
       </c>
       <c r="BK25" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.71884852521251685</v>
       </c>
       <c r="BM25" s="16"/>
@@ -5872,8 +6351,30 @@
         <f t="shared" si="26"/>
         <v>1.5436182897821003</v>
       </c>
+      <c r="CC25" s="16"/>
+      <c r="CD25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE25" s="12">
+        <v>15</v>
+      </c>
+      <c r="CF25" s="14">
+        <v>578309.52380948002</v>
+      </c>
+      <c r="CG25" s="12">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="CH25" s="14">
+        <f t="shared" si="28"/>
+        <v>174017.1428571</v>
+      </c>
+      <c r="CI25" s="13">
+        <f t="shared" si="29"/>
+        <v>0.43042399771960277</v>
+      </c>
     </row>
-    <row r="26" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="26" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="15" t="s">
         <v>3</v>
@@ -5897,15 +6398,15 @@
         <v>840799.9999998901</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-4</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-72390.476190499961</v>
       </c>
       <c r="O26" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-7.9272044636838013E-2</v>
       </c>
       <c r="Q26" s="16"/>
@@ -6029,15 +6530,15 @@
         <v>594714.28571418999</v>
       </c>
       <c r="BI26" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-9</v>
       </c>
       <c r="BJ26" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-198380.95238094009</v>
       </c>
       <c r="BK26" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.25013509456621491</v>
       </c>
       <c r="BM26" s="16"/>
@@ -6084,8 +6585,30 @@
         <f t="shared" si="26"/>
         <v>-4.2162282906139985E-2</v>
       </c>
+      <c r="CC26" s="16"/>
+      <c r="CD26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE26" s="12">
+        <v>32</v>
+      </c>
+      <c r="CF26" s="14">
+        <v>670761.90476183011</v>
+      </c>
+      <c r="CG26" s="12">
+        <f t="shared" si="27"/>
+        <v>-16</v>
+      </c>
+      <c r="CH26" s="14">
+        <f t="shared" si="28"/>
+        <v>-145999.99999999988</v>
+      </c>
+      <c r="CI26" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.1787546641791207</v>
+      </c>
     </row>
-    <row r="27" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="27" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="15" t="s">
         <v>2</v>
@@ -6109,15 +6632,15 @@
         <v>1390874.28571424</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-5</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-664649.52380951005</v>
       </c>
       <c r="O27" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.32334800537460301</v>
       </c>
       <c r="Q27" s="16"/>
@@ -6241,15 +6764,15 @@
         <v>7777809.5238094311</v>
       </c>
       <c r="BI27" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>46</v>
       </c>
       <c r="BJ27" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1565619.0476190113</v>
       </c>
       <c r="BK27" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.25202367081621035</v>
       </c>
       <c r="BM27" s="16"/>
@@ -6296,8 +6819,30 @@
         <f t="shared" si="26"/>
         <v>0.25050448802982273</v>
       </c>
+      <c r="CC27" s="16"/>
+      <c r="CD27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE27" s="12">
+        <v>149</v>
+      </c>
+      <c r="CF27" s="14">
+        <v>5597125.71428564</v>
+      </c>
+      <c r="CG27" s="12">
+        <f t="shared" si="27"/>
+        <v>-3</v>
+      </c>
+      <c r="CH27" s="14">
+        <f t="shared" si="28"/>
+        <v>-66249.523809519596</v>
+      </c>
+      <c r="CI27" s="13">
+        <f t="shared" si="29"/>
+        <v>-1.1697887041615522E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="28" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
@@ -6322,15 +6867,15 @@
         <v>4236216.6666653296</v>
       </c>
       <c r="M28" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-941782.8571428908</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.18188160366037376</v>
       </c>
       <c r="Q28" s="11" t="s">
@@ -6454,15 +6999,15 @@
         <v>11352464.76190329</v>
       </c>
       <c r="BI28" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>126</v>
       </c>
       <c r="BJ28" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2389064.28571417</v>
       </c>
       <c r="BK28" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.26653548416815853</v>
       </c>
       <c r="BM28" s="11" t="s">
@@ -6509,8 +7054,30 @@
         <f t="shared" si="26"/>
         <v>0.16955209856338405</v>
       </c>
+      <c r="CC28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="CD28" s="11"/>
+      <c r="CE28" s="10">
+        <v>844</v>
+      </c>
+      <c r="CF28" s="9">
+        <v>8287305.2380938502</v>
+      </c>
+      <c r="CG28" s="29">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="CH28" s="30">
+        <f t="shared" si="28"/>
+        <v>-207478.57142877858</v>
+      </c>
+      <c r="CI28" s="31">
+        <f t="shared" si="29"/>
+        <v>-2.4424232103022525E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="16">
         <v>77</v>
       </c>
@@ -6535,15 +7102,15 @@
       </c>
       <c r="L29" s="38"/>
       <c r="M29" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>685</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O29" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="16">
@@ -6667,15 +7234,15 @@
       </c>
       <c r="BH29" s="36"/>
       <c r="BI29" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-431</v>
       </c>
       <c r="BJ29" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BK29" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM29" s="16">
@@ -6722,8 +7289,30 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC29" s="16">
+        <v>77</v>
+      </c>
+      <c r="CD29" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE29" s="17">
+        <v>4032</v>
+      </c>
+      <c r="CF29" s="36"/>
+      <c r="CG29" s="12">
+        <f t="shared" si="27"/>
+        <v>209</v>
+      </c>
+      <c r="CH29" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI29" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="30" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="30" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="35" t="s">
         <v>33</v>
@@ -6744,15 +7333,15 @@
       </c>
       <c r="L30" s="38"/>
       <c r="M30" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-9</v>
       </c>
       <c r="N30" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O30" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="16"/>
@@ -6864,15 +7453,15 @@
       </c>
       <c r="BH30" s="36"/>
       <c r="BI30" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="BJ30" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BK30" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM30" s="16"/>
@@ -6915,8 +7504,26 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC30" s="16"/>
+      <c r="CD30" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE30" s="17"/>
+      <c r="CF30" s="36"/>
+      <c r="CG30" s="12">
+        <f t="shared" si="27"/>
+        <v>-6</v>
+      </c>
+      <c r="CH30" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI30" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="31" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="31" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="15" t="s">
         <v>10</v>
@@ -6940,15 +7547,15 @@
         <v>177112.38095158999</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" ref="M31:M39" si="39">K31-C31</f>
+        <f t="shared" ref="M31:M39" si="42">K31-C31</f>
         <v>50</v>
       </c>
       <c r="N31" s="14">
-        <f t="shared" ref="N31:N39" si="40">L31-D31</f>
+        <f t="shared" ref="N31:N39" si="43">L31-D31</f>
         <v>59494.285713969963</v>
       </c>
       <c r="O31" s="13">
-        <f t="shared" ref="O31:O39" si="41">(L31-D31)/D31</f>
+        <f t="shared" ref="O31:O39" si="44">(L31-D31)/D31</f>
         <v>0.5058259581042831</v>
       </c>
       <c r="Q31" s="16"/>
@@ -7072,15 +7679,15 @@
         <v>143581.90476134996</v>
       </c>
       <c r="BI31" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="BJ31" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>12963.809523710006</v>
       </c>
       <c r="BK31" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>9.9249721105826166E-2</v>
       </c>
       <c r="BM31" s="16"/>
@@ -7127,8 +7734,30 @@
         <f t="shared" si="26"/>
         <v>-0.15106969119769945</v>
       </c>
+      <c r="CC31" s="16"/>
+      <c r="CD31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE31" s="12">
+        <v>154</v>
+      </c>
+      <c r="CF31" s="14">
+        <v>135826.66666607006</v>
+      </c>
+      <c r="CG31" s="12">
+        <f t="shared" si="27"/>
+        <v>35</v>
+      </c>
+      <c r="CH31" s="14">
+        <f t="shared" si="28"/>
+        <v>29292.380952280117</v>
+      </c>
+      <c r="CI31" s="13">
+        <f t="shared" si="29"/>
+        <v>0.27495731309426213</v>
+      </c>
     </row>
-    <row r="32" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="32" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="15" t="s">
         <v>9</v>
@@ -7152,15 +7781,15 @@
         <v>89939.047618969998</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
       <c r="N32" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>7165.7142857699801</v>
       </c>
       <c r="O32" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>8.6570324006703295E-2</v>
       </c>
       <c r="Q32" s="16"/>
@@ -7284,15 +7913,15 @@
         <v>128144.76190464999</v>
       </c>
       <c r="BI32" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>19</v>
       </c>
       <c r="BJ32" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>31128.571428589974</v>
       </c>
       <c r="BK32" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.32085955216177392</v>
       </c>
       <c r="BM32" s="16"/>
@@ -7339,8 +7968,30 @@
         <f t="shared" si="26"/>
         <v>-0.19159006409528714</v>
       </c>
+      <c r="CC32" s="16"/>
+      <c r="CD32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE32" s="12">
+        <v>78</v>
+      </c>
+      <c r="CF32" s="14">
+        <v>91024.761904659987</v>
+      </c>
+      <c r="CG32" s="12">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="CH32" s="14">
+        <f t="shared" si="28"/>
+        <v>23517.142857129991</v>
+      </c>
+      <c r="CI32" s="13">
+        <f t="shared" si="29"/>
+        <v>0.3483627950286961</v>
+      </c>
     </row>
-    <row r="33" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="33" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="15" t="s">
         <v>8</v>
@@ -7364,15 +8015,15 @@
         <v>211971.42857141001</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>15</v>
       </c>
       <c r="N33" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>110428.57142856001</v>
       </c>
       <c r="O33" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.0875070343274824</v>
       </c>
       <c r="Q33" s="16"/>
@@ -7496,15 +8147,15 @@
         <v>209704.76190474999</v>
       </c>
       <c r="BI33" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>19</v>
       </c>
       <c r="BJ33" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>151247.61904761998</v>
       </c>
       <c r="BK33" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.587324861518995</v>
       </c>
       <c r="BM33" s="16"/>
@@ -7551,8 +8202,30 @@
         <f t="shared" si="26"/>
         <v>-0.58892072330191025</v>
       </c>
+      <c r="CC33" s="16"/>
+      <c r="CD33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE33" s="12">
+        <v>37</v>
+      </c>
+      <c r="CF33" s="14">
+        <v>234649.52380950999</v>
+      </c>
+      <c r="CG33" s="12">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="CH33" s="14">
+        <f t="shared" si="28"/>
+        <v>89804.761904759973</v>
+      </c>
+      <c r="CI33" s="13">
+        <f t="shared" si="29"/>
+        <v>0.62000696969501479</v>
+      </c>
     </row>
-    <row r="34" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="34" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="15" t="s">
         <v>7</v>
@@ -7576,15 +8249,15 @@
         <v>513999.99999994005</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="N34" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>194190.47619048005</v>
       </c>
       <c r="O34" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.6072066706374174</v>
       </c>
       <c r="Q34" s="16"/>
@@ -7708,15 +8381,15 @@
         <v>256857.14285710003</v>
       </c>
       <c r="BI34" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-5</v>
       </c>
       <c r="BJ34" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-121428.57142856999</v>
       </c>
       <c r="BK34" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.32099697885199752</v>
       </c>
       <c r="BM34" s="16"/>
@@ -7763,8 +8436,30 @@
         <f t="shared" si="26"/>
         <v>0.20108695652182468</v>
       </c>
+      <c r="CC34" s="16"/>
+      <c r="CD34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE34" s="12">
+        <v>13</v>
+      </c>
+      <c r="CF34" s="14">
+        <v>163523.80952377</v>
+      </c>
+      <c r="CG34" s="12">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="CH34" s="14">
+        <f t="shared" si="28"/>
+        <v>-25904.761904760031</v>
+      </c>
+      <c r="CI34" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.13675213675215675</v>
+      </c>
     </row>
-    <row r="35" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="35" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="15" t="s">
         <v>6</v>
@@ -7788,15 +8483,15 @@
         <v>0</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-6</v>
       </c>
       <c r="N35" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-17551.428571409997</v>
       </c>
       <c r="O35" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="Q35" s="16"/>
@@ -7915,15 +8610,15 @@
         <v>4713.3333333299997</v>
       </c>
       <c r="BI35" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BJ35" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1856.1904761899996</v>
       </c>
       <c r="BK35" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.64966666666714945</v>
       </c>
       <c r="BM35" s="16"/>
@@ -7970,8 +8665,30 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC35" s="16"/>
+      <c r="CD35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE35" s="12">
+        <v>0</v>
+      </c>
+      <c r="CF35" s="14">
+        <v>0</v>
+      </c>
+      <c r="CG35" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="CH35" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI35" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="36" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="16"/>
       <c r="B36" s="15" t="s">
         <v>5</v>
@@ -7995,15 +8712,15 @@
         <v>33040</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="N36" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>23980</v>
       </c>
       <c r="O36" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.6467991169977925</v>
       </c>
       <c r="Q36" s="16"/>
@@ -8127,15 +8844,15 @@
         <v>19750</v>
       </c>
       <c r="BI36" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="BJ36" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>13360</v>
       </c>
       <c r="BK36" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.0907668231611893</v>
       </c>
       <c r="BM36" s="16"/>
@@ -8182,8 +8899,30 @@
         <f t="shared" si="26"/>
         <v>0.57122405153901212</v>
       </c>
+      <c r="CC36" s="16"/>
+      <c r="CD36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE36" s="12">
+        <v>1</v>
+      </c>
+      <c r="CF36" s="14">
+        <v>6290</v>
+      </c>
+      <c r="CG36" s="12">
+        <f t="shared" si="27"/>
+        <v>-4</v>
+      </c>
+      <c r="CH36" s="14">
+        <f t="shared" si="28"/>
+        <v>-15660</v>
+      </c>
+      <c r="CI36" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.71343963553530754</v>
+      </c>
     </row>
-    <row r="37" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="37" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="15" t="s">
         <v>4</v>
@@ -8207,15 +8946,15 @@
         <v>168163.80952380001</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="N37" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>8449.5238095299865</v>
       </c>
       <c r="O37" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>5.2903995229620498E-2</v>
       </c>
       <c r="Q37" s="16"/>
@@ -8334,15 +9073,15 @@
         <v>31333.33333333</v>
       </c>
       <c r="BI37" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>3333.3333333299997</v>
       </c>
       <c r="BK37" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.1190476190475</v>
       </c>
       <c r="BM37" s="16"/>
@@ -8389,8 +9128,30 @@
         <f t="shared" si="26"/>
         <v>0.22240460059141814</v>
       </c>
+      <c r="CC37" s="16"/>
+      <c r="CD37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE37" s="12">
+        <v>2</v>
+      </c>
+      <c r="CF37" s="14">
+        <v>63806.666666659999</v>
+      </c>
+      <c r="CG37" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="CH37" s="14">
+        <f t="shared" si="28"/>
+        <v>-36199.999999999993</v>
+      </c>
+      <c r="CI37" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.3619758682754724</v>
+      </c>
     </row>
-    <row r="38" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="38" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -8414,15 +9175,15 @@
         <v>224190.47619045002</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N38" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>45666.666666680016</v>
       </c>
       <c r="O38" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.25580154707935254</v>
       </c>
       <c r="Q38" s="16"/>
@@ -8546,15 +9307,15 @@
         <v>280428.57142852998</v>
       </c>
       <c r="BI38" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-2</v>
       </c>
       <c r="BJ38" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-1285.7142856900464</v>
       </c>
       <c r="BK38" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-4.5638945232415939E-3</v>
       </c>
       <c r="BM38" s="16"/>
@@ -8601,8 +9362,30 @@
         <f t="shared" si="26"/>
         <v>-0.32847626977520605</v>
       </c>
+      <c r="CC38" s="16"/>
+      <c r="CD38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE38" s="12">
+        <v>29</v>
+      </c>
+      <c r="CF38" s="14">
+        <v>431809.52380948002</v>
+      </c>
+      <c r="CG38" s="12">
+        <f t="shared" si="27"/>
+        <v>19</v>
+      </c>
+      <c r="CH38" s="14">
+        <f t="shared" si="28"/>
+        <v>278190.47619046003</v>
+      </c>
+      <c r="CI38" s="13">
+        <f t="shared" si="29"/>
+        <v>1.8109113453195014</v>
+      </c>
     </row>
-    <row r="39" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="39" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="15" t="s">
         <v>2</v>
@@ -8626,15 +9409,15 @@
         <v>734112.38095234998</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-39</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-1661411.4285714002</v>
       </c>
       <c r="O39" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.69354828449887229</v>
       </c>
       <c r="Q39" s="16"/>
@@ -8758,15 +9541,15 @@
         <v>2722285.7142856703</v>
       </c>
       <c r="BI39" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>26</v>
       </c>
       <c r="BJ39" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>918476.1904761903</v>
       </c>
       <c r="BK39" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.50918690601901961</v>
       </c>
       <c r="BM39" s="16"/>
@@ -8813,8 +9596,30 @@
         <f t="shared" si="26"/>
         <v>3.3338430952722264E-2</v>
       </c>
+      <c r="CC39" s="16"/>
+      <c r="CD39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE39" s="12">
+        <v>39</v>
+      </c>
+      <c r="CF39" s="14">
+        <v>1483904.76190471</v>
+      </c>
+      <c r="CG39" s="12">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="CH39" s="14">
+        <f t="shared" si="28"/>
+        <v>196857.14285714994</v>
+      </c>
+      <c r="CI39" s="13">
+        <f t="shared" si="29"/>
+        <v>0.15295249371023895</v>
+      </c>
     </row>
-    <row r="40" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="40" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>12</v>
       </c>
@@ -8839,15 +9644,15 @@
         <v>2152529.52380851</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>46</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-1229587.6190478201</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.36355559760694311</v>
       </c>
       <c r="Q40" s="11" t="s">
@@ -8971,15 +9776,15 @@
         <v>3796799.5238087103</v>
       </c>
       <c r="BI40" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>70</v>
       </c>
       <c r="BJ40" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1009651.4285713704</v>
       </c>
       <c r="BK40" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.36225252267601282</v>
       </c>
       <c r="BM40" s="11" t="s">
@@ -9026,8 +9831,30 @@
         <f t="shared" si="26"/>
         <v>-9.5317440852541319E-2</v>
       </c>
+      <c r="CC40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="CD40" s="11"/>
+      <c r="CE40" s="10">
+        <v>354</v>
+      </c>
+      <c r="CF40" s="9">
+        <v>2612635.7142848601</v>
+      </c>
+      <c r="CG40" s="29">
+        <f t="shared" si="27"/>
+        <v>73</v>
+      </c>
+      <c r="CH40" s="30">
+        <f t="shared" si="28"/>
+        <v>541697.14285702026</v>
+      </c>
+      <c r="CI40" s="31">
+        <f t="shared" si="29"/>
+        <v>0.26157084055059104</v>
+      </c>
     </row>
-    <row r="41" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="41" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="16">
         <v>81</v>
       </c>
@@ -9052,15 +9879,15 @@
       </c>
       <c r="L41" s="38"/>
       <c r="M41" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-261</v>
       </c>
       <c r="N41" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O41" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="16">
@@ -9184,15 +10011,15 @@
       </c>
       <c r="BH41" s="36"/>
       <c r="BI41" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-210</v>
       </c>
       <c r="BJ41" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BK41" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM41" s="16">
@@ -9239,8 +10066,30 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC41" s="16">
+        <v>81</v>
+      </c>
+      <c r="CD41" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE41" s="17">
+        <v>1628</v>
+      </c>
+      <c r="CF41" s="36"/>
+      <c r="CG41" s="12">
+        <f t="shared" si="27"/>
+        <v>33</v>
+      </c>
+      <c r="CH41" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI41" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="42" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="42" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="35" t="s">
         <v>33</v>
@@ -9261,15 +10110,15 @@
       </c>
       <c r="L42" s="38"/>
       <c r="M42" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-9</v>
       </c>
       <c r="N42" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O42" s="13" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="16"/>
@@ -9381,15 +10230,15 @@
       </c>
       <c r="BH42" s="36"/>
       <c r="BI42" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="BJ42" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BK42" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM42" s="16"/>
@@ -9432,8 +10281,26 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC42" s="16"/>
+      <c r="CD42" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE42" s="17"/>
+      <c r="CF42" s="36"/>
+      <c r="CG42" s="12">
+        <f t="shared" si="27"/>
+        <v>-10</v>
+      </c>
+      <c r="CH42" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI42" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="43" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="43" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="15" t="s">
         <v>10</v>
@@ -9457,15 +10324,15 @@
         <v>140190.47618992999</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" ref="M43:M51" si="42">K43-C43</f>
+        <f t="shared" ref="M43:M51" si="45">K43-C43</f>
         <v>32</v>
       </c>
       <c r="N43" s="14">
-        <f t="shared" ref="N43:N51" si="43">L43-D43</f>
+        <f t="shared" ref="N43:N51" si="46">L43-D43</f>
         <v>36774.285714210011</v>
       </c>
       <c r="O43" s="13">
-        <f t="shared" ref="O43:O51" si="44">(L43-D43)/D43</f>
+        <f t="shared" ref="O43:O51" si="47">(L43-D43)/D43</f>
         <v>0.35559505281567944</v>
       </c>
       <c r="Q43" s="16"/>
@@ -9589,15 +10456,15 @@
         <v>127592.38095183</v>
       </c>
       <c r="BI43" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>14</v>
       </c>
       <c r="BJ43" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1656.1904762000049</v>
       </c>
       <c r="BK43" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.3151028865848499E-2</v>
       </c>
       <c r="BM43" s="16"/>
@@ -9644,8 +10511,30 @@
         <f t="shared" si="26"/>
         <v>-8.034192516447082E-2</v>
       </c>
+      <c r="CC43" s="16"/>
+      <c r="CD43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE43" s="12">
+        <v>169</v>
+      </c>
+      <c r="CF43" s="14">
+        <v>138360.95238042992</v>
+      </c>
+      <c r="CG43" s="12">
+        <f t="shared" si="27"/>
+        <v>50</v>
+      </c>
+      <c r="CH43" s="14">
+        <f t="shared" si="28"/>
+        <v>38152.380952289968</v>
+      </c>
+      <c r="CI43" s="13">
+        <f t="shared" si="29"/>
+        <v>0.38072971611664203</v>
+      </c>
     </row>
-    <row r="44" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="44" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="15" t="s">
         <v>9</v>
@@ -9669,15 +10558,15 @@
         <v>84724.761904650004</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>26</v>
       </c>
       <c r="N44" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>14286.666666670004</v>
       </c>
       <c r="O44" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.20282585181216936</v>
       </c>
       <c r="Q44" s="16"/>
@@ -9801,15 +10690,15 @@
         <v>58333.333333240007</v>
       </c>
       <c r="BI44" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-20</v>
       </c>
       <c r="BJ44" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-27973.333333309987</v>
       </c>
       <c r="BK44" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.32411555692894872</v>
       </c>
       <c r="BM44" s="16"/>
@@ -9856,8 +10745,30 @@
         <f t="shared" si="26"/>
         <v>0.22845462193762889</v>
       </c>
+      <c r="CC44" s="16"/>
+      <c r="CD44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE44" s="12">
+        <v>85</v>
+      </c>
+      <c r="CF44" s="14">
+        <v>83525.71428563002</v>
+      </c>
+      <c r="CG44" s="12">
+        <f t="shared" si="27"/>
+        <v>-13</v>
+      </c>
+      <c r="CH44" s="14">
+        <f t="shared" si="28"/>
+        <v>-5475.2380952199746</v>
+      </c>
+      <c r="CI44" s="13">
+        <f t="shared" si="29"/>
+        <v>-6.1518870851971483E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="45" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="15" t="s">
         <v>8</v>
@@ -9881,15 +10792,15 @@
         <v>91266.666666649995</v>
       </c>
       <c r="M45" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-2866.6666666700039</v>
       </c>
       <c r="O45" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-3.0453257790408039E-2</v>
       </c>
       <c r="Q45" s="16"/>
@@ -10013,15 +10924,15 @@
         <v>204697.14285713001</v>
       </c>
       <c r="BI45" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>19</v>
       </c>
       <c r="BJ45" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>139106.66666665999</v>
       </c>
       <c r="BK45" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.120836358356422</v>
       </c>
       <c r="BM45" s="16"/>
@@ -10068,8 +10979,30 @@
         <f t="shared" si="26"/>
         <v>-0.17598152424945221</v>
       </c>
+      <c r="CC45" s="16"/>
+      <c r="CD45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE45" s="12">
+        <v>26</v>
+      </c>
+      <c r="CF45" s="14">
+        <v>152609.52380950999</v>
+      </c>
+      <c r="CG45" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="CH45" s="14">
+        <f t="shared" si="28"/>
+        <v>-34285.714285710012</v>
+      </c>
+      <c r="CI45" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.18344883815735322</v>
+      </c>
     </row>
-    <row r="46" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="46" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="15" t="s">
         <v>7</v>
@@ -10093,15 +11026,15 @@
         <v>300476.19047614001</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="N46" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>133142.85714283999</v>
       </c>
       <c r="O46" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.79567444507689145</v>
       </c>
       <c r="Q46" s="16"/>
@@ -10225,15 +11158,15 @@
         <v>74666.666666659992</v>
       </c>
       <c r="BI46" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-4</v>
       </c>
       <c r="BJ46" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-36761.90476188001</v>
       </c>
       <c r="BK46" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.32991452991440084</v>
       </c>
       <c r="BM46" s="16"/>
@@ -10280,8 +11213,30 @@
         <f t="shared" si="26"/>
         <v>-0.55775266792220379</v>
       </c>
+      <c r="CC46" s="16"/>
+      <c r="CD46" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE46" s="12">
+        <v>9</v>
+      </c>
+      <c r="CF46" s="14">
+        <v>114380.95238094001</v>
+      </c>
+      <c r="CG46" s="12">
+        <f t="shared" si="27"/>
+        <v>-2</v>
+      </c>
+      <c r="CH46" s="14">
+        <f t="shared" si="28"/>
+        <v>-19809.523809499995</v>
+      </c>
+      <c r="CI46" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.14762242725323352</v>
+      </c>
     </row>
-    <row r="47" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="47" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="15" t="s">
         <v>6</v>
@@ -10305,15 +11260,15 @@
         <v>0</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="N47" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-2857.1428571400002</v>
       </c>
       <c r="O47" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="Q47" s="16"/>
@@ -10427,15 +11382,15 @@
         <v>0</v>
       </c>
       <c r="BI47" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="BJ47" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-2857.1428571400002</v>
       </c>
       <c r="BK47" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="BM47" s="16"/>
@@ -10482,8 +11437,30 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC47" s="16"/>
+      <c r="CD47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE47" s="12">
+        <v>0</v>
+      </c>
+      <c r="CF47" s="14">
+        <v>0</v>
+      </c>
+      <c r="CG47" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="CH47" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI47" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="48" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="48" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="16"/>
       <c r="B48" s="15" t="s">
         <v>5</v>
@@ -10507,15 +11484,15 @@
         <v>2190</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N48" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-6800</v>
       </c>
       <c r="O48" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.75639599555061177</v>
       </c>
       <c r="Q48" s="16"/>
@@ -10639,15 +11616,15 @@
         <v>4890</v>
       </c>
       <c r="BI48" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-6</v>
       </c>
       <c r="BJ48" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-35540</v>
       </c>
       <c r="BK48" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.8790502102399208</v>
       </c>
       <c r="BM48" s="16"/>
@@ -10694,8 +11671,30 @@
         <f t="shared" si="26"/>
         <v>0.51974813966800226</v>
       </c>
+      <c r="CC48" s="16"/>
+      <c r="CD48" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE48" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF48" s="14">
+        <v>19170</v>
+      </c>
+      <c r="CG48" s="12">
+        <f t="shared" si="27"/>
+        <v>-2</v>
+      </c>
+      <c r="CH48" s="14">
+        <f t="shared" si="28"/>
+        <v>-7380</v>
+      </c>
+      <c r="CI48" s="13">
+        <f t="shared" si="29"/>
+        <v>-0.27796610169491526</v>
+      </c>
     </row>
-    <row r="49" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="49" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="15" t="s">
         <v>4</v>
@@ -10719,15 +11718,15 @@
         <v>53290.476190469999</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-2</v>
       </c>
       <c r="N49" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-76190.476190459987</v>
       </c>
       <c r="O49" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.58842999521898287</v>
       </c>
       <c r="Q49" s="16"/>
@@ -10851,15 +11850,15 @@
         <v>117333.33333333</v>
       </c>
       <c r="BI49" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="BJ49" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>53526.666666669997</v>
       </c>
       <c r="BK49" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.83888830843186069</v>
       </c>
       <c r="BM49" s="16"/>
@@ -10906,8 +11905,30 @@
         <f t="shared" si="26"/>
         <v>-0.50655585106377732</v>
       </c>
+      <c r="CC49" s="16"/>
+      <c r="CD49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE49" s="12">
+        <v>2</v>
+      </c>
+      <c r="CF49" s="14">
+        <v>76000</v>
+      </c>
+      <c r="CG49" s="12">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="CH49" s="14">
+        <f t="shared" si="28"/>
+        <v>40660</v>
+      </c>
+      <c r="CI49" s="13">
+        <f t="shared" si="29"/>
+        <v>1.1505376344086022</v>
+      </c>
     </row>
-    <row r="50" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="50" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="15" t="s">
         <v>3</v>
@@ -10931,15 +11952,15 @@
         <v>390285.71428562998</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>13</v>
       </c>
       <c r="N50" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>205619.04761898998</v>
       </c>
       <c r="O50" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.1134605466733918</v>
       </c>
       <c r="Q50" s="16"/>
@@ -11063,15 +12084,15 @@
         <v>143333.33333331</v>
       </c>
       <c r="BI50" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-2</v>
       </c>
       <c r="BJ50" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-40380.952380940027</v>
       </c>
       <c r="BK50" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.21980300673921857</v>
       </c>
       <c r="BM50" s="16"/>
@@ -11118,8 +12139,30 @@
         <f t="shared" si="26"/>
         <v>1.8037974683544629</v>
       </c>
+      <c r="CC50" s="16"/>
+      <c r="CD50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE50" s="12">
+        <v>15</v>
+      </c>
+      <c r="CF50" s="14">
+        <v>309904.76190473</v>
+      </c>
+      <c r="CG50" s="12">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="CH50" s="14">
+        <f t="shared" si="28"/>
+        <v>56761.904761909973</v>
+      </c>
+      <c r="CI50" s="13">
+        <f t="shared" si="29"/>
+        <v>0.22422874341615578</v>
+      </c>
     </row>
-    <row r="51" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="51" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="15" t="s">
         <v>2</v>
@@ -11143,15 +12186,15 @@
         <v>1090714.2857142501</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-6</v>
       </c>
       <c r="N51" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-406999.99999997998</v>
       </c>
       <c r="O51" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.27174742464707802</v>
       </c>
       <c r="Q51" s="16"/>
@@ -11275,15 +12318,15 @@
         <v>2179809.5238094702</v>
       </c>
       <c r="BI51" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="BJ51" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>74761.904761900194</v>
       </c>
       <c r="BK51" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.5515540876802712E-2</v>
       </c>
       <c r="BM51" s="16"/>
@@ -11330,8 +12373,30 @@
         <f t="shared" si="26"/>
         <v>-0.10331152092010842</v>
       </c>
+      <c r="CC51" s="16"/>
+      <c r="CD51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE51" s="12">
+        <v>46</v>
+      </c>
+      <c r="CF51" s="14">
+        <v>1767047.6190475801</v>
+      </c>
+      <c r="CG51" s="12">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="CH51" s="14">
+        <f t="shared" si="28"/>
+        <v>475047.61904764012</v>
+      </c>
+      <c r="CI51" s="13">
+        <f t="shared" si="29"/>
+        <v>0.36768391567156516</v>
+      </c>
     </row>
-    <row r="52" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="52" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>11</v>
       </c>
@@ -11356,15 +12421,15 @@
         <v>2153138.5714277201</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" ref="M52:M65" si="45">K52-C52</f>
+        <f t="shared" ref="M52:M65" si="48">K52-C52</f>
         <v>75</v>
       </c>
       <c r="N52" s="9">
-        <f t="shared" ref="N52:N65" si="46">L52-D52</f>
+        <f t="shared" ref="N52:N65" si="49">L52-D52</f>
         <v>-105891.42857153993</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" ref="O52:O65" si="47">(L52-D52)/D52</f>
+        <f t="shared" ref="O52:O65" si="50">(L52-D52)/D52</f>
         <v>-4.6874733213624703E-2</v>
       </c>
       <c r="Q52" s="11" t="s">
@@ -11488,15 +12553,15 @@
         <v>2910655.7142849704</v>
       </c>
       <c r="BI52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="BJ52" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>125538.09523816034</v>
       </c>
       <c r="BK52" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>4.5074611707467134E-2</v>
       </c>
       <c r="BM52" s="11" t="s">
@@ -11543,8 +12608,30 @@
         <f t="shared" si="26"/>
         <v>-9.2009051342760287E-2</v>
       </c>
+      <c r="CC52" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD52" s="11"/>
+      <c r="CE52" s="10">
+        <v>355</v>
+      </c>
+      <c r="CF52" s="9">
+        <v>2660999.5238088202</v>
+      </c>
+      <c r="CG52" s="29">
+        <f t="shared" si="27"/>
+        <v>48</v>
+      </c>
+      <c r="CH52" s="30">
+        <f t="shared" si="28"/>
+        <v>543671.42857141048</v>
+      </c>
+      <c r="CI52" s="31">
+        <f t="shared" si="29"/>
+        <v>0.25677240565329118</v>
+      </c>
     </row>
-    <row r="53" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="53" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="16">
         <v>84</v>
       </c>
@@ -11563,15 +12650,15 @@
       </c>
       <c r="L53" s="38"/>
       <c r="M53" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N53" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O53" s="13" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="16">
@@ -11678,15 +12765,15 @@
       <c r="BG53" s="17"/>
       <c r="BH53" s="36"/>
       <c r="BI53" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BJ53" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BK53" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM53" s="16">
@@ -11729,8 +12816,28 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC53" s="16">
+        <v>84</v>
+      </c>
+      <c r="CD53" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE53" s="17"/>
+      <c r="CF53" s="36"/>
+      <c r="CG53" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="CH53" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI53" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="54" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="54" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="35" t="s">
         <v>33</v>
@@ -11751,15 +12858,15 @@
       </c>
       <c r="L54" s="38"/>
       <c r="M54" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-4</v>
       </c>
       <c r="N54" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O54" s="13" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="16"/>
@@ -11871,15 +12978,15 @@
       </c>
       <c r="BH54" s="36"/>
       <c r="BI54" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-2</v>
       </c>
       <c r="BJ54" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BK54" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM54" s="16"/>
@@ -11920,8 +13027,26 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC54" s="16"/>
+      <c r="CD54" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE54" s="17"/>
+      <c r="CF54" s="36"/>
+      <c r="CG54" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="CH54" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI54" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="55" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="55" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="15" t="s">
         <v>10</v>
@@ -11945,15 +13070,15 @@
         <v>176664.76190412001</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-18</v>
       </c>
       <c r="N55" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-24420.952380899951</v>
       </c>
       <c r="O55" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.12144548640728184</v>
       </c>
       <c r="Q55" s="16"/>
@@ -12077,15 +13202,15 @@
         <v>165906.66666602998</v>
       </c>
       <c r="BI55" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="BJ55" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-72.380952419975074</v>
       </c>
       <c r="BK55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-4.3608487612462553E-4</v>
       </c>
       <c r="BM55" s="16"/>
@@ -12132,8 +13257,30 @@
         <f t="shared" si="26"/>
         <v>-0.26330542969085319</v>
       </c>
+      <c r="CC55" s="16"/>
+      <c r="CD55" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CE55" s="12">
+        <v>178</v>
+      </c>
+      <c r="CF55" s="14">
+        <v>157690.4761898999</v>
+      </c>
+      <c r="CG55" s="12">
+        <f t="shared" si="27"/>
+        <v>43</v>
+      </c>
+      <c r="CH55" s="14">
+        <f t="shared" si="28"/>
+        <v>48061.904761799931</v>
+      </c>
+      <c r="CI55" s="13">
+        <f t="shared" si="29"/>
+        <v>0.43840674137874169</v>
+      </c>
     </row>
-    <row r="56" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="56" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A56" s="16"/>
       <c r="B56" s="15" t="s">
         <v>9</v>
@@ -12157,15 +13304,15 @@
         <v>146590.47619036003</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-24</v>
       </c>
       <c r="N56" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-76438.095238119946</v>
       </c>
       <c r="O56" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.34272781621000448</v>
       </c>
       <c r="Q56" s="16"/>
@@ -12289,15 +13436,15 @@
         <v>62961.904761820013</v>
       </c>
       <c r="BI56" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="BJ56" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-4819.047619060002</v>
       </c>
       <c r="BK56" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-7.1097372488666641E-2</v>
       </c>
       <c r="BM56" s="16"/>
@@ -12344,8 +13491,30 @@
         <f t="shared" si="26"/>
         <v>-4.9414705174723747E-3</v>
       </c>
+      <c r="CC56" s="16"/>
+      <c r="CD56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE56" s="12">
+        <v>76</v>
+      </c>
+      <c r="CF56" s="14">
+        <v>92514.285714180005</v>
+      </c>
+      <c r="CG56" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="CH56" s="14">
+        <f t="shared" si="28"/>
+        <v>9857.1428571300057</v>
+      </c>
+      <c r="CI56" s="13">
+        <f t="shared" si="29"/>
+        <v>0.11925337020391903</v>
+      </c>
     </row>
-    <row r="57" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="57" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="15" t="s">
         <v>8</v>
@@ -12369,15 +13538,15 @@
         <v>119809.52380950999</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="N57" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>24522.857142859983</v>
       </c>
       <c r="O57" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.2573587470390849</v>
       </c>
       <c r="Q57" s="16"/>
@@ -12501,15 +13670,15 @@
         <v>308152.38095237</v>
       </c>
       <c r="BI57" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>27</v>
       </c>
       <c r="BJ57" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>194028.57142857002</v>
       </c>
       <c r="BK57" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.7001585579572356</v>
       </c>
       <c r="BM57" s="16"/>
@@ -12556,8 +13725,30 @@
         <f t="shared" si="26"/>
         <v>-0.16307892422691178</v>
       </c>
+      <c r="CC57" s="16"/>
+      <c r="CD57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE57" s="12">
+        <v>31</v>
+      </c>
+      <c r="CF57" s="14">
+        <v>212561.90476189001</v>
+      </c>
+      <c r="CG57" s="12">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="CH57" s="14">
+        <f t="shared" si="28"/>
+        <v>38533.333333340008</v>
+      </c>
+      <c r="CI57" s="13">
+        <f t="shared" si="29"/>
+        <v>0.2214195808023422</v>
+      </c>
     </row>
-    <row r="58" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="58" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="16"/>
       <c r="B58" s="15" t="s">
         <v>7</v>
@@ -12581,15 +13772,15 @@
         <v>279142.8571428</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-17</v>
       </c>
       <c r="N58" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-169809.52380950004</v>
       </c>
       <c r="O58" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.37823504454816964</v>
       </c>
       <c r="Q58" s="16"/>
@@ -12713,15 +13904,15 @@
         <v>237428.57142852998</v>
       </c>
       <c r="BI58" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="BJ58" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>78761.904761919985</v>
       </c>
       <c r="BK58" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.49639855942404276</v>
       </c>
       <c r="BM58" s="16"/>
@@ -12768,8 +13959,30 @@
         <f t="shared" si="26"/>
         <v>-0.43208895949167786</v>
       </c>
+      <c r="CC58" s="16"/>
+      <c r="CD58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE58" s="12">
+        <v>16</v>
+      </c>
+      <c r="CF58" s="14">
+        <v>207047.61904757001</v>
+      </c>
+      <c r="CG58" s="12">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="CH58" s="14">
+        <f t="shared" si="28"/>
+        <v>70857.142857140017</v>
+      </c>
+      <c r="CI58" s="13">
+        <f t="shared" si="29"/>
+        <v>0.5202797202798759</v>
+      </c>
     </row>
-    <row r="59" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="59" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="15" t="s">
         <v>6</v>
@@ -12793,15 +14006,15 @@
         <v>0</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N59" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O59" s="13" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="16"/>
@@ -12910,15 +14123,15 @@
         <v>2857.1428571400002</v>
       </c>
       <c r="BI59" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="BJ59" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2857.1428571400002</v>
       </c>
       <c r="BK59" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM59" s="16"/>
@@ -12965,8 +14178,30 @@
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CC59" s="16"/>
+      <c r="CD59" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE59" s="12">
+        <v>0</v>
+      </c>
+      <c r="CF59" s="14">
+        <v>0</v>
+      </c>
+      <c r="CG59" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="CH59" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CI59" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="60" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="60" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="15" t="s">
         <v>5</v>
@@ -12990,15 +14225,15 @@
         <v>144623.80952380001</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="N60" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>129873.80952380001</v>
       </c>
       <c r="O60" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>8.8050040355118657</v>
       </c>
       <c r="Q60" s="16"/>
@@ -13117,15 +14352,15 @@
         <v>7080</v>
       </c>
       <c r="BI60" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="BJ60" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>7080</v>
       </c>
       <c r="BK60" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM60" s="16"/>
@@ -13172,8 +14407,30 @@
         <f t="shared" si="26"/>
         <v>-1</v>
       </c>
+      <c r="CC60" s="16"/>
+      <c r="CD60" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE60" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF60" s="14">
+        <v>13870</v>
+      </c>
+      <c r="CG60" s="12">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="CH60" s="14">
+        <f t="shared" si="28"/>
+        <v>13870</v>
+      </c>
+      <c r="CI60" s="13" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="61" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="61" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="15" t="s">
         <v>4</v>
@@ -13197,15 +14454,15 @@
         <v>144623.80952380001</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-3</v>
       </c>
       <c r="N61" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-150952.38095236997</v>
       </c>
       <c r="O61" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.51070548243140745</v>
       </c>
       <c r="Q61" s="16"/>
@@ -13329,15 +14586,15 @@
         <v>82666.666666659992</v>
       </c>
       <c r="BI61" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="BJ61" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>44666.666666659992</v>
       </c>
       <c r="BK61" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.1754385964910525</v>
       </c>
       <c r="BM61" s="16"/>
@@ -13384,8 +14641,30 @@
         <f t="shared" si="26"/>
         <v>-0.77759524862577512</v>
       </c>
+      <c r="CC61" s="16"/>
+      <c r="CD61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE61" s="12">
+        <v>4</v>
+      </c>
+      <c r="CF61" s="14">
+        <v>132952.38095237</v>
+      </c>
+      <c r="CG61" s="12">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="CH61" s="14">
+        <f t="shared" si="28"/>
+        <v>82666.666666660007</v>
+      </c>
+      <c r="CI61" s="13">
+        <f t="shared" si="29"/>
+        <v>1.6439393939394018</v>
+      </c>
     </row>
-    <row r="62" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="62" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="15" t="s">
         <v>3</v>
@@ -13409,15 +14688,15 @@
         <v>530333.33333328005</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-6</v>
       </c>
       <c r="N62" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-78476.190476179938</v>
       </c>
       <c r="O62" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.12890105592490822</v>
       </c>
       <c r="Q62" s="16"/>
@@ -13541,15 +14820,15 @@
         <v>157904.76190473</v>
       </c>
       <c r="BI62" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BJ62" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-43333.333333340008</v>
       </c>
       <c r="BK62" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.2153336488405713</v>
       </c>
       <c r="BM62" s="16"/>
@@ -13596,8 +14875,30 @@
         <f t="shared" si="26"/>
         <v>-0.16070020501497739</v>
       </c>
+      <c r="CC62" s="16"/>
+      <c r="CD62" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE62" s="12">
+        <v>13</v>
+      </c>
+      <c r="CF62" s="14">
+        <v>268761.90476186998</v>
+      </c>
+      <c r="CG62" s="12">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="CH62" s="14">
+        <f t="shared" si="28"/>
+        <v>15333.333333340008</v>
+      </c>
+      <c r="CI62" s="13">
+        <f t="shared" si="29"/>
+        <v>6.0503570086469907E-2</v>
+      </c>
     </row>
-    <row r="63" spans="1:79" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="63" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="16"/>
       <c r="B63" s="15" t="s">
         <v>2</v>
@@ -13621,15 +14922,15 @@
         <v>2725142.8571427902</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="N63" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>197904.76190476026</v>
       </c>
       <c r="O63" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>7.8308712692193111E-2</v>
       </c>
       <c r="Q63" s="16"/>
@@ -13753,15 +15054,15 @@
         <v>2176285.7142856899</v>
       </c>
       <c r="BI63" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="BJ63" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>261428.57142858999</v>
       </c>
       <c r="BK63" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.13652641002687041</v>
       </c>
       <c r="BM63" s="16"/>
@@ -13808,8 +15109,30 @@
         <f t="shared" si="26"/>
         <v>-0.22026464573560342</v>
       </c>
+      <c r="CC63" s="16"/>
+      <c r="CD63" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE63" s="12">
+        <v>49</v>
+      </c>
+      <c r="CF63" s="14">
+        <v>1863083.8095237601</v>
+      </c>
+      <c r="CG63" s="12">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="CH63" s="14">
+        <f t="shared" si="28"/>
+        <v>628428.57142855995</v>
+      </c>
+      <c r="CI63" s="13">
+        <f t="shared" si="29"/>
+        <v>0.50899113536997276</v>
+      </c>
     </row>
-    <row r="64" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="64" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>1</v>
       </c>
@@ -13834,15 +15157,15 @@
         <v>4128597.6190466601</v>
       </c>
       <c r="M64" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-60</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-286129.52380944975</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-6.4812504725793335E-2</v>
       </c>
       <c r="Q64" s="11" t="s">
@@ -13966,15 +15289,15 @@
         <v>3201243.8095229696</v>
       </c>
       <c r="BI64" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>55</v>
       </c>
       <c r="BJ64" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>540598.09523805976</v>
       </c>
       <c r="BK64" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.20318304400154003</v>
       </c>
       <c r="BM64" s="11" t="s">
@@ -14021,8 +15344,30 @@
         <f t="shared" si="26"/>
         <v>-0.27171159083242769</v>
       </c>
+      <c r="CC64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD64" s="11"/>
+      <c r="CE64" s="10">
+        <v>371</v>
+      </c>
+      <c r="CF64" s="9">
+        <v>2949710.95238011</v>
+      </c>
+      <c r="CG64" s="29">
+        <f t="shared" si="27"/>
+        <v>73</v>
+      </c>
+      <c r="CH64" s="30">
+        <f t="shared" si="28"/>
+        <v>908836.66666653985</v>
+      </c>
+      <c r="CI64" s="31">
+        <f t="shared" si="29"/>
+        <v>0.44531731965488247</v>
+      </c>
     </row>
-    <row r="65" spans="1:79" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="65" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>0</v>
       </c>
@@ -14047,15 +15392,15 @@
         <v>24485272.857136972</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>19</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-3955111.4285718128</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.13906673654052015</v>
       </c>
       <c r="Q65" s="5" t="s">
@@ -14179,15 +15524,15 @@
         <v>35040738.095232792</v>
       </c>
       <c r="BI65" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>369</v>
       </c>
       <c r="BJ65" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4376254.2857142128</v>
       </c>
       <c r="BK65" s="32">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.14271410250694574</v>
       </c>
       <c r="BM65" s="5" t="s">
@@ -14233,6 +15578,28 @@
       <c r="CA65" s="32">
         <f t="shared" si="26"/>
         <v>0.10416048722522042</v>
+      </c>
+      <c r="CC65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD65" s="5"/>
+      <c r="CE65" s="4">
+        <v>3003</v>
+      </c>
+      <c r="CF65" s="3">
+        <v>29198356.666661449</v>
+      </c>
+      <c r="CG65" s="7">
+        <f t="shared" si="27"/>
+        <v>211</v>
+      </c>
+      <c r="CH65" s="6">
+        <f t="shared" si="28"/>
+        <v>655182.38095201179</v>
+      </c>
+      <c r="CI65" s="32">
+        <f t="shared" si="29"/>
+        <v>2.2954082625632796E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14242,7 +15609,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="94" operator="containsText" id="{84E91190-11E8-AE4A-9A8E-E0B241655290}">
+          <x14:cfRule type="containsText" priority="95" operator="containsText" id="{84E91190-11E8-AE4A-9A8E-E0B241655290}">
             <xm:f>NOT(ISERROR(SEARCH("-",E7)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -14254,7 +15621,7 @@
           <xm:sqref>E7:G65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{60840A7F-E021-4B40-B286-D13634467BA2}">
+          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{60840A7F-E021-4B40-B286-D13634467BA2}">
             <xm:f>NOT(ISERROR(SEARCH("-",M5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -14266,7 +15633,7 @@
           <xm:sqref>M5:O65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{96F4512B-498A-3E44-B11A-3104E93335EF}">
+          <x14:cfRule type="containsText" priority="51" operator="containsText" id="{96F4512B-498A-3E44-B11A-3104E93335EF}">
             <xm:f>NOT(ISERROR(SEARCH("-",U5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -14278,7 +15645,7 @@
           <xm:sqref>U5:W65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{59A196DB-3B52-FC49-B067-A760A3E265FD}">
+          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{59A196DB-3B52-FC49-B067-A760A3E265FD}">
             <xm:f>NOT(ISERROR(SEARCH("-",AC5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -14290,7 +15657,7 @@
           <xm:sqref>AC5:AE65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{CBEC2621-80C7-C843-831D-784A61EBAE2F}">
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{CBEC2621-80C7-C843-831D-784A61EBAE2F}">
             <xm:f>NOT(ISERROR(SEARCH("-",AK5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -14302,7 +15669,7 @@
           <xm:sqref>AK5:AM65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{D62FF824-945D-FB42-AE3E-9595C55730D7}">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{D62FF824-945D-FB42-AE3E-9595C55730D7}">
             <xm:f>NOT(ISERROR(SEARCH("-",AS5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -14314,7 +15681,7 @@
           <xm:sqref>AS5:AU65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{5770E50C-855E-B144-A816-CD9AC490993E}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{5770E50C-855E-B144-A816-CD9AC490993E}">
             <xm:f>NOT(ISERROR(SEARCH("-",BA5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -14326,7 +15693,7 @@
           <xm:sqref>BA5:BC65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{6AB50C64-405B-B04E-92D0-54759F295C03}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{6AB50C64-405B-B04E-92D0-54759F295C03}">
             <xm:f>NOT(ISERROR(SEARCH("-",BI5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -14338,7 +15705,7 @@
           <xm:sqref>BI5:BK65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{C8A3EFC3-B895-0845-A11B-C21B6413863E}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{C8A3EFC3-B895-0845-A11B-C21B6413863E}">
             <xm:f>NOT(ISERROR(SEARCH("-",BQ5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -14350,7 +15717,7 @@
           <xm:sqref>BQ5:BS65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{F92DB01E-9288-5849-81E4-35B4E2C95774}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{F92DB01E-9288-5849-81E4-35B4E2C95774}">
             <xm:f>NOT(ISERROR(SEARCH("-",BY5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -14361,6 +15728,18 @@
           </x14:cfRule>
           <xm:sqref>BY5:CA65</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{DDBF6E41-C389-2344-92BB-6A5E3B3BC008}">
+            <xm:f>NOT(ISERROR(SEARCH("-",CG5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>CG5:CI65</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D03A71-B0B2-DB45-9A8B-5C21C3AB1CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ACA21D-BF43-6F43-89C5-E62982A8E9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11160" yWindow="8280" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
@@ -1058,9 +1058,9 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CK51" sqref="CK51"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CC52" sqref="CC52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1940,10 +1940,13 @@
       <c r="CD6" s="35" t="s">
         <v>33</v>
       </c>
+      <c r="CE6" s="17">
+        <v>47</v>
+      </c>
       <c r="CF6" s="36"/>
       <c r="CG6" s="12">
         <f t="shared" si="27"/>
-        <v>-27</v>
+        <v>20</v>
       </c>
       <c r="CH6" s="14">
         <f t="shared" si="28"/>
@@ -4726,11 +4729,13 @@
       <c r="CD18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CE18" s="17"/>
+      <c r="CE18" s="17">
+        <v>27</v>
+      </c>
       <c r="CF18" s="36"/>
       <c r="CG18" s="12">
         <f t="shared" si="27"/>
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="CH18" s="14">
         <f t="shared" si="28"/>
@@ -7508,11 +7513,13 @@
       <c r="CD30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CE30" s="17"/>
+      <c r="CE30" s="17">
+        <v>4</v>
+      </c>
       <c r="CF30" s="36"/>
       <c r="CG30" s="12">
         <f t="shared" si="27"/>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="CH30" s="14">
         <f t="shared" si="28"/>
@@ -10285,11 +10292,13 @@
       <c r="CD42" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CE42" s="17"/>
+      <c r="CE42" s="17">
+        <v>11</v>
+      </c>
       <c r="CF42" s="36"/>
       <c r="CG42" s="12">
         <f t="shared" si="27"/>
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="CH42" s="14">
         <f t="shared" si="28"/>
@@ -13013,7 +13022,9 @@
       <c r="BV54" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="BW54" s="17"/>
+      <c r="BW54" s="17">
+        <v>0</v>
+      </c>
       <c r="BX54" s="36"/>
       <c r="BY54" s="12">
         <f t="shared" si="24"/>
@@ -13031,11 +13042,13 @@
       <c r="CD54" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CE54" s="17"/>
+      <c r="CE54" s="17">
+        <v>11</v>
+      </c>
       <c r="CF54" s="36"/>
       <c r="CG54" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CH54" s="14">
         <f t="shared" si="28"/>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ACA21D-BF43-6F43-89C5-E62982A8E9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E294B8-E65A-B442-B694-8FB4DF2CC58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="8280" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
+    <workbookView xWindow="11840" yWindow="1880" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
   <sheets>
     <sheet name="26Q1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="49">
   <si>
     <t>總計</t>
   </si>
@@ -309,6 +309,14 @@
   </si>
   <si>
     <t>12/07~12/13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26Q1W12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/14~12/20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +671,12 @@
     <cellStyle name="一般 2" xfId="2" xr:uid="{0CB5398D-811F-454E-A670-53B654D1D081}"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1056,11 +1069,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B745F6-4B2F-7944-A1EC-E7E5896AE27B}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CI65"/>
+  <dimension ref="A1:CQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CC52" sqref="CC52"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CM12" sqref="CM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1122,9 +1135,11 @@
     <col min="76" max="76" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="5" customWidth="1"/>
     <col min="84" max="84" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="5" customWidth="1"/>
+    <col min="92" max="92" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="26" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:95" s="26" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
@@ -1172,8 +1187,11 @@
       <c r="CC1" s="28" t="s">
         <v>45</v>
       </c>
+      <c r="CK1" s="28" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:87" s="22" customFormat="1" ht="18">
+    <row r="2" spans="1:95" s="22" customFormat="1" ht="18">
       <c r="A2" s="25" t="s">
         <v>44</v>
       </c>
@@ -1245,8 +1263,16 @@
       <c r="CG2" s="23"/>
       <c r="CH2" s="23"/>
       <c r="CI2" s="23"/>
+      <c r="CK2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL2" s="23"/>
+      <c r="CN2" s="23"/>
+      <c r="CO2" s="23"/>
+      <c r="CP2" s="23"/>
+      <c r="CQ2" s="23"/>
     </row>
-    <row r="3" spans="1:87" s="22" customFormat="1" ht="28" customHeight="1">
+    <row r="3" spans="1:95" s="22" customFormat="1" ht="28" customHeight="1">
       <c r="I3" s="34" t="s">
         <v>29</v>
       </c>
@@ -1266,7 +1292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:87" s="17" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:95" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>18</v>
       </c>
@@ -1498,8 +1524,29 @@
       <c r="CI4" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="CK4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="CL4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="CM4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="CN4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ4" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:87" s="42" customFormat="1" ht="22" customHeight="1">
+    <row r="5" spans="1:95" s="42" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="16">
         <v>75</v>
       </c>
@@ -1743,8 +1790,29 @@
         <f t="shared" ref="CI5:CI65" si="29">(CF5-BX5)/BX5</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="CJ5" s="41"/>
+      <c r="CK5" s="16">
+        <v>75</v>
+      </c>
+      <c r="CL5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM5" s="17"/>
+      <c r="CN5" s="36"/>
+      <c r="CO5" s="12">
+        <f t="shared" ref="CO5:CO65" si="30">CM5-CE5</f>
+        <v>-8335</v>
+      </c>
+      <c r="CP5" s="14">
+        <f t="shared" ref="CP5:CP65" si="31">CN5-CF5</f>
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="13" t="e">
+        <f t="shared" ref="CQ5:CQ65" si="32">(CN5-CF5)/CF5</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="1:87" s="17" customFormat="1" ht="22" customHeight="1">
+    <row r="6" spans="1:95" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="35" t="s">
         <v>33</v>
@@ -1765,15 +1833,15 @@
       </c>
       <c r="L6" s="36"/>
       <c r="M6" s="12">
-        <f t="shared" ref="M6" si="30">K6-C6</f>
+        <f t="shared" ref="M6" si="33">K6-C6</f>
         <v>3</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" ref="N6" si="31">L6-D6</f>
+        <f t="shared" ref="N6" si="34">L6-D6</f>
         <v>0</v>
       </c>
       <c r="O6" s="13" t="e">
-        <f t="shared" ref="O6" si="32">(L6-D6)/D6</f>
+        <f t="shared" ref="O6" si="35">(L6-D6)/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q6" s="16"/>
@@ -1956,8 +2024,25 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN6" s="36"/>
+      <c r="CO6" s="12">
+        <f t="shared" si="30"/>
+        <v>-47</v>
+      </c>
+      <c r="CP6" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="7" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -1981,15 +2066,15 @@
         <v>317130.47618950985</v>
       </c>
       <c r="M7" s="12">
-        <f t="shared" ref="M7:M42" si="33">K7-C7</f>
+        <f t="shared" ref="M7:M42" si="36">K7-C7</f>
         <v>15</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" ref="N7:N42" si="34">L7-D7</f>
+        <f t="shared" ref="N7:N42" si="37">L7-D7</f>
         <v>34120.952380939736</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" ref="O7:O42" si="35">(L7-D7)/D7</f>
+        <f t="shared" ref="O7:O42" si="38">(L7-D7)/D7</f>
         <v>0.12056467896119079</v>
       </c>
       <c r="Q7" s="16"/>
@@ -2113,15 +2198,15 @@
         <v>261304.76190385997</v>
       </c>
       <c r="BI7" s="12">
-        <f t="shared" ref="BI7:BI65" si="36">BG7-AY7</f>
+        <f t="shared" ref="BI7:BI65" si="39">BG7-AY7</f>
         <v>-24</v>
       </c>
       <c r="BJ7" s="14">
-        <f t="shared" ref="BJ7:BJ65" si="37">BH7-AZ7</f>
+        <f t="shared" ref="BJ7:BJ65" si="40">BH7-AZ7</f>
         <v>-51955.238095139735</v>
       </c>
       <c r="BK7" s="13">
-        <f t="shared" ref="BK7:BK65" si="38">(BH7-AZ7)/AZ7</f>
+        <f t="shared" ref="BK7:BK65" si="41">(BH7-AZ7)/AZ7</f>
         <v>-0.16585340642056323</v>
       </c>
       <c r="BM7" s="16"/>
@@ -2190,8 +2275,30 @@
         <f t="shared" si="29"/>
         <v>5.7408244713873242E-2</v>
       </c>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM7" s="12">
+        <v>233</v>
+      </c>
+      <c r="CN7" s="14">
+        <v>248118.09523729995</v>
+      </c>
+      <c r="CO7" s="12">
+        <f t="shared" si="30"/>
+        <v>-44</v>
+      </c>
+      <c r="CP7" s="14">
+        <f t="shared" si="31"/>
+        <v>-34746.666666490113</v>
+      </c>
+      <c r="CQ7" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.12283844206196455</v>
+      </c>
     </row>
-    <row r="8" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="8" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
@@ -2215,15 +2322,15 @@
         <v>421600.95238075999</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-121</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-41953.333333299961</v>
       </c>
       <c r="O8" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-9.0503603625786702E-2</v>
       </c>
       <c r="Q8" s="16"/>
@@ -2347,15 +2454,15 @@
         <v>416720.95238074992</v>
       </c>
       <c r="BI8" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>23</v>
       </c>
       <c r="BJ8" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>70825.714285709953</v>
       </c>
       <c r="BK8" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.20476059362878396</v>
       </c>
       <c r="BM8" s="16"/>
@@ -2424,8 +2531,30 @@
         <f t="shared" si="29"/>
         <v>0.14640607584465443</v>
       </c>
+      <c r="CK8" s="16"/>
+      <c r="CL8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM8" s="12">
+        <v>244</v>
+      </c>
+      <c r="CN8" s="14">
+        <v>313939.04761885991</v>
+      </c>
+      <c r="CO8" s="12">
+        <f t="shared" si="30"/>
+        <v>-75</v>
+      </c>
+      <c r="CP8" s="14">
+        <f t="shared" si="31"/>
+        <v>-107272.38095239998</v>
+      </c>
+      <c r="CQ8" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.25467585558223238</v>
+      </c>
     </row>
-    <row r="9" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="9" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="15" t="s">
         <v>8</v>
@@ -2449,15 +2578,15 @@
         <v>536015.23809521995</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>23</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>146310.47619046993</v>
       </c>
       <c r="O9" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.3754392824849046</v>
       </c>
       <c r="Q9" s="16"/>
@@ -2581,15 +2710,15 @@
         <v>1352394.2857142598</v>
       </c>
       <c r="BI9" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>148</v>
       </c>
       <c r="BJ9" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1021451.4285714298</v>
       </c>
       <c r="BK9" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>3.0864888198224096</v>
       </c>
       <c r="BM9" s="16"/>
@@ -2658,8 +2787,30 @@
         <f t="shared" si="29"/>
         <v>0.15151254794721439</v>
       </c>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM9" s="12">
+        <v>119</v>
+      </c>
+      <c r="CN9" s="14">
+        <v>793152.38095235999</v>
+      </c>
+      <c r="CO9" s="12">
+        <f t="shared" si="30"/>
+        <v>-22</v>
+      </c>
+      <c r="CP9" s="14">
+        <f t="shared" si="31"/>
+        <v>-176933.33333334001</v>
+      </c>
+      <c r="CQ9" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.18238938139978769</v>
+      </c>
     </row>
-    <row r="10" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="15" t="s">
         <v>7</v>
@@ -2683,15 +2834,15 @@
         <v>2351999.9999997998</v>
       </c>
       <c r="M10" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>46</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>834666.66666666977</v>
       </c>
       <c r="O10" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.55008787346229016</v>
       </c>
       <c r="Q10" s="16"/>
@@ -2815,15 +2966,15 @@
         <v>784666.66666658001</v>
       </c>
       <c r="BI10" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-18</v>
       </c>
       <c r="BJ10" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-379238.09523808013</v>
       </c>
       <c r="BK10" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.32583258325834136</v>
       </c>
       <c r="BM10" s="16"/>
@@ -2892,8 +3043,30 @@
         <f t="shared" si="29"/>
         <v>-0.17295333892144957</v>
       </c>
+      <c r="CK10" s="16"/>
+      <c r="CL10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM10" s="12">
+        <v>78</v>
+      </c>
+      <c r="CN10" s="14">
+        <v>1084952.38095229</v>
+      </c>
+      <c r="CO10" s="12">
+        <f t="shared" si="30"/>
+        <v>38</v>
+      </c>
+      <c r="CP10" s="14">
+        <f t="shared" si="31"/>
+        <v>521142.85714282014</v>
+      </c>
+      <c r="CQ10" s="13">
+        <f t="shared" si="32"/>
+        <v>0.92432432432434708</v>
+      </c>
     </row>
-    <row r="11" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="11" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="15" t="s">
         <v>6</v>
@@ -2917,15 +3090,15 @@
         <v>34857.142857129998</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>11999.999999989999</v>
       </c>
       <c r="O11" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.5249999999996281</v>
       </c>
       <c r="Q11" s="16"/>
@@ -3049,15 +3222,15 @@
         <v>2857.1428571400002</v>
       </c>
       <c r="BI11" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-2</v>
       </c>
       <c r="BJ11" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-5714.2857142800012</v>
       </c>
       <c r="BK11" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.66666666666666674</v>
       </c>
       <c r="BM11" s="16"/>
@@ -3126,8 +3299,30 @@
         <f t="shared" si="29"/>
         <v>-1</v>
       </c>
+      <c r="CK11" s="16"/>
+      <c r="CL11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM11" s="12">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="14">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CP11" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="12" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="12" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="15" t="s">
         <v>5</v>
@@ -3151,15 +3346,15 @@
         <v>27320</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-4</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-32060</v>
       </c>
       <c r="O12" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.53991242842707987</v>
       </c>
       <c r="Q12" s="16"/>
@@ -3283,15 +3478,15 @@
         <v>56600</v>
       </c>
       <c r="BI12" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-5</v>
       </c>
       <c r="BJ12" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-13850</v>
       </c>
       <c r="BK12" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.19659332860184528</v>
       </c>
       <c r="BM12" s="16"/>
@@ -3360,8 +3555,30 @@
         <f t="shared" si="29"/>
         <v>0.32851874615857407</v>
       </c>
+      <c r="CK12" s="16"/>
+      <c r="CL12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM12" s="12">
+        <v>7</v>
+      </c>
+      <c r="CN12" s="14">
+        <v>32030</v>
+      </c>
+      <c r="CO12" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CP12" s="14">
+        <f t="shared" si="31"/>
+        <v>-11200</v>
+      </c>
+      <c r="CQ12" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.2590793430488087</v>
+      </c>
     </row>
-    <row r="13" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="13" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="15" t="s">
         <v>4</v>
@@ -3385,15 +3602,15 @@
         <v>1833147.61904752</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>36</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1377523.8095237501</v>
       </c>
       <c r="O13" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.0233797723687315</v>
       </c>
       <c r="Q13" s="16"/>
@@ -3517,15 +3734,15 @@
         <v>600719.04761899996</v>
       </c>
       <c r="BI13" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="BJ13" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>21761.904761879938</v>
       </c>
       <c r="BK13" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>3.7588109984248913E-2</v>
       </c>
       <c r="BM13" s="16"/>
@@ -3594,8 +3811,30 @@
         <f t="shared" si="29"/>
         <v>-0.50060236274471037</v>
       </c>
+      <c r="CK13" s="16"/>
+      <c r="CL13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM13" s="12">
+        <v>27</v>
+      </c>
+      <c r="CN13" s="14">
+        <v>1042190.47619042</v>
+      </c>
+      <c r="CO13" s="12">
+        <f t="shared" si="30"/>
+        <v>13</v>
+      </c>
+      <c r="CP13" s="14">
+        <f t="shared" si="31"/>
+        <v>400652.38095237</v>
+      </c>
+      <c r="CQ13" s="13">
+        <f t="shared" si="32"/>
+        <v>0.62451845638832004</v>
+      </c>
     </row>
-    <row r="14" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="14" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="15" t="s">
         <v>3</v>
@@ -3619,15 +3858,15 @@
         <v>1778285.71428558</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>53</v>
       </c>
       <c r="N14" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>948190.47619039996</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.1422670949976934</v>
       </c>
       <c r="Q14" s="16"/>
@@ -3751,15 +3990,15 @@
         <v>683952.38095230004</v>
       </c>
       <c r="BI14" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-4</v>
       </c>
       <c r="BJ14" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-187952.38095238013</v>
       </c>
       <c r="BK14" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.21556526488259709</v>
       </c>
       <c r="BM14" s="16"/>
@@ -3828,8 +4067,30 @@
         <f t="shared" si="29"/>
         <v>-0.17835486422355412</v>
       </c>
+      <c r="CK14" s="16"/>
+      <c r="CL14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM14" s="12">
+        <v>56</v>
+      </c>
+      <c r="CN14" s="14">
+        <v>962571.42857135017</v>
+      </c>
+      <c r="CO14" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CP14" s="14">
+        <f t="shared" si="31"/>
+        <v>-224666.66666665999</v>
+      </c>
+      <c r="CQ14" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.1892347184341488</v>
+      </c>
     </row>
-    <row r="15" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="15" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="15" t="s">
         <v>2</v>
@@ -3853,15 +4114,15 @@
         <v>4514433.3333332296</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-92</v>
       </c>
       <c r="N15" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-4670519.0476190317</v>
       </c>
       <c r="O15" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.50849681673959968</v>
       </c>
       <c r="Q15" s="16"/>
@@ -3985,15 +4246,15 @@
         <v>9620359.047618961</v>
       </c>
       <c r="BI15" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-5</v>
       </c>
       <c r="BJ15" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-163926.66666667908</v>
       </c>
       <c r="BK15" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-1.6754076020831687E-2</v>
       </c>
       <c r="BM15" s="16"/>
@@ -4062,8 +4323,30 @@
         <f t="shared" si="29"/>
         <v>-3.5816945319995311E-2</v>
       </c>
+      <c r="CK15" s="16"/>
+      <c r="CL15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM15" s="12">
+        <v>124</v>
+      </c>
+      <c r="CN15" s="14">
+        <v>4699253.3333332594</v>
+      </c>
+      <c r="CO15" s="12">
+        <f t="shared" si="30"/>
+        <v>-100</v>
+      </c>
+      <c r="CP15" s="14">
+        <f t="shared" si="31"/>
+        <v>-3877531.4285714123</v>
+      </c>
+      <c r="CQ15" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.45209615680157483</v>
+      </c>
     </row>
-    <row r="16" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
@@ -4088,15 +4371,15 @@
         <v>11814790.476188749</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-44</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-1391720.0000001118</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.10538135736229202</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -4220,15 +4503,15 @@
         <v>13779574.285712851</v>
       </c>
       <c r="BI16" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>112</v>
       </c>
       <c r="BJ16" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>311402.38095246069</v>
       </c>
       <c r="BK16" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.3121354787756607E-2</v>
       </c>
       <c r="BM16" s="11" t="s">
@@ -4297,8 +4580,30 @@
         <f t="shared" si="29"/>
         <v>-8.1881746455532825E-2</v>
       </c>
+      <c r="CK16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CL16" s="11"/>
+      <c r="CM16" s="10">
+        <v>888</v>
+      </c>
+      <c r="CN16" s="9">
+        <v>9176207.1428558379</v>
+      </c>
+      <c r="CO16" s="29">
+        <f t="shared" si="30"/>
+        <v>-191</v>
+      </c>
+      <c r="CP16" s="30">
+        <f t="shared" si="31"/>
+        <v>-3511498.0952379629</v>
+      </c>
+      <c r="CQ16" s="31">
+        <f t="shared" si="32"/>
+        <v>-0.27676384573429214</v>
+      </c>
     </row>
-    <row r="17" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="17" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="16">
         <v>76</v>
       </c>
@@ -4323,15 +4628,15 @@
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-958</v>
       </c>
       <c r="N17" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O17" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="16">
@@ -4455,15 +4760,15 @@
       </c>
       <c r="BH17" s="36"/>
       <c r="BI17" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-1227</v>
       </c>
       <c r="BJ17" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BK17" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM17" s="16">
@@ -4532,8 +4837,28 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK17" s="16">
+        <v>76</v>
+      </c>
+      <c r="CL17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM17" s="17"/>
+      <c r="CN17" s="36"/>
+      <c r="CO17" s="12">
+        <f t="shared" si="30"/>
+        <v>-5282</v>
+      </c>
+      <c r="CP17" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="18" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="18" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="35" t="s">
         <v>33</v>
@@ -4554,15 +4879,15 @@
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-6</v>
       </c>
       <c r="N18" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O18" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="16"/>
@@ -4674,15 +4999,15 @@
       </c>
       <c r="BH18" s="36"/>
       <c r="BI18" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>18</v>
       </c>
       <c r="BJ18" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BK18" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM18" s="16"/>
@@ -4745,8 +5070,26 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK18" s="16"/>
+      <c r="CL18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM18" s="17"/>
+      <c r="CN18" s="36"/>
+      <c r="CO18" s="12">
+        <f t="shared" si="30"/>
+        <v>-27</v>
+      </c>
+      <c r="CP18" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ18" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="19" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="19" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="15" t="s">
         <v>10</v>
@@ -4770,15 +5113,15 @@
         <v>228808.57142773012</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" ref="M19:M27" si="39">K19-C19</f>
+        <f t="shared" ref="M19:M27" si="42">K19-C19</f>
         <v>5</v>
       </c>
       <c r="N19" s="14">
-        <f t="shared" ref="N19:N27" si="40">L19-D19</f>
+        <f t="shared" ref="N19:N27" si="43">L19-D19</f>
         <v>16320.952380870236</v>
       </c>
       <c r="O19" s="13">
-        <f t="shared" ref="O19:O27" si="41">(L19-D19)/D19</f>
+        <f t="shared" ref="O19:O27" si="44">(L19-D19)/D19</f>
         <v>7.6808956936314385E-2</v>
       </c>
       <c r="Q19" s="16"/>
@@ -4902,15 +5245,15 @@
         <v>261547.61904664987</v>
       </c>
       <c r="BI19" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>14</v>
       </c>
       <c r="BJ19" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>35514.285714209807</v>
       </c>
       <c r="BK19" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.1571196831485776</v>
       </c>
       <c r="BM19" s="16"/>
@@ -4979,8 +5322,30 @@
         <f t="shared" si="29"/>
         <v>0.22027948135364128</v>
       </c>
+      <c r="CK19" s="16"/>
+      <c r="CL19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM19" s="12">
+        <v>179</v>
+      </c>
+      <c r="CN19" s="14">
+        <v>198775.23809456985</v>
+      </c>
+      <c r="CO19" s="12">
+        <f t="shared" si="30"/>
+        <v>-123</v>
+      </c>
+      <c r="CP19" s="14">
+        <f t="shared" si="31"/>
+        <v>-73344.761904440209</v>
+      </c>
+      <c r="CQ19" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.26953094923087983</v>
+      </c>
     </row>
-    <row r="20" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="15" t="s">
         <v>9</v>
@@ -5004,15 +5369,15 @@
         <v>270610.4761902999</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>16</v>
       </c>
       <c r="N20" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-1189.5238095000386</v>
       </c>
       <c r="O20" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-4.3764672902903388E-3</v>
       </c>
       <c r="Q20" s="16"/>
@@ -5136,15 +5501,15 @@
         <v>352294.28571410995</v>
       </c>
       <c r="BI20" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-25</v>
       </c>
       <c r="BJ20" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>27284.761904729938</v>
       </c>
       <c r="BK20" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>8.3950653460643232E-2</v>
       </c>
       <c r="BM20" s="16"/>
@@ -5213,8 +5578,30 @@
         <f t="shared" si="29"/>
         <v>9.192455594233177E-3</v>
       </c>
+      <c r="CK20" s="16"/>
+      <c r="CL20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM20" s="12">
+        <v>244</v>
+      </c>
+      <c r="CN20" s="14">
+        <v>270966.66666653997</v>
+      </c>
+      <c r="CO20" s="12">
+        <f t="shared" si="30"/>
+        <v>16</v>
+      </c>
+      <c r="CP20" s="14">
+        <f t="shared" si="31"/>
+        <v>8528.5714285799768</v>
+      </c>
+      <c r="CQ20" s="13">
+        <f t="shared" si="32"/>
+        <v>3.2497459718440959E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="15" t="s">
         <v>8</v>
@@ -5238,15 +5625,15 @@
         <v>242700.95238094</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>4253.3333333399787</v>
       </c>
       <c r="O21" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.7837600351509102E-2</v>
       </c>
       <c r="Q21" s="16"/>
@@ -5370,15 +5757,15 @@
         <v>897705.71428569988</v>
       </c>
       <c r="BI21" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>83</v>
       </c>
       <c r="BJ21" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>578200.95238095988</v>
       </c>
       <c r="BK21" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.8096786693694094</v>
       </c>
       <c r="BM21" s="16"/>
@@ -5447,8 +5834,30 @@
         <f t="shared" si="29"/>
         <v>-4.5926475036458395E-3</v>
       </c>
+      <c r="CK21" s="16"/>
+      <c r="CL21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM21" s="12">
+        <v>72</v>
+      </c>
+      <c r="CN21" s="14">
+        <v>495028.57142853999</v>
+      </c>
+      <c r="CO21" s="12">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="CP21" s="14">
+        <f t="shared" si="31"/>
+        <v>49990.476190459973</v>
+      </c>
+      <c r="CQ21" s="13">
+        <f t="shared" si="32"/>
+        <v>0.11232853260284784</v>
+      </c>
     </row>
-    <row r="22" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="22" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="15" t="s">
         <v>7</v>
@@ -5472,15 +5881,15 @@
         <v>859333.33333321998</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-2</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-128857.14285715017</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.1303970701619335</v>
       </c>
       <c r="Q22" s="16"/>
@@ -5604,15 +6013,15 @@
         <v>833999.99999991001</v>
       </c>
       <c r="BI22" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="BJ22" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>159904.76190476993</v>
       </c>
       <c r="BK22" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.23721390223231539</v>
       </c>
       <c r="BM22" s="16"/>
@@ -5681,8 +6090,30 @@
         <f t="shared" si="29"/>
         <v>-0.40300157977885498</v>
       </c>
+      <c r="CK22" s="16"/>
+      <c r="CL22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM22" s="12">
+        <v>30</v>
+      </c>
+      <c r="CN22" s="14">
+        <v>395238.09523803997</v>
+      </c>
+      <c r="CO22" s="12">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="CP22" s="14">
+        <f t="shared" si="31"/>
+        <v>35333.333333329996</v>
+      </c>
+      <c r="CQ22" s="13">
+        <f t="shared" si="32"/>
+        <v>9.8174120137607429E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="23" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="15" t="s">
         <v>6</v>
@@ -5706,15 +6137,15 @@
         <v>14285.714285710001</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-8857.1428571299984</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.38271604938244391</v>
       </c>
       <c r="Q23" s="16"/>
@@ -5833,15 +6264,15 @@
         <v>5714.2857142800003</v>
       </c>
       <c r="BI23" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BJ23" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BK23" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="BM23" s="16"/>
@@ -5910,8 +6341,30 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK23" s="16"/>
+      <c r="CL23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM23" s="12">
+        <v>0</v>
+      </c>
+      <c r="CN23" s="14">
+        <v>0</v>
+      </c>
+      <c r="CO23" s="12">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="CP23" s="14">
+        <f t="shared" si="31"/>
+        <v>-2857.1428571400002</v>
+      </c>
+      <c r="CQ23" s="13">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="24" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="24" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="15" t="s">
         <v>5</v>
@@ -5935,15 +6388,15 @@
         <v>13370</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-2</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-11080</v>
       </c>
       <c r="O24" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.45316973415132922</v>
       </c>
       <c r="Q24" s="16"/>
@@ -6067,15 +6520,15 @@
         <v>55980</v>
       </c>
       <c r="BI24" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="BJ24" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-18590</v>
       </c>
       <c r="BK24" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.24929596352420544</v>
       </c>
       <c r="BM24" s="16"/>
@@ -6144,8 +6597,30 @@
         <f t="shared" si="29"/>
         <v>0.27649948293691828</v>
       </c>
+      <c r="CK24" s="16"/>
+      <c r="CL24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM24" s="12">
+        <v>16</v>
+      </c>
+      <c r="CN24" s="14">
+        <v>90540</v>
+      </c>
+      <c r="CO24" s="12">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="CP24" s="14">
+        <f t="shared" si="31"/>
+        <v>-8210</v>
+      </c>
+      <c r="CQ24" s="13">
+        <f t="shared" si="32"/>
+        <v>-8.3139240506329121E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="25" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="15" t="s">
         <v>4</v>
@@ -6169,15 +6644,15 @@
         <v>375433.33333329996</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-4</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-75333.333333309973</v>
       </c>
       <c r="O25" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.16712267987869434</v>
       </c>
       <c r="Q25" s="16"/>
@@ -6301,15 +6776,15 @@
         <v>572699.04761901998</v>
       </c>
       <c r="BI25" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="BJ25" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>239511.42857142998</v>
       </c>
       <c r="BK25" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.71884852521251685</v>
       </c>
       <c r="BM25" s="16"/>
@@ -6378,8 +6853,30 @@
         <f t="shared" si="29"/>
         <v>0.43042399771960277</v>
       </c>
+      <c r="CK25" s="16"/>
+      <c r="CL25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM25" s="12">
+        <v>11</v>
+      </c>
+      <c r="CN25" s="14">
+        <v>452004.76190473</v>
+      </c>
+      <c r="CO25" s="12">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+      <c r="CP25" s="14">
+        <f t="shared" si="31"/>
+        <v>-126304.76190475002</v>
+      </c>
+      <c r="CQ25" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.21840339248218957</v>
+      </c>
     </row>
-    <row r="26" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="26" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="15" t="s">
         <v>3</v>
@@ -6403,15 +6900,15 @@
         <v>840799.9999998901</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-4</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-72390.476190499961</v>
       </c>
       <c r="O26" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-7.9272044636838013E-2</v>
       </c>
       <c r="Q26" s="16"/>
@@ -6535,15 +7032,15 @@
         <v>594714.28571418999</v>
       </c>
       <c r="BI26" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-9</v>
       </c>
       <c r="BJ26" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-198380.95238094009</v>
       </c>
       <c r="BK26" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.25013509456621491</v>
       </c>
       <c r="BM26" s="16"/>
@@ -6612,8 +7109,30 @@
         <f t="shared" si="29"/>
         <v>-0.1787546641791207</v>
       </c>
+      <c r="CK26" s="16"/>
+      <c r="CL26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM26" s="12">
+        <v>38</v>
+      </c>
+      <c r="CN26" s="14">
+        <v>648285.71428566007</v>
+      </c>
+      <c r="CO26" s="12">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="CP26" s="14">
+        <f t="shared" si="31"/>
+        <v>-22476.190476170043</v>
+      </c>
+      <c r="CQ26" s="13">
+        <f t="shared" si="32"/>
+        <v>-3.3508448104474189E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="27" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="15" t="s">
         <v>2</v>
@@ -6637,15 +7156,15 @@
         <v>1390874.28571424</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-5</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-664649.52380951005</v>
       </c>
       <c r="O27" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.32334800537460301</v>
       </c>
       <c r="Q27" s="16"/>
@@ -6769,15 +7288,15 @@
         <v>7777809.5238094311</v>
       </c>
       <c r="BI27" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>46</v>
       </c>
       <c r="BJ27" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1565619.0476190113</v>
       </c>
       <c r="BK27" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.25202367081621035</v>
       </c>
       <c r="BM27" s="16"/>
@@ -6846,8 +7365,30 @@
         <f t="shared" si="29"/>
         <v>-1.1697887041615522E-2</v>
       </c>
+      <c r="CK27" s="16"/>
+      <c r="CL27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM27" s="12">
+        <v>89</v>
+      </c>
+      <c r="CN27" s="14">
+        <v>3280095.2380951797</v>
+      </c>
+      <c r="CO27" s="12">
+        <f t="shared" si="30"/>
+        <v>-60</v>
+      </c>
+      <c r="CP27" s="14">
+        <f t="shared" si="31"/>
+        <v>-2317030.4761904604</v>
+      </c>
+      <c r="CQ27" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.41396791754679796</v>
+      </c>
     </row>
-    <row r="28" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="28" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
@@ -6872,15 +7413,15 @@
         <v>4236216.6666653296</v>
       </c>
       <c r="M28" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-941782.8571428908</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.18188160366037376</v>
       </c>
       <c r="Q28" s="11" t="s">
@@ -7004,15 +7545,15 @@
         <v>11352464.76190329</v>
       </c>
       <c r="BI28" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>126</v>
       </c>
       <c r="BJ28" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>2389064.28571417</v>
       </c>
       <c r="BK28" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.26653548416815853</v>
       </c>
       <c r="BM28" s="11" t="s">
@@ -7081,8 +7622,30 @@
         <f t="shared" si="29"/>
         <v>-2.4424232103022525E-2</v>
       </c>
+      <c r="CK28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="CL28" s="11"/>
+      <c r="CM28" s="10">
+        <v>679</v>
+      </c>
+      <c r="CN28" s="9">
+        <v>5830934.2857132591</v>
+      </c>
+      <c r="CO28" s="29">
+        <f t="shared" si="30"/>
+        <v>-165</v>
+      </c>
+      <c r="CP28" s="30">
+        <f t="shared" si="31"/>
+        <v>-2456370.9523805911</v>
+      </c>
+      <c r="CQ28" s="31">
+        <f t="shared" si="32"/>
+        <v>-0.29640165069454799</v>
+      </c>
     </row>
-    <row r="29" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="16">
         <v>77</v>
       </c>
@@ -7107,15 +7670,15 @@
       </c>
       <c r="L29" s="38"/>
       <c r="M29" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>685</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O29" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="16">
@@ -7239,15 +7802,15 @@
       </c>
       <c r="BH29" s="36"/>
       <c r="BI29" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-431</v>
       </c>
       <c r="BJ29" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BK29" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM29" s="16">
@@ -7316,8 +7879,28 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK29" s="16">
+        <v>77</v>
+      </c>
+      <c r="CL29" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM29" s="17"/>
+      <c r="CN29" s="36"/>
+      <c r="CO29" s="12">
+        <f t="shared" si="30"/>
+        <v>-4032</v>
+      </c>
+      <c r="CP29" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ29" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="30" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="30" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="35" t="s">
         <v>33</v>
@@ -7338,15 +7921,15 @@
       </c>
       <c r="L30" s="38"/>
       <c r="M30" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-9</v>
       </c>
       <c r="N30" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O30" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="16"/>
@@ -7458,15 +8041,15 @@
       </c>
       <c r="BH30" s="36"/>
       <c r="BI30" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="BJ30" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BK30" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM30" s="16"/>
@@ -7529,8 +8112,26 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK30" s="16"/>
+      <c r="CL30" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM30" s="17"/>
+      <c r="CN30" s="36"/>
+      <c r="CO30" s="12">
+        <f t="shared" si="30"/>
+        <v>-4</v>
+      </c>
+      <c r="CP30" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ30" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="31" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="31" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="15" t="s">
         <v>10</v>
@@ -7554,15 +8155,15 @@
         <v>177112.38095158999</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" ref="M31:M39" si="42">K31-C31</f>
+        <f t="shared" ref="M31:M39" si="45">K31-C31</f>
         <v>50</v>
       </c>
       <c r="N31" s="14">
-        <f t="shared" ref="N31:N39" si="43">L31-D31</f>
+        <f t="shared" ref="N31:N39" si="46">L31-D31</f>
         <v>59494.285713969963</v>
       </c>
       <c r="O31" s="13">
-        <f t="shared" ref="O31:O39" si="44">(L31-D31)/D31</f>
+        <f t="shared" ref="O31:O39" si="47">(L31-D31)/D31</f>
         <v>0.5058259581042831</v>
       </c>
       <c r="Q31" s="16"/>
@@ -7686,15 +8287,15 @@
         <v>143581.90476134996</v>
       </c>
       <c r="BI31" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="BJ31" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12963.809523710006</v>
       </c>
       <c r="BK31" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9.9249721105826166E-2</v>
       </c>
       <c r="BM31" s="16"/>
@@ -7763,8 +8364,30 @@
         <f t="shared" si="29"/>
         <v>0.27495731309426213</v>
       </c>
+      <c r="CK31" s="16"/>
+      <c r="CL31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM31" s="12">
+        <v>123</v>
+      </c>
+      <c r="CN31" s="14">
+        <v>114961.90476143999</v>
+      </c>
+      <c r="CO31" s="12">
+        <f t="shared" si="30"/>
+        <v>-31</v>
+      </c>
+      <c r="CP31" s="14">
+        <f t="shared" si="31"/>
+        <v>-20864.761904630068</v>
+      </c>
+      <c r="CQ31" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.15361314841014317</v>
+      </c>
     </row>
-    <row r="32" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="32" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="15" t="s">
         <v>9</v>
@@ -7788,15 +8411,15 @@
         <v>89939.047618969998</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="N32" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>7165.7142857699801</v>
       </c>
       <c r="O32" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>8.6570324006703295E-2</v>
       </c>
       <c r="Q32" s="16"/>
@@ -7920,15 +8543,15 @@
         <v>128144.76190464999</v>
       </c>
       <c r="BI32" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>19</v>
       </c>
       <c r="BJ32" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>31128.571428589974</v>
       </c>
       <c r="BK32" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.32085955216177392</v>
       </c>
       <c r="BM32" s="16"/>
@@ -7997,8 +8620,30 @@
         <f t="shared" si="29"/>
         <v>0.3483627950286961</v>
       </c>
+      <c r="CK32" s="16"/>
+      <c r="CL32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM32" s="12">
+        <v>98</v>
+      </c>
+      <c r="CN32" s="14">
+        <v>88802.857142770008</v>
+      </c>
+      <c r="CO32" s="12">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="CP32" s="14">
+        <f t="shared" si="31"/>
+        <v>-2221.9047618899785</v>
+      </c>
+      <c r="CQ32" s="13">
+        <f t="shared" si="32"/>
+        <v>-2.4409893697027389E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="33" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="15" t="s">
         <v>8</v>
@@ -8022,15 +8667,15 @@
         <v>211971.42857141001</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>15</v>
       </c>
       <c r="N33" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>110428.57142856001</v>
       </c>
       <c r="O33" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.0875070343274824</v>
       </c>
       <c r="Q33" s="16"/>
@@ -8154,15 +8799,15 @@
         <v>209704.76190474999</v>
       </c>
       <c r="BI33" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>19</v>
       </c>
       <c r="BJ33" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>151247.61904761998</v>
       </c>
       <c r="BK33" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.587324861518995</v>
       </c>
       <c r="BM33" s="16"/>
@@ -8231,8 +8876,30 @@
         <f t="shared" si="29"/>
         <v>0.62000696969501479</v>
       </c>
+      <c r="CK33" s="16"/>
+      <c r="CL33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM33" s="12">
+        <v>28</v>
+      </c>
+      <c r="CN33" s="14">
+        <v>172114.28571426999</v>
+      </c>
+      <c r="CO33" s="12">
+        <f t="shared" si="30"/>
+        <v>-9</v>
+      </c>
+      <c r="CP33" s="14">
+        <f t="shared" si="31"/>
+        <v>-62535.238095239998</v>
+      </c>
+      <c r="CQ33" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.26650485830947823</v>
+      </c>
     </row>
-    <row r="34" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="34" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="15" t="s">
         <v>7</v>
@@ -8256,15 +8923,15 @@
         <v>513999.99999994005</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="N34" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>194190.47619048005</v>
       </c>
       <c r="O34" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.6072066706374174</v>
       </c>
       <c r="Q34" s="16"/>
@@ -8388,15 +9055,15 @@
         <v>256857.14285710003</v>
       </c>
       <c r="BI34" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-5</v>
       </c>
       <c r="BJ34" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-121428.57142856999</v>
       </c>
       <c r="BK34" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.32099697885199752</v>
       </c>
       <c r="BM34" s="16"/>
@@ -8465,8 +9132,30 @@
         <f t="shared" si="29"/>
         <v>-0.13675213675215675</v>
       </c>
+      <c r="CK34" s="16"/>
+      <c r="CL34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM34" s="12">
+        <v>16</v>
+      </c>
+      <c r="CN34" s="14">
+        <v>207999.99999997005</v>
+      </c>
+      <c r="CO34" s="12">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="CP34" s="14">
+        <f t="shared" si="31"/>
+        <v>44476.190476200049</v>
+      </c>
+      <c r="CQ34" s="13">
+        <f t="shared" si="32"/>
+        <v>0.27198602213174922</v>
+      </c>
     </row>
-    <row r="35" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="35" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="15" t="s">
         <v>6</v>
@@ -8490,15 +9179,15 @@
         <v>0</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-6</v>
       </c>
       <c r="N35" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-17551.428571409997</v>
       </c>
       <c r="O35" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-1</v>
       </c>
       <c r="Q35" s="16"/>
@@ -8617,15 +9306,15 @@
         <v>4713.3333333299997</v>
       </c>
       <c r="BI35" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BJ35" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1856.1904761899996</v>
       </c>
       <c r="BK35" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.64966666666714945</v>
       </c>
       <c r="BM35" s="16"/>
@@ -8694,8 +9383,30 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK35" s="16"/>
+      <c r="CL35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM35" s="12">
+        <v>0</v>
+      </c>
+      <c r="CN35" s="14">
+        <v>0</v>
+      </c>
+      <c r="CO35" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CP35" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ35" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="36" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="16"/>
       <c r="B36" s="15" t="s">
         <v>5</v>
@@ -8719,15 +9430,15 @@
         <v>33040</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="N36" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>23980</v>
       </c>
       <c r="O36" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2.6467991169977925</v>
       </c>
       <c r="Q36" s="16"/>
@@ -8851,15 +9562,15 @@
         <v>19750</v>
       </c>
       <c r="BI36" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="BJ36" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>13360</v>
       </c>
       <c r="BK36" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.0907668231611893</v>
       </c>
       <c r="BM36" s="16"/>
@@ -8928,8 +9639,30 @@
         <f t="shared" si="29"/>
         <v>-0.71343963553530754</v>
       </c>
+      <c r="CK36" s="16"/>
+      <c r="CL36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM36" s="12">
+        <v>3</v>
+      </c>
+      <c r="CN36" s="14">
+        <v>17570</v>
+      </c>
+      <c r="CO36" s="12">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="CP36" s="14">
+        <f t="shared" si="31"/>
+        <v>11280</v>
+      </c>
+      <c r="CQ36" s="13">
+        <f t="shared" si="32"/>
+        <v>1.7933227344992051</v>
+      </c>
     </row>
-    <row r="37" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="37" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="15" t="s">
         <v>4</v>
@@ -8953,15 +9686,15 @@
         <v>168163.80952380001</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="N37" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>8449.5238095299865</v>
       </c>
       <c r="O37" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>5.2903995229620498E-2</v>
       </c>
       <c r="Q37" s="16"/>
@@ -9080,15 +9813,15 @@
         <v>31333.33333333</v>
       </c>
       <c r="BI37" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3333.3333333299997</v>
       </c>
       <c r="BK37" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.1190476190475</v>
       </c>
       <c r="BM37" s="16"/>
@@ -9157,8 +9890,30 @@
         <f t="shared" si="29"/>
         <v>-0.3619758682754724</v>
       </c>
+      <c r="CK37" s="16"/>
+      <c r="CL37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM37" s="12">
+        <v>4</v>
+      </c>
+      <c r="CN37" s="14">
+        <v>149687.61904759999</v>
+      </c>
+      <c r="CO37" s="12">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="CP37" s="14">
+        <f t="shared" si="31"/>
+        <v>85880.952380939998</v>
+      </c>
+      <c r="CQ37" s="13">
+        <f t="shared" si="32"/>
+        <v>1.3459557890651286</v>
+      </c>
     </row>
-    <row r="38" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="38" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -9182,15 +9937,15 @@
         <v>224190.47619045002</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N38" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>45666.666666680016</v>
       </c>
       <c r="O38" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.25580154707935254</v>
       </c>
       <c r="Q38" s="16"/>
@@ -9314,15 +10069,15 @@
         <v>280428.57142852998</v>
       </c>
       <c r="BI38" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-2</v>
       </c>
       <c r="BJ38" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-1285.7142856900464</v>
       </c>
       <c r="BK38" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-4.5638945232415939E-3</v>
       </c>
       <c r="BM38" s="16"/>
@@ -9391,8 +10146,30 @@
         <f t="shared" si="29"/>
         <v>1.8109113453195014</v>
       </c>
+      <c r="CK38" s="16"/>
+      <c r="CL38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM38" s="12">
+        <v>10</v>
+      </c>
+      <c r="CN38" s="14">
+        <v>163809.52380949</v>
+      </c>
+      <c r="CO38" s="12">
+        <f t="shared" si="30"/>
+        <v>-19</v>
+      </c>
+      <c r="CP38" s="14">
+        <f t="shared" si="31"/>
+        <v>-267999.99999998999</v>
+      </c>
+      <c r="CQ38" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.62064402293784304</v>
+      </c>
     </row>
-    <row r="39" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="39" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="15" t="s">
         <v>2</v>
@@ -9416,15 +10193,15 @@
         <v>734112.38095234998</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-39</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-1661411.4285714002</v>
       </c>
       <c r="O39" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.69354828449887229</v>
       </c>
       <c r="Q39" s="16"/>
@@ -9548,15 +10325,15 @@
         <v>2722285.7142856703</v>
       </c>
       <c r="BI39" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>26</v>
       </c>
       <c r="BJ39" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>918476.1904761903</v>
       </c>
       <c r="BK39" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.50918690601901961</v>
       </c>
       <c r="BM39" s="16"/>
@@ -9625,8 +10402,30 @@
         <f t="shared" si="29"/>
         <v>0.15295249371023895</v>
       </c>
+      <c r="CK39" s="16"/>
+      <c r="CL39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM39" s="12">
+        <v>40</v>
+      </c>
+      <c r="CN39" s="14">
+        <v>1495238.09523805</v>
+      </c>
+      <c r="CO39" s="12">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="CP39" s="14">
+        <f t="shared" si="31"/>
+        <v>11333.333333340008</v>
+      </c>
+      <c r="CQ39" s="13">
+        <f t="shared" si="32"/>
+        <v>7.6375072203372215E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="40" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>12</v>
       </c>
@@ -9651,15 +10450,15 @@
         <v>2152529.52380851</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>46</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-1229587.6190478201</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.36355559760694311</v>
       </c>
       <c r="Q40" s="11" t="s">
@@ -9783,15 +10582,15 @@
         <v>3796799.5238087103</v>
       </c>
       <c r="BI40" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>70</v>
       </c>
       <c r="BJ40" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1009651.4285713704</v>
       </c>
       <c r="BK40" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.36225252267601282</v>
       </c>
       <c r="BM40" s="11" t="s">
@@ -9860,8 +10659,30 @@
         <f t="shared" si="29"/>
         <v>0.26157084055059104</v>
       </c>
+      <c r="CK40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL40" s="11"/>
+      <c r="CM40" s="10">
+        <v>322</v>
+      </c>
+      <c r="CN40" s="9">
+        <v>2410184.2857135898</v>
+      </c>
+      <c r="CO40" s="29">
+        <f t="shared" si="30"/>
+        <v>-32</v>
+      </c>
+      <c r="CP40" s="30">
+        <f t="shared" si="31"/>
+        <v>-202451.42857127031</v>
+      </c>
+      <c r="CQ40" s="31">
+        <f t="shared" si="32"/>
+        <v>-7.7489344367584756E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="41" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="16">
         <v>81</v>
       </c>
@@ -9886,15 +10707,15 @@
       </c>
       <c r="L41" s="38"/>
       <c r="M41" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-261</v>
       </c>
       <c r="N41" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O41" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="16">
@@ -10018,15 +10839,15 @@
       </c>
       <c r="BH41" s="36"/>
       <c r="BI41" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-210</v>
       </c>
       <c r="BJ41" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BK41" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM41" s="16">
@@ -10095,8 +10916,28 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK41" s="16">
+        <v>81</v>
+      </c>
+      <c r="CL41" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM41" s="17"/>
+      <c r="CN41" s="36"/>
+      <c r="CO41" s="12">
+        <f t="shared" si="30"/>
+        <v>-1628</v>
+      </c>
+      <c r="CP41" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ41" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="42" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="42" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="35" t="s">
         <v>33</v>
@@ -10117,15 +10958,15 @@
       </c>
       <c r="L42" s="38"/>
       <c r="M42" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-9</v>
       </c>
       <c r="N42" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O42" s="13" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="16"/>
@@ -10237,15 +11078,15 @@
       </c>
       <c r="BH42" s="36"/>
       <c r="BI42" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="BJ42" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BK42" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM42" s="16"/>
@@ -10308,8 +11149,26 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK42" s="16"/>
+      <c r="CL42" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM42" s="17"/>
+      <c r="CN42" s="36"/>
+      <c r="CO42" s="12">
+        <f t="shared" si="30"/>
+        <v>-11</v>
+      </c>
+      <c r="CP42" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ42" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="43" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="43" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="15" t="s">
         <v>10</v>
@@ -10333,15 +11192,15 @@
         <v>140190.47618992999</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" ref="M43:M51" si="45">K43-C43</f>
+        <f t="shared" ref="M43:M51" si="48">K43-C43</f>
         <v>32</v>
       </c>
       <c r="N43" s="14">
-        <f t="shared" ref="N43:N51" si="46">L43-D43</f>
+        <f t="shared" ref="N43:N51" si="49">L43-D43</f>
         <v>36774.285714210011</v>
       </c>
       <c r="O43" s="13">
-        <f t="shared" ref="O43:O51" si="47">(L43-D43)/D43</f>
+        <f t="shared" ref="O43:O51" si="50">(L43-D43)/D43</f>
         <v>0.35559505281567944</v>
       </c>
       <c r="Q43" s="16"/>
@@ -10465,15 +11324,15 @@
         <v>127592.38095183</v>
       </c>
       <c r="BI43" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>14</v>
       </c>
       <c r="BJ43" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1656.1904762000049</v>
       </c>
       <c r="BK43" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.3151028865848499E-2</v>
       </c>
       <c r="BM43" s="16"/>
@@ -10542,8 +11401,30 @@
         <f t="shared" si="29"/>
         <v>0.38072971611664203</v>
       </c>
+      <c r="CK43" s="16"/>
+      <c r="CL43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM43" s="12">
+        <v>102</v>
+      </c>
+      <c r="CN43" s="14">
+        <v>88763.809523439981</v>
+      </c>
+      <c r="CO43" s="12">
+        <f t="shared" si="30"/>
+        <v>-67</v>
+      </c>
+      <c r="CP43" s="14">
+        <f t="shared" si="31"/>
+        <v>-49597.142856989944</v>
+      </c>
+      <c r="CQ43" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.35846199381903843</v>
+      </c>
     </row>
-    <row r="44" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="44" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="15" t="s">
         <v>9</v>
@@ -10567,15 +11448,15 @@
         <v>84724.761904650004</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>26</v>
       </c>
       <c r="N44" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>14286.666666670004</v>
       </c>
       <c r="O44" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.20282585181216936</v>
       </c>
       <c r="Q44" s="16"/>
@@ -10699,15 +11580,15 @@
         <v>58333.333333240007</v>
       </c>
       <c r="BI44" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-20</v>
       </c>
       <c r="BJ44" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-27973.333333309987</v>
       </c>
       <c r="BK44" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.32411555692894872</v>
       </c>
       <c r="BM44" s="16"/>
@@ -10776,8 +11657,30 @@
         <f t="shared" si="29"/>
         <v>-6.1518870851971483E-2</v>
       </c>
+      <c r="CK44" s="16"/>
+      <c r="CL44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM44" s="12">
+        <v>73</v>
+      </c>
+      <c r="CN44" s="14">
+        <v>77722.857142780005</v>
+      </c>
+      <c r="CO44" s="12">
+        <f t="shared" si="30"/>
+        <v>-12</v>
+      </c>
+      <c r="CP44" s="14">
+        <f t="shared" si="31"/>
+        <v>-5802.8571428500145</v>
+      </c>
+      <c r="CQ44" s="13">
+        <f t="shared" si="32"/>
+        <v>-6.9473900253114659E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="45" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="15" t="s">
         <v>8</v>
@@ -10801,15 +11704,15 @@
         <v>91266.666666649995</v>
       </c>
       <c r="M45" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-2866.6666666700039</v>
       </c>
       <c r="O45" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-3.0453257790408039E-2</v>
       </c>
       <c r="Q45" s="16"/>
@@ -10933,15 +11836,15 @@
         <v>204697.14285713001</v>
       </c>
       <c r="BI45" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>19</v>
       </c>
       <c r="BJ45" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>139106.66666665999</v>
       </c>
       <c r="BK45" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.120836358356422</v>
       </c>
       <c r="BM45" s="16"/>
@@ -11010,8 +11913,30 @@
         <f t="shared" si="29"/>
         <v>-0.18344883815735322</v>
       </c>
+      <c r="CK45" s="16"/>
+      <c r="CL45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM45" s="12">
+        <v>20</v>
+      </c>
+      <c r="CN45" s="14">
+        <v>139809.52380950999</v>
+      </c>
+      <c r="CO45" s="12">
+        <f t="shared" si="30"/>
+        <v>-6</v>
+      </c>
+      <c r="CP45" s="14">
+        <f t="shared" si="31"/>
+        <v>-12800</v>
+      </c>
+      <c r="CQ45" s="13">
+        <f t="shared" si="32"/>
+        <v>-8.387418871693221E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="46" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="15" t="s">
         <v>7</v>
@@ -11035,15 +11960,15 @@
         <v>300476.19047614001</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>12</v>
       </c>
       <c r="N46" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>133142.85714283999</v>
       </c>
       <c r="O46" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.79567444507689145</v>
       </c>
       <c r="Q46" s="16"/>
@@ -11167,15 +12092,15 @@
         <v>74666.666666659992</v>
       </c>
       <c r="BI46" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-4</v>
       </c>
       <c r="BJ46" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-36761.90476188001</v>
       </c>
       <c r="BK46" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.32991452991440084</v>
       </c>
       <c r="BM46" s="16"/>
@@ -11244,8 +12169,30 @@
         <f t="shared" si="29"/>
         <v>-0.14762242725323352</v>
       </c>
+      <c r="CK46" s="16"/>
+      <c r="CL46" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM46" s="12">
+        <v>16</v>
+      </c>
+      <c r="CN46" s="14">
+        <v>229904.76190471</v>
+      </c>
+      <c r="CO46" s="12">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="CP46" s="14">
+        <f t="shared" si="31"/>
+        <v>115523.80952376999</v>
+      </c>
+      <c r="CQ46" s="13">
+        <f t="shared" si="32"/>
+        <v>1.0099916736050925</v>
+      </c>
     </row>
-    <row r="47" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="47" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="15" t="s">
         <v>6</v>
@@ -11269,15 +12216,15 @@
         <v>0</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="N47" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-2857.1428571400002</v>
       </c>
       <c r="O47" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-1</v>
       </c>
       <c r="Q47" s="16"/>
@@ -11391,15 +12338,15 @@
         <v>0</v>
       </c>
       <c r="BI47" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="BJ47" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-2857.1428571400002</v>
       </c>
       <c r="BK47" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="BM47" s="16"/>
@@ -11468,8 +12415,30 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK47" s="16"/>
+      <c r="CL47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM47" s="12">
+        <v>0</v>
+      </c>
+      <c r="CN47" s="14">
+        <v>0</v>
+      </c>
+      <c r="CO47" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CP47" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ47" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="48" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="48" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="16"/>
       <c r="B48" s="15" t="s">
         <v>5</v>
@@ -11493,15 +12462,15 @@
         <v>2190</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N48" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-6800</v>
       </c>
       <c r="O48" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.75639599555061177</v>
       </c>
       <c r="Q48" s="16"/>
@@ -11625,15 +12594,15 @@
         <v>4890</v>
       </c>
       <c r="BI48" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-6</v>
       </c>
       <c r="BJ48" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-35540</v>
       </c>
       <c r="BK48" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.8790502102399208</v>
       </c>
       <c r="BM48" s="16"/>
@@ -11702,8 +12671,30 @@
         <f t="shared" si="29"/>
         <v>-0.27796610169491526</v>
       </c>
+      <c r="CK48" s="16"/>
+      <c r="CL48" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM48" s="12">
+        <v>1</v>
+      </c>
+      <c r="CN48" s="14">
+        <v>4890</v>
+      </c>
+      <c r="CO48" s="12">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+      <c r="CP48" s="14">
+        <f t="shared" si="31"/>
+        <v>-14280</v>
+      </c>
+      <c r="CQ48" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.74491392801251954</v>
+      </c>
     </row>
-    <row r="49" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="49" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="15" t="s">
         <v>4</v>
@@ -11727,15 +12718,15 @@
         <v>53290.476190469999</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-2</v>
       </c>
       <c r="N49" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-76190.476190459987</v>
       </c>
       <c r="O49" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.58842999521898287</v>
       </c>
       <c r="Q49" s="16"/>
@@ -11859,15 +12850,15 @@
         <v>117333.33333333</v>
       </c>
       <c r="BI49" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="BJ49" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>53526.666666669997</v>
       </c>
       <c r="BK49" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.83888830843186069</v>
       </c>
       <c r="BM49" s="16"/>
@@ -11936,8 +12927,30 @@
         <f t="shared" si="29"/>
         <v>1.1505376344086022</v>
       </c>
+      <c r="CK49" s="16"/>
+      <c r="CL49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM49" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN49" s="14">
+        <v>95047.619047610002</v>
+      </c>
+      <c r="CO49" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CP49" s="14">
+        <f t="shared" si="31"/>
+        <v>19047.619047610002</v>
+      </c>
+      <c r="CQ49" s="13">
+        <f t="shared" si="32"/>
+        <v>0.25062656641592107</v>
+      </c>
     </row>
-    <row r="50" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="50" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="15" t="s">
         <v>3</v>
@@ -11961,15 +12974,15 @@
         <v>390285.71428562998</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>13</v>
       </c>
       <c r="N50" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>205619.04761898998</v>
       </c>
       <c r="O50" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1.1134605466733918</v>
       </c>
       <c r="Q50" s="16"/>
@@ -12093,15 +13106,15 @@
         <v>143333.33333331</v>
       </c>
       <c r="BI50" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-2</v>
       </c>
       <c r="BJ50" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-40380.952380940027</v>
       </c>
       <c r="BK50" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.21980300673921857</v>
       </c>
       <c r="BM50" s="16"/>
@@ -12170,8 +13183,30 @@
         <f t="shared" si="29"/>
         <v>0.22422874341615578</v>
       </c>
+      <c r="CK50" s="16"/>
+      <c r="CL50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM50" s="12">
+        <v>8</v>
+      </c>
+      <c r="CN50" s="14">
+        <v>129999.99999999002</v>
+      </c>
+      <c r="CO50" s="12">
+        <f t="shared" si="30"/>
+        <v>-7</v>
+      </c>
+      <c r="CP50" s="14">
+        <f t="shared" si="31"/>
+        <v>-179904.76190473998</v>
+      </c>
+      <c r="CQ50" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.58051628764596319</v>
+      </c>
     </row>
-    <row r="51" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="51" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="15" t="s">
         <v>2</v>
@@ -12195,15 +13230,15 @@
         <v>1090714.2857142501</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-6</v>
       </c>
       <c r="N51" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-406999.99999997998</v>
       </c>
       <c r="O51" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.27174742464707802</v>
       </c>
       <c r="Q51" s="16"/>
@@ -12327,15 +13362,15 @@
         <v>2179809.5238094702</v>
       </c>
       <c r="BI51" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="BJ51" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>74761.904761900194</v>
       </c>
       <c r="BK51" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>3.5515540876802712E-2</v>
       </c>
       <c r="BM51" s="16"/>
@@ -12404,8 +13439,30 @@
         <f t="shared" si="29"/>
         <v>0.36768391567156516</v>
       </c>
+      <c r="CK51" s="16"/>
+      <c r="CL51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM51" s="12">
+        <v>36</v>
+      </c>
+      <c r="CN51" s="14">
+        <v>1321333.3333332902</v>
+      </c>
+      <c r="CO51" s="12">
+        <f t="shared" si="30"/>
+        <v>-10</v>
+      </c>
+      <c r="CP51" s="14">
+        <f t="shared" si="31"/>
+        <v>-445714.28571428987</v>
+      </c>
+      <c r="CQ51" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.25223671445511192</v>
+      </c>
     </row>
-    <row r="52" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="52" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>11</v>
       </c>
@@ -12430,15 +13487,15 @@
         <v>2153138.5714277201</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" ref="M52:M65" si="48">K52-C52</f>
+        <f t="shared" ref="M52:M65" si="51">K52-C52</f>
         <v>75</v>
       </c>
       <c r="N52" s="9">
-        <f t="shared" ref="N52:N65" si="49">L52-D52</f>
+        <f t="shared" ref="N52:N65" si="52">L52-D52</f>
         <v>-105891.42857153993</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" ref="O52:O65" si="50">(L52-D52)/D52</f>
+        <f t="shared" ref="O52:O65" si="53">(L52-D52)/D52</f>
         <v>-4.6874733213624703E-2</v>
       </c>
       <c r="Q52" s="11" t="s">
@@ -12562,15 +13619,15 @@
         <v>2910655.7142849704</v>
       </c>
       <c r="BI52" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="BJ52" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>125538.09523816034</v>
       </c>
       <c r="BK52" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>4.5074611707467134E-2</v>
       </c>
       <c r="BM52" s="11" t="s">
@@ -12639,8 +13696,30 @@
         <f t="shared" si="29"/>
         <v>0.25677240565329118</v>
       </c>
+      <c r="CK52" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL52" s="11"/>
+      <c r="CM52" s="10">
+        <v>258</v>
+      </c>
+      <c r="CN52" s="9">
+        <v>2087471.9047613302</v>
+      </c>
+      <c r="CO52" s="29">
+        <f t="shared" si="30"/>
+        <v>-97</v>
+      </c>
+      <c r="CP52" s="30">
+        <f t="shared" si="31"/>
+        <v>-573527.61904748995</v>
+      </c>
+      <c r="CQ52" s="31">
+        <f t="shared" si="32"/>
+        <v>-0.21553089879045581</v>
+      </c>
     </row>
-    <row r="53" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="53" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="16">
         <v>84</v>
       </c>
@@ -12659,15 +13738,15 @@
       </c>
       <c r="L53" s="38"/>
       <c r="M53" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N53" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O53" s="13" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="16">
@@ -12774,15 +13853,15 @@
       <c r="BG53" s="17"/>
       <c r="BH53" s="36"/>
       <c r="BI53" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BJ53" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BK53" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM53" s="16">
@@ -12845,8 +13924,28 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK53" s="16">
+        <v>84</v>
+      </c>
+      <c r="CL53" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM53" s="17"/>
+      <c r="CN53" s="36"/>
+      <c r="CO53" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CP53" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ53" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="54" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="54" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="35" t="s">
         <v>33</v>
@@ -12867,15 +13966,15 @@
       </c>
       <c r="L54" s="38"/>
       <c r="M54" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-4</v>
       </c>
       <c r="N54" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O54" s="13" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="16"/>
@@ -12987,15 +14086,15 @@
       </c>
       <c r="BH54" s="36"/>
       <c r="BI54" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-2</v>
       </c>
       <c r="BJ54" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BK54" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM54" s="16"/>
@@ -13058,8 +14157,26 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK54" s="16"/>
+      <c r="CL54" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM54" s="17"/>
+      <c r="CN54" s="36"/>
+      <c r="CO54" s="12">
+        <f t="shared" si="30"/>
+        <v>-11</v>
+      </c>
+      <c r="CP54" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ54" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="55" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="55" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="15" t="s">
         <v>10</v>
@@ -13083,15 +14200,15 @@
         <v>176664.76190412001</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-18</v>
       </c>
       <c r="N55" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-24420.952380899951</v>
       </c>
       <c r="O55" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-0.12144548640728184</v>
       </c>
       <c r="Q55" s="16"/>
@@ -13215,15 +14332,15 @@
         <v>165906.66666602998</v>
       </c>
       <c r="BI55" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="BJ55" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-72.380952419975074</v>
       </c>
       <c r="BK55" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-4.3608487612462553E-4</v>
       </c>
       <c r="BM55" s="16"/>
@@ -13292,8 +14409,30 @@
         <f t="shared" si="29"/>
         <v>0.43840674137874169</v>
       </c>
+      <c r="CK55" s="16"/>
+      <c r="CL55" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM55" s="12">
+        <v>131</v>
+      </c>
+      <c r="CN55" s="14">
+        <v>112212.38095193</v>
+      </c>
+      <c r="CO55" s="12">
+        <f t="shared" si="30"/>
+        <v>-47</v>
+      </c>
+      <c r="CP55" s="14">
+        <f t="shared" si="31"/>
+        <v>-45478.095237969901</v>
+      </c>
+      <c r="CQ55" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.28840102672530821</v>
+      </c>
     </row>
-    <row r="56" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="56" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A56" s="16"/>
       <c r="B56" s="15" t="s">
         <v>9</v>
@@ -13317,15 +14456,15 @@
         <v>146590.47619036003</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-24</v>
       </c>
       <c r="N56" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-76438.095238119946</v>
       </c>
       <c r="O56" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-0.34272781621000448</v>
       </c>
       <c r="Q56" s="16"/>
@@ -13449,15 +14588,15 @@
         <v>62961.904761820013</v>
       </c>
       <c r="BI56" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="BJ56" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-4819.047619060002</v>
       </c>
       <c r="BK56" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-7.1097372488666641E-2</v>
       </c>
       <c r="BM56" s="16"/>
@@ -13526,8 +14665,30 @@
         <f t="shared" si="29"/>
         <v>0.11925337020391903</v>
       </c>
+      <c r="CK56" s="16"/>
+      <c r="CL56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM56" s="12">
+        <v>90</v>
+      </c>
+      <c r="CN56" s="14">
+        <v>85257.142857049999</v>
+      </c>
+      <c r="CO56" s="12">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+      <c r="CP56" s="14">
+        <f t="shared" si="31"/>
+        <v>-7257.1428571300057</v>
+      </c>
+      <c r="CQ56" s="13">
+        <f t="shared" si="32"/>
+        <v>-7.8443483631822242E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="57" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="15" t="s">
         <v>8</v>
@@ -13551,15 +14712,15 @@
         <v>119809.52380950999</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="N57" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>24522.857142859983</v>
       </c>
       <c r="O57" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.2573587470390849</v>
       </c>
       <c r="Q57" s="16"/>
@@ -13683,15 +14844,15 @@
         <v>308152.38095237</v>
       </c>
       <c r="BI57" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>27</v>
       </c>
       <c r="BJ57" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>194028.57142857002</v>
       </c>
       <c r="BK57" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.7001585579572356</v>
       </c>
       <c r="BM57" s="16"/>
@@ -13760,8 +14921,30 @@
         <f t="shared" si="29"/>
         <v>0.2214195808023422</v>
       </c>
+      <c r="CK57" s="16"/>
+      <c r="CL57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM57" s="12">
+        <v>21</v>
+      </c>
+      <c r="CN57" s="14">
+        <v>132657.14285713999</v>
+      </c>
+      <c r="CO57" s="12">
+        <f t="shared" si="30"/>
+        <v>-10</v>
+      </c>
+      <c r="CP57" s="14">
+        <f t="shared" si="31"/>
+        <v>-79904.761904750019</v>
+      </c>
+      <c r="CQ57" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.37591289932341659</v>
+      </c>
     </row>
-    <row r="58" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="58" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="16"/>
       <c r="B58" s="15" t="s">
         <v>7</v>
@@ -13785,15 +14968,15 @@
         <v>279142.8571428</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-17</v>
       </c>
       <c r="N58" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-169809.52380950004</v>
       </c>
       <c r="O58" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-0.37823504454816964</v>
       </c>
       <c r="Q58" s="16"/>
@@ -13917,15 +15100,15 @@
         <v>237428.57142852998</v>
       </c>
       <c r="BI58" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="BJ58" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>78761.904761919985</v>
       </c>
       <c r="BK58" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.49639855942404276</v>
       </c>
       <c r="BM58" s="16"/>
@@ -13994,8 +15177,30 @@
         <f t="shared" si="29"/>
         <v>0.5202797202798759</v>
       </c>
+      <c r="CK58" s="16"/>
+      <c r="CL58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM58" s="12">
+        <v>16</v>
+      </c>
+      <c r="CN58" s="14">
+        <v>197523.80952376002</v>
+      </c>
+      <c r="CO58" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CP58" s="14">
+        <f t="shared" si="31"/>
+        <v>-9523.8095238099922</v>
+      </c>
+      <c r="CQ58" s="13">
+        <f t="shared" si="32"/>
+        <v>-4.5998160073610211E-2</v>
+      </c>
     </row>
-    <row r="59" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="59" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="15" t="s">
         <v>6</v>
@@ -14019,15 +15224,15 @@
         <v>0</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N59" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O59" s="13" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="16"/>
@@ -14136,15 +15341,15 @@
         <v>2857.1428571400002</v>
       </c>
       <c r="BI59" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="BJ59" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>2857.1428571400002</v>
       </c>
       <c r="BK59" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM59" s="16"/>
@@ -14213,8 +15418,30 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK59" s="16"/>
+      <c r="CL59" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM59" s="12">
+        <v>0</v>
+      </c>
+      <c r="CN59" s="14">
+        <v>0</v>
+      </c>
+      <c r="CO59" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CP59" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CQ59" s="13" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="60" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="60" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="15" t="s">
         <v>5</v>
@@ -14238,15 +15465,15 @@
         <v>144623.80952380001</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="N60" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>129873.80952380001</v>
       </c>
       <c r="O60" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>8.8050040355118657</v>
       </c>
       <c r="Q60" s="16"/>
@@ -14365,15 +15592,15 @@
         <v>7080</v>
       </c>
       <c r="BI60" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="BJ60" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>7080</v>
       </c>
       <c r="BK60" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM60" s="16"/>
@@ -14442,8 +15669,30 @@
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CK60" s="16"/>
+      <c r="CL60" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM60" s="12">
+        <v>1</v>
+      </c>
+      <c r="CN60" s="14">
+        <v>7290</v>
+      </c>
+      <c r="CO60" s="12">
+        <f t="shared" si="30"/>
+        <v>-2</v>
+      </c>
+      <c r="CP60" s="14">
+        <f t="shared" si="31"/>
+        <v>-6580</v>
+      </c>
+      <c r="CQ60" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.47440519105984136</v>
+      </c>
     </row>
-    <row r="61" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="61" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="15" t="s">
         <v>4</v>
@@ -14467,15 +15716,15 @@
         <v>144623.80952380001</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-3</v>
       </c>
       <c r="N61" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-150952.38095236997</v>
       </c>
       <c r="O61" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-0.51070548243140745</v>
       </c>
       <c r="Q61" s="16"/>
@@ -14599,15 +15848,15 @@
         <v>82666.666666659992</v>
       </c>
       <c r="BI61" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="BJ61" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>44666.666666659992</v>
       </c>
       <c r="BK61" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.1754385964910525</v>
       </c>
       <c r="BM61" s="16"/>
@@ -14676,8 +15925,30 @@
         <f t="shared" si="29"/>
         <v>1.6439393939394018</v>
       </c>
+      <c r="CK61" s="16"/>
+      <c r="CL61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM61" s="12">
+        <v>1</v>
+      </c>
+      <c r="CN61" s="14">
+        <v>36100</v>
+      </c>
+      <c r="CO61" s="12">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+      <c r="CP61" s="14">
+        <f t="shared" si="31"/>
+        <v>-96852.380952370004</v>
+      </c>
+      <c r="CQ61" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.72847421203436158</v>
+      </c>
     </row>
-    <row r="62" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="62" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="15" t="s">
         <v>3</v>
@@ -14701,15 +15972,15 @@
         <v>530333.33333328005</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-6</v>
       </c>
       <c r="N62" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-78476.190476179938</v>
       </c>
       <c r="O62" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-0.12890105592490822</v>
       </c>
       <c r="Q62" s="16"/>
@@ -14833,15 +16104,15 @@
         <v>157904.76190473</v>
       </c>
       <c r="BI62" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BJ62" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-43333.333333340008</v>
       </c>
       <c r="BK62" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.2153336488405713</v>
       </c>
       <c r="BM62" s="16"/>
@@ -14910,8 +16181,30 @@
         <f t="shared" si="29"/>
         <v>6.0503570086469907E-2</v>
       </c>
+      <c r="CK62" s="16"/>
+      <c r="CL62" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM62" s="12">
+        <v>10</v>
+      </c>
+      <c r="CN62" s="14">
+        <v>158095.23809520999</v>
+      </c>
+      <c r="CO62" s="12">
+        <f t="shared" si="30"/>
+        <v>-3</v>
+      </c>
+      <c r="CP62" s="14">
+        <f t="shared" si="31"/>
+        <v>-110666.66666665999</v>
+      </c>
+      <c r="CQ62" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.4117647058823814</v>
+      </c>
     </row>
-    <row r="63" spans="1:87" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="63" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="16"/>
       <c r="B63" s="15" t="s">
         <v>2</v>
@@ -14935,15 +16228,15 @@
         <v>2725142.8571427902</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>7</v>
       </c>
       <c r="N63" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>197904.76190476026</v>
       </c>
       <c r="O63" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>7.8308712692193111E-2</v>
       </c>
       <c r="Q63" s="16"/>
@@ -15067,15 +16360,15 @@
         <v>2176285.7142856899</v>
       </c>
       <c r="BI63" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="BJ63" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>261428.57142858999</v>
       </c>
       <c r="BK63" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.13652641002687041</v>
       </c>
       <c r="BM63" s="16"/>
@@ -15144,8 +16437,30 @@
         <f t="shared" si="29"/>
         <v>0.50899113536997276</v>
       </c>
+      <c r="CK63" s="16"/>
+      <c r="CL63" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM63" s="12">
+        <v>28</v>
+      </c>
+      <c r="CN63" s="14">
+        <v>1082803.8095237799</v>
+      </c>
+      <c r="CO63" s="12">
+        <f t="shared" si="30"/>
+        <v>-21</v>
+      </c>
+      <c r="CP63" s="14">
+        <f t="shared" si="31"/>
+        <v>-780279.99999998021</v>
+      </c>
+      <c r="CQ63" s="13">
+        <f t="shared" si="32"/>
+        <v>-0.41881100356909584</v>
+      </c>
     </row>
-    <row r="64" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="64" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>1</v>
       </c>
@@ -15170,15 +16485,15 @@
         <v>4128597.6190466601</v>
       </c>
       <c r="M64" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-60</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-286129.52380944975</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-6.4812504725793335E-2</v>
       </c>
       <c r="Q64" s="11" t="s">
@@ -15302,15 +16617,15 @@
         <v>3201243.8095229696</v>
       </c>
       <c r="BI64" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>55</v>
       </c>
       <c r="BJ64" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>540598.09523805976</v>
       </c>
       <c r="BK64" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.20318304400154003</v>
       </c>
       <c r="BM64" s="11" t="s">
@@ -15379,8 +16694,30 @@
         <f t="shared" si="29"/>
         <v>0.44531731965488247</v>
       </c>
+      <c r="CK64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL64" s="11"/>
+      <c r="CM64" s="10">
+        <v>298</v>
+      </c>
+      <c r="CN64" s="9">
+        <v>1811939.52380887</v>
+      </c>
+      <c r="CO64" s="29">
+        <f t="shared" si="30"/>
+        <v>-73</v>
+      </c>
+      <c r="CP64" s="30">
+        <f t="shared" si="31"/>
+        <v>-1137771.42857124</v>
+      </c>
+      <c r="CQ64" s="31">
+        <f t="shared" si="32"/>
+        <v>-0.38572302403161801</v>
+      </c>
     </row>
-    <row r="65" spans="1:87" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="65" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>0</v>
       </c>
@@ -15405,15 +16742,15 @@
         <v>24485272.857136972</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>19</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-3955111.4285718128</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-0.13906673654052015</v>
       </c>
       <c r="Q65" s="5" t="s">
@@ -15537,15 +16874,15 @@
         <v>35040738.095232792</v>
       </c>
       <c r="BI65" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>369</v>
       </c>
       <c r="BJ65" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4376254.2857142128</v>
       </c>
       <c r="BK65" s="32">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.14271410250694574</v>
       </c>
       <c r="BM65" s="5" t="s">
@@ -15613,16 +16950,39 @@
       <c r="CI65" s="32">
         <f t="shared" si="29"/>
         <v>2.2954082625632796E-2</v>
+      </c>
+      <c r="CK65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL65" s="5"/>
+      <c r="CM65" s="4">
+        <v>2445</v>
+      </c>
+      <c r="CN65" s="3">
+        <v>21316737.142852888</v>
+      </c>
+      <c r="CO65" s="7">
+        <f t="shared" si="30"/>
+        <v>-558</v>
+      </c>
+      <c r="CP65" s="6">
+        <f t="shared" si="31"/>
+        <v>-7881619.5238085613</v>
+      </c>
+      <c r="CQ65" s="32">
+        <f t="shared" si="32"/>
+        <v>-0.26993366831523635</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="95" operator="containsText" id="{84E91190-11E8-AE4A-9A8E-E0B241655290}">
+          <x14:cfRule type="containsText" priority="96" operator="containsText" id="{84E91190-11E8-AE4A-9A8E-E0B241655290}">
             <xm:f>NOT(ISERROR(SEARCH("-",E7)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -15634,7 +16994,7 @@
           <xm:sqref>E7:G65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{60840A7F-E021-4B40-B286-D13634467BA2}">
+          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{60840A7F-E021-4B40-B286-D13634467BA2}">
             <xm:f>NOT(ISERROR(SEARCH("-",M5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -15646,7 +17006,7 @@
           <xm:sqref>M5:O65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="51" operator="containsText" id="{96F4512B-498A-3E44-B11A-3104E93335EF}">
+          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{96F4512B-498A-3E44-B11A-3104E93335EF}">
             <xm:f>NOT(ISERROR(SEARCH("-",U5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -15658,7 +17018,7 @@
           <xm:sqref>U5:W65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{59A196DB-3B52-FC49-B067-A760A3E265FD}">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{59A196DB-3B52-FC49-B067-A760A3E265FD}">
             <xm:f>NOT(ISERROR(SEARCH("-",AC5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -15670,7 +17030,7 @@
           <xm:sqref>AC5:AE65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{CBEC2621-80C7-C843-831D-784A61EBAE2F}">
+          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{CBEC2621-80C7-C843-831D-784A61EBAE2F}">
             <xm:f>NOT(ISERROR(SEARCH("-",AK5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -15682,7 +17042,7 @@
           <xm:sqref>AK5:AM65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{D62FF824-945D-FB42-AE3E-9595C55730D7}">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{D62FF824-945D-FB42-AE3E-9595C55730D7}">
             <xm:f>NOT(ISERROR(SEARCH("-",AS5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -15694,7 +17054,7 @@
           <xm:sqref>AS5:AU65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{5770E50C-855E-B144-A816-CD9AC490993E}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{5770E50C-855E-B144-A816-CD9AC490993E}">
             <xm:f>NOT(ISERROR(SEARCH("-",BA5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -15706,7 +17066,7 @@
           <xm:sqref>BA5:BC65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{6AB50C64-405B-B04E-92D0-54759F295C03}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{6AB50C64-405B-B04E-92D0-54759F295C03}">
             <xm:f>NOT(ISERROR(SEARCH("-",BI5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -15718,7 +17078,7 @@
           <xm:sqref>BI5:BK65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{C8A3EFC3-B895-0845-A11B-C21B6413863E}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{C8A3EFC3-B895-0845-A11B-C21B6413863E}">
             <xm:f>NOT(ISERROR(SEARCH("-",BQ5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -15730,7 +17090,7 @@
           <xm:sqref>BQ5:BS65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{F92DB01E-9288-5849-81E4-35B4E2C95774}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{F92DB01E-9288-5849-81E4-35B4E2C95774}">
             <xm:f>NOT(ISERROR(SEARCH("-",BY5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -15742,7 +17102,7 @@
           <xm:sqref>BY5:CA65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{DDBF6E41-C389-2344-92BB-6A5E3B3BC008}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{DDBF6E41-C389-2344-92BB-6A5E3B3BC008}">
             <xm:f>NOT(ISERROR(SEARCH("-",CG5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -15753,6 +17113,18 @@
           </x14:cfRule>
           <xm:sqref>CG5:CI65</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{00C895F4-D5E3-F04E-93CB-E795A6DC8C2F}">
+            <xm:f>NOT(ISERROR(SEARCH("-",CO5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>CO5:CQ65</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E294B8-E65A-B442-B694-8FB4DF2CC58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DCB825-5482-FE4D-A380-0F734DFE6946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11840" yWindow="1880" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
+    <workbookView xWindow="16280" yWindow="6520" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
   <sheets>
     <sheet name="26Q1" sheetId="2" r:id="rId1"/>
@@ -1071,9 +1071,9 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CM12" sqref="CM12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CS37" sqref="CS37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1797,11 +1797,13 @@
       <c r="CL5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="CM5" s="17"/>
+      <c r="CM5" s="17">
+        <v>6943</v>
+      </c>
       <c r="CN5" s="36"/>
       <c r="CO5" s="12">
         <f t="shared" ref="CO5:CO65" si="30">CM5-CE5</f>
-        <v>-8335</v>
+        <v>-1392</v>
       </c>
       <c r="CP5" s="14">
         <f t="shared" ref="CP5:CP65" si="31">CN5-CF5</f>
@@ -4843,11 +4845,13 @@
       <c r="CL17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="CM17" s="17"/>
+      <c r="CM17" s="17">
+        <v>5136</v>
+      </c>
       <c r="CN17" s="36"/>
       <c r="CO17" s="12">
         <f t="shared" si="30"/>
-        <v>-5282</v>
+        <v>-146</v>
       </c>
       <c r="CP17" s="14">
         <f t="shared" si="31"/>
@@ -7885,11 +7889,13 @@
       <c r="CL29" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="CM29" s="17"/>
+      <c r="CM29" s="17">
+        <v>3376</v>
+      </c>
       <c r="CN29" s="36"/>
       <c r="CO29" s="12">
         <f t="shared" si="30"/>
-        <v>-4032</v>
+        <v>-656</v>
       </c>
       <c r="CP29" s="14">
         <f t="shared" si="31"/>
@@ -10922,11 +10928,13 @@
       <c r="CL41" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="CM41" s="17"/>
+      <c r="CM41" s="17">
+        <v>1455</v>
+      </c>
       <c r="CN41" s="36"/>
       <c r="CO41" s="12">
         <f t="shared" si="30"/>
-        <v>-1628</v>
+        <v>-173</v>
       </c>
       <c r="CP41" s="14">
         <f t="shared" si="31"/>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DCB825-5482-FE4D-A380-0F734DFE6946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD30154-0897-7549-BE6C-C5D4B80EC8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16280" yWindow="6520" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
@@ -1071,9 +1071,9 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS37" sqref="CS37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BO54" sqref="BO54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11102,12 +11102,12 @@
         <v>33</v>
       </c>
       <c r="BO42" s="17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BP42" s="36"/>
       <c r="BQ42" s="12">
         <f t="shared" si="21"/>
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="BR42" s="14">
         <f t="shared" si="22"/>
@@ -11127,7 +11127,7 @@
       <c r="BX42" s="36"/>
       <c r="BY42" s="12">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BZ42" s="14">
         <f t="shared" si="25"/>
@@ -14110,12 +14110,12 @@
         <v>33</v>
       </c>
       <c r="BO54" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BP54" s="36"/>
       <c r="BQ54" s="12">
         <f t="shared" si="21"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="BR54" s="14">
         <f t="shared" si="22"/>
@@ -14135,7 +14135,7 @@
       <c r="BX54" s="36"/>
       <c r="BY54" s="12">
         <f t="shared" si="24"/>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="BZ54" s="14">
         <f t="shared" si="25"/>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD30154-0897-7549-BE6C-C5D4B80EC8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80965C2E-29F8-BB4D-BF8B-1B2F5BD5CD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16280" yWindow="6520" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
@@ -1071,9 +1071,9 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BO54" sqref="BO54"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK69" sqref="AK69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14030,12 +14030,12 @@
         <v>33</v>
       </c>
       <c r="AI54" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ54" s="38"/>
       <c r="AK54" s="12">
         <f t="shared" si="9"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="14">
         <f t="shared" si="10"/>
@@ -14055,7 +14055,7 @@
       <c r="AR54" s="38"/>
       <c r="AS54" s="12">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AT54" s="14">
         <f t="shared" si="13"/>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80965C2E-29F8-BB4D-BF8B-1B2F5BD5CD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF18379-6BE3-2346-8C92-11E4E678482A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="6520" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
+    <workbookView xWindow="440" yWindow="860" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
   <sheets>
     <sheet name="26Q1" sheetId="2" r:id="rId1"/>
@@ -1071,9 +1071,9 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK69" sqref="AK69"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CS53" sqref="CS53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2030,10 +2030,13 @@
       <c r="CL6" s="35" t="s">
         <v>33</v>
       </c>
+      <c r="CM6" s="17">
+        <v>21</v>
+      </c>
       <c r="CN6" s="36"/>
       <c r="CO6" s="12">
         <f t="shared" si="30"/>
-        <v>-47</v>
+        <v>-26</v>
       </c>
       <c r="CP6" s="14">
         <f t="shared" si="31"/>
@@ -5078,11 +5081,13 @@
       <c r="CL18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CM18" s="17"/>
+      <c r="CM18" s="17">
+        <v>17</v>
+      </c>
       <c r="CN18" s="36"/>
       <c r="CO18" s="12">
         <f t="shared" si="30"/>
-        <v>-27</v>
+        <v>-10</v>
       </c>
       <c r="CP18" s="14">
         <f t="shared" si="31"/>
@@ -8122,11 +8127,13 @@
       <c r="CL30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CM30" s="17"/>
+      <c r="CM30" s="17">
+        <v>5</v>
+      </c>
       <c r="CN30" s="36"/>
       <c r="CO30" s="12">
         <f t="shared" si="30"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="CP30" s="14">
         <f t="shared" si="31"/>
@@ -11161,11 +11168,13 @@
       <c r="CL42" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CM42" s="17"/>
+      <c r="CM42" s="17">
+        <v>9</v>
+      </c>
       <c r="CN42" s="36"/>
       <c r="CO42" s="12">
         <f t="shared" si="30"/>
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="CP42" s="14">
         <f t="shared" si="31"/>
@@ -13938,7 +13947,9 @@
       <c r="CL53" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="CM53" s="17"/>
+      <c r="CM53" s="17">
+        <v>0</v>
+      </c>
       <c r="CN53" s="36"/>
       <c r="CO53" s="12">
         <f t="shared" si="30"/>
@@ -14169,11 +14180,13 @@
       <c r="CL54" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CM54" s="17"/>
+      <c r="CM54" s="17">
+        <v>6</v>
+      </c>
       <c r="CN54" s="36"/>
       <c r="CO54" s="12">
         <f t="shared" si="30"/>
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="CP54" s="14">
         <f t="shared" si="31"/>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF18379-6BE3-2346-8C92-11E4E678482A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DC1CC1-DC5D-1849-8287-7467AC205635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="860" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
@@ -1071,9 +1071,9 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CQ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS53" sqref="CS53"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ22" sqref="BQ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5022,12 +5022,12 @@
         <v>33</v>
       </c>
       <c r="BO18" s="17">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BP18" s="36"/>
       <c r="BQ18" s="12">
         <f t="shared" si="21"/>
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="BR18" s="14">
         <f t="shared" si="22"/>
@@ -5047,7 +5047,7 @@
       <c r="BX18" s="36"/>
       <c r="BY18" s="12">
         <f t="shared" si="24"/>
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="BZ18" s="14">
         <f t="shared" si="25"/>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DC1CC1-DC5D-1849-8287-7467AC205635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255689B2-0A3B-FB43-A3FF-A7F6962039AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="860" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
+    <workbookView xWindow="9540" yWindow="700" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
   <sheets>
     <sheet name="26Q1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="51">
   <si>
     <t>總計</t>
   </si>
@@ -317,6 +317,14 @@
   </si>
   <si>
     <t>12/14~12/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26Q1W13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/21~12/27</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +679,12 @@
     <cellStyle name="一般 2" xfId="2" xr:uid="{0CB5398D-811F-454E-A670-53B654D1D081}"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1069,11 +1082,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B745F6-4B2F-7944-A1EC-E7E5896AE27B}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:CQ65"/>
+  <dimension ref="A1:CY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ22" sqref="BQ22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CV41" sqref="CV41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1137,9 +1150,11 @@
     <col min="84" max="84" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="5" customWidth="1"/>
     <col min="92" max="92" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="5" customWidth="1"/>
+    <col min="100" max="100" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="26" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:103" s="26" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
@@ -1190,8 +1205,11 @@
       <c r="CK1" s="28" t="s">
         <v>47</v>
       </c>
+      <c r="CS1" s="28" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:95" s="22" customFormat="1" ht="18">
+    <row r="2" spans="1:103" s="22" customFormat="1" ht="18">
       <c r="A2" s="25" t="s">
         <v>44</v>
       </c>
@@ -1271,8 +1289,16 @@
       <c r="CO2" s="23"/>
       <c r="CP2" s="23"/>
       <c r="CQ2" s="23"/>
+      <c r="CS2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="CT2" s="23"/>
+      <c r="CV2" s="23"/>
+      <c r="CW2" s="23"/>
+      <c r="CX2" s="23"/>
+      <c r="CY2" s="23"/>
     </row>
-    <row r="3" spans="1:95" s="22" customFormat="1" ht="28" customHeight="1">
+    <row r="3" spans="1:103" s="22" customFormat="1" ht="28" customHeight="1">
       <c r="I3" s="34" t="s">
         <v>29</v>
       </c>
@@ -1292,7 +1318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:95" s="17" customFormat="1" ht="22" customHeight="1">
+    <row r="4" spans="1:103" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>18</v>
       </c>
@@ -1545,8 +1571,29 @@
       <c r="CQ4" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="CS4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="CT4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="CU4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="CV4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="CW4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="CX4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="CY4" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:95" s="42" customFormat="1" ht="22" customHeight="1">
+    <row r="5" spans="1:103" s="42" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="16">
         <v>75</v>
       </c>
@@ -1813,8 +1860,31 @@
         <f t="shared" ref="CQ5:CQ65" si="32">(CN5-CF5)/CF5</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="CR5" s="41"/>
+      <c r="CS5" s="16">
+        <v>75</v>
+      </c>
+      <c r="CT5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CU5" s="17">
+        <v>8729</v>
+      </c>
+      <c r="CV5" s="36"/>
+      <c r="CW5" s="12">
+        <f t="shared" ref="CW5:CW65" si="33">CU5-CM5</f>
+        <v>1786</v>
+      </c>
+      <c r="CX5" s="14">
+        <f t="shared" ref="CX5:CX65" si="34">CV5-CN5</f>
+        <v>0</v>
+      </c>
+      <c r="CY5" s="13" t="e">
+        <f t="shared" ref="CY5:CY65" si="35">(CV5-CN5)/CN5</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="1:95" s="17" customFormat="1" ht="22" customHeight="1">
+    <row r="6" spans="1:103" s="17" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="35" t="s">
         <v>33</v>
@@ -1835,15 +1905,15 @@
       </c>
       <c r="L6" s="36"/>
       <c r="M6" s="12">
-        <f t="shared" ref="M6" si="33">K6-C6</f>
+        <f t="shared" ref="M6" si="36">K6-C6</f>
         <v>3</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" ref="N6" si="34">L6-D6</f>
+        <f t="shared" ref="N6" si="37">L6-D6</f>
         <v>0</v>
       </c>
       <c r="O6" s="13" t="e">
-        <f t="shared" ref="O6" si="35">(L6-D6)/D6</f>
+        <f t="shared" ref="O6" si="38">(L6-D6)/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q6" s="16"/>
@@ -2046,8 +2116,25 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV6" s="36"/>
+      <c r="CW6" s="12">
+        <f t="shared" si="33"/>
+        <v>-21</v>
+      </c>
+      <c r="CX6" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY6" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="7" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -2071,15 +2158,15 @@
         <v>317130.47618950985</v>
       </c>
       <c r="M7" s="12">
-        <f t="shared" ref="M7:M42" si="36">K7-C7</f>
+        <f t="shared" ref="M7:M42" si="39">K7-C7</f>
         <v>15</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" ref="N7:N42" si="37">L7-D7</f>
+        <f t="shared" ref="N7:N42" si="40">L7-D7</f>
         <v>34120.952380939736</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" ref="O7:O42" si="38">(L7-D7)/D7</f>
+        <f t="shared" ref="O7:O42" si="41">(L7-D7)/D7</f>
         <v>0.12056467896119079</v>
       </c>
       <c r="Q7" s="16"/>
@@ -2203,15 +2290,15 @@
         <v>261304.76190385997</v>
       </c>
       <c r="BI7" s="12">
-        <f t="shared" ref="BI7:BI65" si="39">BG7-AY7</f>
+        <f t="shared" ref="BI7:BI65" si="42">BG7-AY7</f>
         <v>-24</v>
       </c>
       <c r="BJ7" s="14">
-        <f t="shared" ref="BJ7:BJ65" si="40">BH7-AZ7</f>
+        <f t="shared" ref="BJ7:BJ65" si="43">BH7-AZ7</f>
         <v>-51955.238095139735</v>
       </c>
       <c r="BK7" s="13">
-        <f t="shared" ref="BK7:BK65" si="41">(BH7-AZ7)/AZ7</f>
+        <f t="shared" ref="BK7:BK65" si="44">(BH7-AZ7)/AZ7</f>
         <v>-0.16585340642056323</v>
       </c>
       <c r="BM7" s="16"/>
@@ -2302,8 +2389,30 @@
         <f t="shared" si="32"/>
         <v>-0.12283844206196455</v>
       </c>
+      <c r="CS7" s="16"/>
+      <c r="CT7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CU7" s="12">
+        <v>314</v>
+      </c>
+      <c r="CV7" s="14">
+        <v>358900.95237982011</v>
+      </c>
+      <c r="CW7" s="12">
+        <f t="shared" si="33"/>
+        <v>81</v>
+      </c>
+      <c r="CX7" s="14">
+        <f t="shared" si="34"/>
+        <v>110782.85714252017</v>
+      </c>
+      <c r="CY7" s="13">
+        <f t="shared" si="35"/>
+        <v>0.44649245367036827</v>
+      </c>
     </row>
-    <row r="8" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="8" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
@@ -2327,15 +2436,15 @@
         <v>421600.95238075999</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-121</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-41953.333333299961</v>
       </c>
       <c r="O8" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-9.0503603625786702E-2</v>
       </c>
       <c r="Q8" s="16"/>
@@ -2459,15 +2568,15 @@
         <v>416720.95238074992</v>
       </c>
       <c r="BI8" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>23</v>
       </c>
       <c r="BJ8" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>70825.714285709953</v>
       </c>
       <c r="BK8" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.20476059362878396</v>
       </c>
       <c r="BM8" s="16"/>
@@ -2558,8 +2667,30 @@
         <f t="shared" si="32"/>
         <v>-0.25467585558223238</v>
       </c>
+      <c r="CS8" s="16"/>
+      <c r="CT8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU8" s="12">
+        <v>307</v>
+      </c>
+      <c r="CV8" s="14">
+        <v>388816.19047601987</v>
+      </c>
+      <c r="CW8" s="12">
+        <f t="shared" si="33"/>
+        <v>63</v>
+      </c>
+      <c r="CX8" s="14">
+        <f t="shared" si="34"/>
+        <v>74877.142857159954</v>
+      </c>
+      <c r="CY8" s="13">
+        <f t="shared" si="35"/>
+        <v>0.23850853668915095</v>
+      </c>
     </row>
-    <row r="9" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="9" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="15" t="s">
         <v>8</v>
@@ -2583,15 +2714,15 @@
         <v>536015.23809521995</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>23</v>
       </c>
       <c r="N9" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>146310.47619046993</v>
       </c>
       <c r="O9" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.3754392824849046</v>
       </c>
       <c r="Q9" s="16"/>
@@ -2715,15 +2846,15 @@
         <v>1352394.2857142598</v>
       </c>
       <c r="BI9" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>148</v>
       </c>
       <c r="BJ9" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1021451.4285714298</v>
       </c>
       <c r="BK9" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>3.0864888198224096</v>
       </c>
       <c r="BM9" s="16"/>
@@ -2814,8 +2945,30 @@
         <f t="shared" si="32"/>
         <v>-0.18238938139978769</v>
       </c>
+      <c r="CS9" s="16"/>
+      <c r="CT9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU9" s="12">
+        <v>151</v>
+      </c>
+      <c r="CV9" s="14">
+        <v>1063799.99999997</v>
+      </c>
+      <c r="CW9" s="12">
+        <f t="shared" si="33"/>
+        <v>32</v>
+      </c>
+      <c r="CX9" s="14">
+        <f t="shared" si="34"/>
+        <v>270647.61904760997</v>
+      </c>
+      <c r="CY9" s="13">
+        <f t="shared" si="35"/>
+        <v>0.34123029262376531</v>
+      </c>
     </row>
-    <row r="10" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="15" t="s">
         <v>7</v>
@@ -2839,15 +2992,15 @@
         <v>2351999.9999997998</v>
       </c>
       <c r="M10" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>46</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>834666.66666666977</v>
       </c>
       <c r="O10" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.55008787346229016</v>
       </c>
       <c r="Q10" s="16"/>
@@ -2971,15 +3124,15 @@
         <v>784666.66666658001</v>
       </c>
       <c r="BI10" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-18</v>
       </c>
       <c r="BJ10" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-379238.09523808013</v>
       </c>
       <c r="BK10" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.32583258325834136</v>
       </c>
       <c r="BM10" s="16"/>
@@ -3070,8 +3223,30 @@
         <f t="shared" si="32"/>
         <v>0.92432432432434708</v>
       </c>
+      <c r="CS10" s="16"/>
+      <c r="CT10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU10" s="12">
+        <v>81</v>
+      </c>
+      <c r="CV10" s="14">
+        <v>1156095.2380951401</v>
+      </c>
+      <c r="CW10" s="12">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="CX10" s="14">
+        <f t="shared" si="34"/>
+        <v>71142.857142850058</v>
+      </c>
+      <c r="CY10" s="13">
+        <f t="shared" si="35"/>
+        <v>6.5572331460673122E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="11" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="15" t="s">
         <v>6</v>
@@ -3095,15 +3270,15 @@
         <v>34857.142857129998</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>11999.999999989999</v>
       </c>
       <c r="O11" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.5249999999996281</v>
       </c>
       <c r="Q11" s="16"/>
@@ -3227,15 +3402,15 @@
         <v>2857.1428571400002</v>
       </c>
       <c r="BI11" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-2</v>
       </c>
       <c r="BJ11" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-5714.2857142800012</v>
       </c>
       <c r="BK11" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.66666666666666674</v>
       </c>
       <c r="BM11" s="16"/>
@@ -3326,8 +3501,30 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS11" s="16"/>
+      <c r="CT11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU11" s="12">
+        <v>1</v>
+      </c>
+      <c r="CV11" s="14">
+        <v>5237.1428571400002</v>
+      </c>
+      <c r="CW11" s="12">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="CX11" s="14">
+        <f t="shared" si="34"/>
+        <v>5237.1428571400002</v>
+      </c>
+      <c r="CY11" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="12" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="12" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="15" t="s">
         <v>5</v>
@@ -3351,15 +3548,15 @@
         <v>27320</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-4</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-32060</v>
       </c>
       <c r="O12" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.53991242842707987</v>
       </c>
       <c r="Q12" s="16"/>
@@ -3483,15 +3680,15 @@
         <v>56600</v>
       </c>
       <c r="BI12" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-5</v>
       </c>
       <c r="BJ12" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-13850</v>
       </c>
       <c r="BK12" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.19659332860184528</v>
       </c>
       <c r="BM12" s="16"/>
@@ -3582,8 +3779,30 @@
         <f t="shared" si="32"/>
         <v>-0.2590793430488087</v>
       </c>
+      <c r="CS12" s="16"/>
+      <c r="CT12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU12" s="12">
+        <v>6</v>
+      </c>
+      <c r="CV12" s="14">
+        <v>29240</v>
+      </c>
+      <c r="CW12" s="12">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="CX12" s="14">
+        <f t="shared" si="34"/>
+        <v>-2790</v>
+      </c>
+      <c r="CY12" s="13">
+        <f t="shared" si="35"/>
+        <v>-8.710583827661568E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="13" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="15" t="s">
         <v>4</v>
@@ -3607,15 +3826,15 @@
         <v>1833147.61904752</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1377523.8095237501</v>
       </c>
       <c r="O13" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>3.0233797723687315</v>
       </c>
       <c r="Q13" s="16"/>
@@ -3739,15 +3958,15 @@
         <v>600719.04761899996</v>
       </c>
       <c r="BI13" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="BJ13" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>21761.904761879938</v>
       </c>
       <c r="BK13" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>3.7588109984248913E-2</v>
       </c>
       <c r="BM13" s="16"/>
@@ -3838,8 +4057,30 @@
         <f t="shared" si="32"/>
         <v>0.62451845638832004</v>
       </c>
+      <c r="CS13" s="16"/>
+      <c r="CT13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU13" s="12">
+        <v>19</v>
+      </c>
+      <c r="CV13" s="14">
+        <v>848676.19047616003</v>
+      </c>
+      <c r="CW13" s="12">
+        <f t="shared" si="33"/>
+        <v>-8</v>
+      </c>
+      <c r="CX13" s="14">
+        <f t="shared" si="34"/>
+        <v>-193514.28571425995</v>
+      </c>
+      <c r="CY13" s="13">
+        <f t="shared" si="35"/>
+        <v>-0.18568034359863284</v>
+      </c>
     </row>
-    <row r="14" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="14" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="15" t="s">
         <v>3</v>
@@ -3863,15 +4104,15 @@
         <v>1778285.71428558</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>53</v>
       </c>
       <c r="N14" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>948190.47619039996</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.1422670949976934</v>
       </c>
       <c r="Q14" s="16"/>
@@ -3995,15 +4236,15 @@
         <v>683952.38095230004</v>
       </c>
       <c r="BI14" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-4</v>
       </c>
       <c r="BJ14" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-187952.38095238013</v>
       </c>
       <c r="BK14" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.21556526488259709</v>
       </c>
       <c r="BM14" s="16"/>
@@ -4094,8 +4335,30 @@
         <f t="shared" si="32"/>
         <v>-0.1892347184341488</v>
       </c>
+      <c r="CS14" s="16"/>
+      <c r="CT14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU14" s="12">
+        <v>67</v>
+      </c>
+      <c r="CV14" s="14">
+        <v>1282380.9523808304</v>
+      </c>
+      <c r="CW14" s="12">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="CX14" s="14">
+        <f t="shared" si="34"/>
+        <v>319809.52380948025</v>
+      </c>
+      <c r="CY14" s="13">
+        <f t="shared" si="35"/>
+        <v>0.33224497872759634</v>
+      </c>
     </row>
-    <row r="15" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="15" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="15" t="s">
         <v>2</v>
@@ -4119,15 +4382,15 @@
         <v>4514433.3333332296</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-92</v>
       </c>
       <c r="N15" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-4670519.0476190317</v>
       </c>
       <c r="O15" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.50849681673959968</v>
       </c>
       <c r="Q15" s="16"/>
@@ -4251,15 +4514,15 @@
         <v>9620359.047618961</v>
       </c>
       <c r="BI15" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-5</v>
       </c>
       <c r="BJ15" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-163926.66666667908</v>
       </c>
       <c r="BK15" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-1.6754076020831687E-2</v>
       </c>
       <c r="BM15" s="16"/>
@@ -4350,8 +4613,30 @@
         <f t="shared" si="32"/>
         <v>-0.45209615680157483</v>
       </c>
+      <c r="CS15" s="16"/>
+      <c r="CT15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU15" s="12">
+        <v>177</v>
+      </c>
+      <c r="CV15" s="14">
+        <v>6594205.71428564</v>
+      </c>
+      <c r="CW15" s="12">
+        <f t="shared" si="33"/>
+        <v>53</v>
+      </c>
+      <c r="CX15" s="14">
+        <f t="shared" si="34"/>
+        <v>1894952.3809523806</v>
+      </c>
+      <c r="CY15" s="13">
+        <f t="shared" si="35"/>
+        <v>0.40324541933308777</v>
+      </c>
     </row>
-    <row r="16" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
@@ -4376,15 +4661,15 @@
         <v>11814790.476188749</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-44</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-1391720.0000001118</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.10538135736229202</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -4508,15 +4793,15 @@
         <v>13779574.285712851</v>
       </c>
       <c r="BI16" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>112</v>
       </c>
       <c r="BJ16" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>311402.38095246069</v>
       </c>
       <c r="BK16" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.3121354787756607E-2</v>
       </c>
       <c r="BM16" s="11" t="s">
@@ -4607,8 +4892,30 @@
         <f t="shared" si="32"/>
         <v>-0.27676384573429214</v>
       </c>
+      <c r="CS16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT16" s="11"/>
+      <c r="CU16" s="10">
+        <v>1123</v>
+      </c>
+      <c r="CV16" s="9">
+        <v>11727352.380950721</v>
+      </c>
+      <c r="CW16" s="29">
+        <f t="shared" si="33"/>
+        <v>235</v>
+      </c>
+      <c r="CX16" s="30">
+        <f t="shared" si="34"/>
+        <v>2551145.238094883</v>
+      </c>
+      <c r="CY16" s="31">
+        <f t="shared" si="35"/>
+        <v>0.27801739851536422</v>
+      </c>
     </row>
-    <row r="17" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="17" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="16">
         <v>76</v>
       </c>
@@ -4633,15 +4940,15 @@
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-958</v>
       </c>
       <c r="N17" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O17" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="16">
@@ -4765,15 +5072,15 @@
       </c>
       <c r="BH17" s="36"/>
       <c r="BI17" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-1227</v>
       </c>
       <c r="BJ17" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BK17" s="13" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM17" s="16">
@@ -4864,8 +5171,30 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS17" s="16">
+        <v>76</v>
+      </c>
+      <c r="CT17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CU17" s="17">
+        <v>6145</v>
+      </c>
+      <c r="CV17" s="36"/>
+      <c r="CW17" s="12">
+        <f t="shared" si="33"/>
+        <v>1009</v>
+      </c>
+      <c r="CX17" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY17" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="18" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="18" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="35" t="s">
         <v>33</v>
@@ -4886,15 +5215,15 @@
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-6</v>
       </c>
       <c r="N18" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O18" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="16"/>
@@ -5006,15 +5335,15 @@
       </c>
       <c r="BH18" s="36"/>
       <c r="BI18" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>18</v>
       </c>
       <c r="BJ18" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BK18" s="13" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM18" s="16"/>
@@ -5097,8 +5426,26 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS18" s="16"/>
+      <c r="CT18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU18" s="17"/>
+      <c r="CV18" s="36"/>
+      <c r="CW18" s="12">
+        <f t="shared" si="33"/>
+        <v>-17</v>
+      </c>
+      <c r="CX18" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY18" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="19" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="19" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="15" t="s">
         <v>10</v>
@@ -5122,15 +5469,15 @@
         <v>228808.57142773012</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" ref="M19:M27" si="42">K19-C19</f>
+        <f t="shared" ref="M19:M27" si="45">K19-C19</f>
         <v>5</v>
       </c>
       <c r="N19" s="14">
-        <f t="shared" ref="N19:N27" si="43">L19-D19</f>
+        <f t="shared" ref="N19:N27" si="46">L19-D19</f>
         <v>16320.952380870236</v>
       </c>
       <c r="O19" s="13">
-        <f t="shared" ref="O19:O27" si="44">(L19-D19)/D19</f>
+        <f t="shared" ref="O19:O27" si="47">(L19-D19)/D19</f>
         <v>7.6808956936314385E-2</v>
       </c>
       <c r="Q19" s="16"/>
@@ -5254,15 +5601,15 @@
         <v>261547.61904664987</v>
       </c>
       <c r="BI19" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="BJ19" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>35514.285714209807</v>
       </c>
       <c r="BK19" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.1571196831485776</v>
       </c>
       <c r="BM19" s="16"/>
@@ -5353,8 +5700,30 @@
         <f t="shared" si="32"/>
         <v>-0.26953094923087983</v>
       </c>
+      <c r="CS19" s="16"/>
+      <c r="CT19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CU19" s="12">
+        <v>209</v>
+      </c>
+      <c r="CV19" s="14">
+        <v>214972.38095160993</v>
+      </c>
+      <c r="CW19" s="12">
+        <f t="shared" si="33"/>
+        <v>30</v>
+      </c>
+      <c r="CX19" s="14">
+        <f t="shared" si="34"/>
+        <v>16197.142857040075</v>
+      </c>
+      <c r="CY19" s="13">
+        <f t="shared" si="35"/>
+        <v>8.1484711135569501E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="15" t="s">
         <v>9</v>
@@ -5378,15 +5747,15 @@
         <v>270610.4761902999</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>16</v>
       </c>
       <c r="N20" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-1189.5238095000386</v>
       </c>
       <c r="O20" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-4.3764672902903388E-3</v>
       </c>
       <c r="Q20" s="16"/>
@@ -5510,15 +5879,15 @@
         <v>352294.28571410995</v>
       </c>
       <c r="BI20" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-25</v>
       </c>
       <c r="BJ20" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>27284.761904729938</v>
       </c>
       <c r="BK20" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>8.3950653460643232E-2</v>
       </c>
       <c r="BM20" s="16"/>
@@ -5609,8 +5978,30 @@
         <f t="shared" si="32"/>
         <v>3.2497459718440959E-2</v>
       </c>
+      <c r="CS20" s="16"/>
+      <c r="CT20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU20" s="12">
+        <v>216</v>
+      </c>
+      <c r="CV20" s="14">
+        <v>224739.04761890002</v>
+      </c>
+      <c r="CW20" s="12">
+        <f t="shared" si="33"/>
+        <v>-28</v>
+      </c>
+      <c r="CX20" s="14">
+        <f t="shared" si="34"/>
+        <v>-46227.61904763995</v>
+      </c>
+      <c r="CY20" s="13">
+        <f t="shared" si="35"/>
+        <v>-0.17060260443226066</v>
+      </c>
     </row>
-    <row r="21" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="15" t="s">
         <v>8</v>
@@ -5634,15 +6025,15 @@
         <v>242700.95238094</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4253.3333333399787</v>
       </c>
       <c r="O21" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.7837600351509102E-2</v>
       </c>
       <c r="Q21" s="16"/>
@@ -5766,15 +6157,15 @@
         <v>897705.71428569988</v>
       </c>
       <c r="BI21" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>83</v>
       </c>
       <c r="BJ21" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>578200.95238095988</v>
       </c>
       <c r="BK21" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.8096786693694094</v>
       </c>
       <c r="BM21" s="16"/>
@@ -5865,8 +6256,30 @@
         <f t="shared" si="32"/>
         <v>0.11232853260284784</v>
       </c>
+      <c r="CS21" s="16"/>
+      <c r="CT21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU21" s="12">
+        <v>103</v>
+      </c>
+      <c r="CV21" s="14">
+        <v>681399.99999998999</v>
+      </c>
+      <c r="CW21" s="12">
+        <f t="shared" si="33"/>
+        <v>31</v>
+      </c>
+      <c r="CX21" s="14">
+        <f t="shared" si="34"/>
+        <v>186371.42857145</v>
+      </c>
+      <c r="CY21" s="13">
+        <f t="shared" si="35"/>
+        <v>0.37648620570247976</v>
+      </c>
     </row>
-    <row r="22" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="22" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="15" t="s">
         <v>7</v>
@@ -5890,15 +6303,15 @@
         <v>859333.33333321998</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-2</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-128857.14285715017</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.1303970701619335</v>
       </c>
       <c r="Q22" s="16"/>
@@ -6022,15 +6435,15 @@
         <v>833999.99999991001</v>
       </c>
       <c r="BI22" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="BJ22" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>159904.76190476993</v>
       </c>
       <c r="BK22" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.23721390223231539</v>
       </c>
       <c r="BM22" s="16"/>
@@ -6121,8 +6534,30 @@
         <f t="shared" si="32"/>
         <v>9.8174120137607429E-2</v>
       </c>
+      <c r="CS22" s="16"/>
+      <c r="CT22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU22" s="12">
+        <v>34</v>
+      </c>
+      <c r="CV22" s="14">
+        <v>495809.52380947</v>
+      </c>
+      <c r="CW22" s="12">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="CX22" s="14">
+        <f t="shared" si="34"/>
+        <v>100571.42857143003</v>
+      </c>
+      <c r="CY22" s="13">
+        <f t="shared" si="35"/>
+        <v>0.2544578313253405</v>
+      </c>
     </row>
-    <row r="23" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="23" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="15" t="s">
         <v>6</v>
@@ -6146,15 +6581,15 @@
         <v>14285.714285710001</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-8857.1428571299984</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.38271604938244391</v>
       </c>
       <c r="Q23" s="16"/>
@@ -6273,15 +6708,15 @@
         <v>5714.2857142800003</v>
       </c>
       <c r="BI23" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ23" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BK23" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="BM23" s="16"/>
@@ -6372,8 +6807,25 @@
         <f t="shared" si="32"/>
         <v>-1</v>
       </c>
+      <c r="CS23" s="16"/>
+      <c r="CT23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV23" s="14"/>
+      <c r="CW23" s="12">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CX23" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY23" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="24" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="24" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="15" t="s">
         <v>5</v>
@@ -6397,15 +6849,15 @@
         <v>13370</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-2</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-11080</v>
       </c>
       <c r="O24" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.45316973415132922</v>
       </c>
       <c r="Q24" s="16"/>
@@ -6529,15 +6981,15 @@
         <v>55980</v>
       </c>
       <c r="BI24" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="BJ24" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-18590</v>
       </c>
       <c r="BK24" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.24929596352420544</v>
       </c>
       <c r="BM24" s="16"/>
@@ -6628,8 +7080,30 @@
         <f t="shared" si="32"/>
         <v>-8.3139240506329121E-2</v>
       </c>
+      <c r="CS24" s="16"/>
+      <c r="CT24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU24" s="12">
+        <v>17</v>
+      </c>
+      <c r="CV24" s="14">
+        <v>88930</v>
+      </c>
+      <c r="CW24" s="12">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="CX24" s="14">
+        <f t="shared" si="34"/>
+        <v>-1610</v>
+      </c>
+      <c r="CY24" s="13">
+        <f t="shared" si="35"/>
+        <v>-1.7782195714601282E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="25" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="15" t="s">
         <v>4</v>
@@ -6653,15 +7127,15 @@
         <v>375433.33333329996</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-4</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-75333.333333309973</v>
       </c>
       <c r="O25" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.16712267987869434</v>
       </c>
       <c r="Q25" s="16"/>
@@ -6785,15 +7259,15 @@
         <v>572699.04761901998</v>
       </c>
       <c r="BI25" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="BJ25" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>239511.42857142998</v>
       </c>
       <c r="BK25" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.71884852521251685</v>
       </c>
       <c r="BM25" s="16"/>
@@ -6884,8 +7358,30 @@
         <f t="shared" si="32"/>
         <v>-0.21840339248218957</v>
       </c>
+      <c r="CS25" s="16"/>
+      <c r="CT25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU25" s="12">
+        <v>7</v>
+      </c>
+      <c r="CV25" s="14">
+        <v>317428.57142854005</v>
+      </c>
+      <c r="CW25" s="12">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="CX25" s="14">
+        <f t="shared" si="34"/>
+        <v>-134576.19047618995</v>
+      </c>
+      <c r="CY25" s="13">
+        <f t="shared" si="35"/>
+        <v>-0.29773179802153249</v>
+      </c>
     </row>
-    <row r="26" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="26" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="15" t="s">
         <v>3</v>
@@ -6909,15 +7405,15 @@
         <v>840799.9999998901</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-4</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-72390.476190499961</v>
       </c>
       <c r="O26" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-7.9272044636838013E-2</v>
       </c>
       <c r="Q26" s="16"/>
@@ -7041,15 +7537,15 @@
         <v>594714.28571418999</v>
       </c>
       <c r="BI26" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-9</v>
       </c>
       <c r="BJ26" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-198380.95238094009</v>
       </c>
       <c r="BK26" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.25013509456621491</v>
       </c>
       <c r="BM26" s="16"/>
@@ -7140,8 +7636,30 @@
         <f t="shared" si="32"/>
         <v>-3.3508448104474189E-2</v>
       </c>
+      <c r="CS26" s="16"/>
+      <c r="CT26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU26" s="12">
+        <v>49</v>
+      </c>
+      <c r="CV26" s="14">
+        <v>889047.6190475201</v>
+      </c>
+      <c r="CW26" s="12">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="CX26" s="14">
+        <f t="shared" si="34"/>
+        <v>240761.90476186003</v>
+      </c>
+      <c r="CY26" s="13">
+        <f t="shared" si="35"/>
+        <v>0.37138240047006638</v>
+      </c>
     </row>
-    <row r="27" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="27" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="15" t="s">
         <v>2</v>
@@ -7165,15 +7683,15 @@
         <v>1390874.28571424</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-5</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-664649.52380951005</v>
       </c>
       <c r="O27" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>-0.32334800537460301</v>
       </c>
       <c r="Q27" s="16"/>
@@ -7297,15 +7815,15 @@
         <v>7777809.5238094311</v>
       </c>
       <c r="BI27" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>46</v>
       </c>
       <c r="BJ27" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1565619.0476190113</v>
       </c>
       <c r="BK27" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.25202367081621035</v>
       </c>
       <c r="BM27" s="16"/>
@@ -7396,8 +7914,30 @@
         <f t="shared" si="32"/>
         <v>-0.41396791754679796</v>
       </c>
+      <c r="CS27" s="16"/>
+      <c r="CT27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU27" s="12">
+        <v>131</v>
+      </c>
+      <c r="CV27" s="14">
+        <v>4950411.4285713499</v>
+      </c>
+      <c r="CW27" s="12">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="CX27" s="14">
+        <f t="shared" si="34"/>
+        <v>1670316.1904761703</v>
+      </c>
+      <c r="CY27" s="13">
+        <f t="shared" si="35"/>
+        <v>0.50922795505357277</v>
+      </c>
     </row>
-    <row r="28" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="28" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>13</v>
       </c>
@@ -7422,15 +7962,15 @@
         <v>4236216.6666653296</v>
       </c>
       <c r="M28" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-941782.8571428908</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.18188160366037376</v>
       </c>
       <c r="Q28" s="11" t="s">
@@ -7554,15 +8094,15 @@
         <v>11352464.76190329</v>
       </c>
       <c r="BI28" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>126</v>
       </c>
       <c r="BJ28" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>2389064.28571417</v>
       </c>
       <c r="BK28" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.26653548416815853</v>
       </c>
       <c r="BM28" s="11" t="s">
@@ -7653,8 +8193,30 @@
         <f t="shared" si="32"/>
         <v>-0.29640165069454799</v>
       </c>
+      <c r="CS28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="CT28" s="11"/>
+      <c r="CU28" s="10">
+        <v>766</v>
+      </c>
+      <c r="CV28" s="9">
+        <v>7862738.5714273807</v>
+      </c>
+      <c r="CW28" s="29">
+        <f t="shared" si="33"/>
+        <v>87</v>
+      </c>
+      <c r="CX28" s="30">
+        <f t="shared" si="34"/>
+        <v>2031804.2857141215</v>
+      </c>
+      <c r="CY28" s="31">
+        <f t="shared" si="35"/>
+        <v>0.3484526125928693</v>
+      </c>
     </row>
-    <row r="29" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="16">
         <v>77</v>
       </c>
@@ -7679,15 +8241,15 @@
       </c>
       <c r="L29" s="38"/>
       <c r="M29" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>685</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O29" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="16">
@@ -7811,15 +8373,15 @@
       </c>
       <c r="BH29" s="36"/>
       <c r="BI29" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-431</v>
       </c>
       <c r="BJ29" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BK29" s="13" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM29" s="16">
@@ -7910,8 +8472,30 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS29" s="16">
+        <v>77</v>
+      </c>
+      <c r="CT29" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CU29" s="17">
+        <v>4507</v>
+      </c>
+      <c r="CV29" s="36"/>
+      <c r="CW29" s="12">
+        <f t="shared" si="33"/>
+        <v>1131</v>
+      </c>
+      <c r="CX29" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY29" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="30" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="30" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="35" t="s">
         <v>33</v>
@@ -7932,15 +8516,15 @@
       </c>
       <c r="L30" s="38"/>
       <c r="M30" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-9</v>
       </c>
       <c r="N30" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O30" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="16"/>
@@ -8052,15 +8636,15 @@
       </c>
       <c r="BH30" s="36"/>
       <c r="BI30" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="BJ30" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BK30" s="13" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM30" s="16"/>
@@ -8143,8 +8727,26 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS30" s="16"/>
+      <c r="CT30" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU30" s="17"/>
+      <c r="CV30" s="36"/>
+      <c r="CW30" s="12">
+        <f t="shared" si="33"/>
+        <v>-5</v>
+      </c>
+      <c r="CX30" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY30" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="31" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="31" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="15" t="s">
         <v>10</v>
@@ -8168,15 +8770,15 @@
         <v>177112.38095158999</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" ref="M31:M39" si="45">K31-C31</f>
+        <f t="shared" ref="M31:M39" si="48">K31-C31</f>
         <v>50</v>
       </c>
       <c r="N31" s="14">
-        <f t="shared" ref="N31:N39" si="46">L31-D31</f>
+        <f t="shared" ref="N31:N39" si="49">L31-D31</f>
         <v>59494.285713969963</v>
       </c>
       <c r="O31" s="13">
-        <f t="shared" ref="O31:O39" si="47">(L31-D31)/D31</f>
+        <f t="shared" ref="O31:O39" si="50">(L31-D31)/D31</f>
         <v>0.5058259581042831</v>
       </c>
       <c r="Q31" s="16"/>
@@ -8300,15 +8902,15 @@
         <v>143581.90476134996</v>
       </c>
       <c r="BI31" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>9</v>
       </c>
       <c r="BJ31" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>12963.809523710006</v>
       </c>
       <c r="BK31" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>9.9249721105826166E-2</v>
       </c>
       <c r="BM31" s="16"/>
@@ -8399,8 +9001,30 @@
         <f t="shared" si="32"/>
         <v>-0.15361314841014317</v>
       </c>
+      <c r="CS31" s="16"/>
+      <c r="CT31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CU31" s="12">
+        <v>152</v>
+      </c>
+      <c r="CV31" s="14">
+        <v>166386.66666608999</v>
+      </c>
+      <c r="CW31" s="12">
+        <f t="shared" si="33"/>
+        <v>29</v>
+      </c>
+      <c r="CX31" s="14">
+        <f t="shared" si="34"/>
+        <v>51424.761904650004</v>
+      </c>
+      <c r="CY31" s="13">
+        <f t="shared" si="35"/>
+        <v>0.44732002319692488</v>
+      </c>
     </row>
-    <row r="32" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="32" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="15" t="s">
         <v>9</v>
@@ -8424,15 +9048,15 @@
         <v>89939.047618969998</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>12</v>
       </c>
       <c r="N32" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>7165.7142857699801</v>
       </c>
       <c r="O32" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>8.6570324006703295E-2</v>
       </c>
       <c r="Q32" s="16"/>
@@ -8556,15 +9180,15 @@
         <v>128144.76190464999</v>
       </c>
       <c r="BI32" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>19</v>
       </c>
       <c r="BJ32" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>31128.571428589974</v>
       </c>
       <c r="BK32" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.32085955216177392</v>
       </c>
       <c r="BM32" s="16"/>
@@ -8655,8 +9279,30 @@
         <f t="shared" si="32"/>
         <v>-2.4409893697027389E-2</v>
       </c>
+      <c r="CS32" s="16"/>
+      <c r="CT32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU32" s="12">
+        <v>82</v>
+      </c>
+      <c r="CV32" s="14">
+        <v>103220.95238084997</v>
+      </c>
+      <c r="CW32" s="12">
+        <f t="shared" si="33"/>
+        <v>-16</v>
+      </c>
+      <c r="CX32" s="14">
+        <f t="shared" si="34"/>
+        <v>14418.095238079957</v>
+      </c>
+      <c r="CY32" s="13">
+        <f t="shared" si="35"/>
+        <v>0.16236071340474684</v>
+      </c>
     </row>
-    <row r="33" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="33" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="15" t="s">
         <v>8</v>
@@ -8680,15 +9326,15 @@
         <v>211971.42857141001</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>15</v>
       </c>
       <c r="N33" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>110428.57142856001</v>
       </c>
       <c r="O33" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1.0875070343274824</v>
       </c>
       <c r="Q33" s="16"/>
@@ -8812,15 +9458,15 @@
         <v>209704.76190474999</v>
       </c>
       <c r="BI33" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>19</v>
       </c>
       <c r="BJ33" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>151247.61904761998</v>
       </c>
       <c r="BK33" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.587324861518995</v>
       </c>
       <c r="BM33" s="16"/>
@@ -8911,8 +9557,30 @@
         <f t="shared" si="32"/>
         <v>-0.26650485830947823</v>
       </c>
+      <c r="CS33" s="16"/>
+      <c r="CT33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU33" s="12">
+        <v>56</v>
+      </c>
+      <c r="CV33" s="14">
+        <v>363516.19047616998</v>
+      </c>
+      <c r="CW33" s="12">
+        <f t="shared" si="33"/>
+        <v>28</v>
+      </c>
+      <c r="CX33" s="14">
+        <f t="shared" si="34"/>
+        <v>191401.90476189999</v>
+      </c>
+      <c r="CY33" s="13">
+        <f t="shared" si="35"/>
+        <v>1.1120628596724953</v>
+      </c>
     </row>
-    <row r="34" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="34" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="15" t="s">
         <v>7</v>
@@ -8936,15 +9604,15 @@
         <v>513999.99999994005</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>11</v>
       </c>
       <c r="N34" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>194190.47619048005</v>
       </c>
       <c r="O34" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.6072066706374174</v>
       </c>
       <c r="Q34" s="16"/>
@@ -9068,15 +9736,15 @@
         <v>256857.14285710003</v>
       </c>
       <c r="BI34" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-5</v>
       </c>
       <c r="BJ34" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-121428.57142856999</v>
       </c>
       <c r="BK34" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.32099697885199752</v>
       </c>
       <c r="BM34" s="16"/>
@@ -9167,8 +9835,30 @@
         <f t="shared" si="32"/>
         <v>0.27198602213174922</v>
       </c>
+      <c r="CS34" s="16"/>
+      <c r="CT34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU34" s="12">
+        <v>19</v>
+      </c>
+      <c r="CV34" s="14">
+        <v>242476.19047612001</v>
+      </c>
+      <c r="CW34" s="12">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="CX34" s="14">
+        <f t="shared" si="34"/>
+        <v>34476.190476149961</v>
+      </c>
+      <c r="CY34" s="13">
+        <f t="shared" si="35"/>
+        <v>0.16575091575074483</v>
+      </c>
     </row>
-    <row r="35" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="35" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="15" t="s">
         <v>6</v>
@@ -9192,15 +9882,15 @@
         <v>0</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-6</v>
       </c>
       <c r="N35" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-17551.428571409997</v>
       </c>
       <c r="O35" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-1</v>
       </c>
       <c r="Q35" s="16"/>
@@ -9319,15 +10009,15 @@
         <v>4713.3333333299997</v>
       </c>
       <c r="BI35" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ35" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1856.1904761899996</v>
       </c>
       <c r="BK35" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.64966666666714945</v>
       </c>
       <c r="BM35" s="16"/>
@@ -9418,8 +10108,30 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS35" s="16"/>
+      <c r="CT35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU35" s="12">
+        <v>0</v>
+      </c>
+      <c r="CV35" s="14">
+        <v>0</v>
+      </c>
+      <c r="CW35" s="12">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CX35" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY35" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="36" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="16"/>
       <c r="B36" s="15" t="s">
         <v>5</v>
@@ -9443,15 +10155,15 @@
         <v>33040</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="N36" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>23980</v>
       </c>
       <c r="O36" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>2.6467991169977925</v>
       </c>
       <c r="Q36" s="16"/>
@@ -9575,15 +10287,15 @@
         <v>19750</v>
       </c>
       <c r="BI36" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="BJ36" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>13360</v>
       </c>
       <c r="BK36" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.0907668231611893</v>
       </c>
       <c r="BM36" s="16"/>
@@ -9674,8 +10386,30 @@
         <f t="shared" si="32"/>
         <v>1.7933227344992051</v>
       </c>
+      <c r="CS36" s="16"/>
+      <c r="CT36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU36" s="12">
+        <v>4</v>
+      </c>
+      <c r="CV36" s="14">
+        <v>7660</v>
+      </c>
+      <c r="CW36" s="12">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="CX36" s="14">
+        <f t="shared" si="34"/>
+        <v>-9910</v>
+      </c>
+      <c r="CY36" s="13">
+        <f t="shared" si="35"/>
+        <v>-0.56402959590210588</v>
+      </c>
     </row>
-    <row r="37" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="37" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="15" t="s">
         <v>4</v>
@@ -9699,15 +10433,15 @@
         <v>168163.80952380001</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="N37" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>8449.5238095299865</v>
       </c>
       <c r="O37" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>5.2903995229620498E-2</v>
       </c>
       <c r="Q37" s="16"/>
@@ -9826,15 +10560,15 @@
         <v>31333.33333333</v>
       </c>
       <c r="BI37" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ37" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3333.3333333299997</v>
       </c>
       <c r="BK37" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.1190476190475</v>
       </c>
       <c r="BM37" s="16"/>
@@ -9925,8 +10659,30 @@
         <f t="shared" si="32"/>
         <v>1.3459557890651286</v>
       </c>
+      <c r="CS37" s="16"/>
+      <c r="CT37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU37" s="12">
+        <v>0</v>
+      </c>
+      <c r="CV37" s="14">
+        <v>0</v>
+      </c>
+      <c r="CW37" s="12">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="CX37" s="14">
+        <f t="shared" si="34"/>
+        <v>-149687.61904759999</v>
+      </c>
+      <c r="CY37" s="13">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="38" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="38" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="15" t="s">
         <v>3</v>
@@ -9950,15 +10706,15 @@
         <v>224190.47619045002</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N38" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>45666.666666680016</v>
       </c>
       <c r="O38" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.25580154707935254</v>
       </c>
       <c r="Q38" s="16"/>
@@ -10082,15 +10838,15 @@
         <v>280428.57142852998</v>
       </c>
       <c r="BI38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-2</v>
       </c>
       <c r="BJ38" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-1285.7142856900464</v>
       </c>
       <c r="BK38" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-4.5638945232415939E-3</v>
       </c>
       <c r="BM38" s="16"/>
@@ -10181,8 +10937,30 @@
         <f t="shared" si="32"/>
         <v>-0.62064402293784304</v>
       </c>
+      <c r="CS38" s="16"/>
+      <c r="CT38" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU38" s="12">
+        <v>13</v>
+      </c>
+      <c r="CV38" s="14">
+        <v>220952.38095234</v>
+      </c>
+      <c r="CW38" s="12">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="CX38" s="14">
+        <f t="shared" si="34"/>
+        <v>57142.85714285</v>
+      </c>
+      <c r="CY38" s="13">
+        <f t="shared" si="35"/>
+        <v>0.34883720930235396</v>
+      </c>
     </row>
-    <row r="39" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="39" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="15" t="s">
         <v>2</v>
@@ -10206,15 +10984,15 @@
         <v>734112.38095234998</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-39</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-1661411.4285714002</v>
       </c>
       <c r="O39" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.69354828449887229</v>
       </c>
       <c r="Q39" s="16"/>
@@ -10338,15 +11116,15 @@
         <v>2722285.7142856703</v>
       </c>
       <c r="BI39" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>26</v>
       </c>
       <c r="BJ39" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>918476.1904761903</v>
       </c>
       <c r="BK39" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.50918690601901961</v>
       </c>
       <c r="BM39" s="16"/>
@@ -10437,8 +11215,30 @@
         <f t="shared" si="32"/>
         <v>7.6375072203372215E-3</v>
       </c>
+      <c r="CS39" s="16"/>
+      <c r="CT39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU39" s="12">
+        <v>59</v>
+      </c>
+      <c r="CV39" s="14">
+        <v>2206761.9047618401</v>
+      </c>
+      <c r="CW39" s="12">
+        <f t="shared" si="33"/>
+        <v>19</v>
+      </c>
+      <c r="CX39" s="14">
+        <f t="shared" si="34"/>
+        <v>711523.80952379014</v>
+      </c>
+      <c r="CY39" s="13">
+        <f t="shared" si="35"/>
+        <v>0.47585987261146639</v>
+      </c>
     </row>
-    <row r="40" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="40" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>12</v>
       </c>
@@ -10463,15 +11263,15 @@
         <v>2152529.52380851</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>46</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-1229587.6190478201</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.36355559760694311</v>
       </c>
       <c r="Q40" s="11" t="s">
@@ -10595,15 +11395,15 @@
         <v>3796799.5238087103</v>
       </c>
       <c r="BI40" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>70</v>
       </c>
       <c r="BJ40" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1009651.4285713704</v>
       </c>
       <c r="BK40" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.36225252267601282</v>
       </c>
       <c r="BM40" s="11" t="s">
@@ -10694,8 +11494,30 @@
         <f t="shared" si="32"/>
         <v>-7.7489344367584756E-2</v>
       </c>
+      <c r="CS40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="CT40" s="11"/>
+      <c r="CU40" s="10">
+        <v>385</v>
+      </c>
+      <c r="CV40" s="9">
+        <v>3310974.28571341</v>
+      </c>
+      <c r="CW40" s="29">
+        <f t="shared" si="33"/>
+        <v>63</v>
+      </c>
+      <c r="CX40" s="30">
+        <f t="shared" si="34"/>
+        <v>900789.99999982025</v>
+      </c>
+      <c r="CY40" s="31">
+        <f t="shared" si="35"/>
+        <v>0.37374320517284465</v>
+      </c>
     </row>
-    <row r="41" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="41" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A41" s="16">
         <v>81</v>
       </c>
@@ -10720,15 +11542,15 @@
       </c>
       <c r="L41" s="38"/>
       <c r="M41" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-261</v>
       </c>
       <c r="N41" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O41" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="16">
@@ -10852,15 +11674,15 @@
       </c>
       <c r="BH41" s="36"/>
       <c r="BI41" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-210</v>
       </c>
       <c r="BJ41" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BK41" s="13" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM41" s="16">
@@ -10951,8 +11773,30 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS41" s="16">
+        <v>81</v>
+      </c>
+      <c r="CT41" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CU41" s="17">
+        <v>1908</v>
+      </c>
+      <c r="CV41" s="36"/>
+      <c r="CW41" s="12">
+        <f t="shared" si="33"/>
+        <v>453</v>
+      </c>
+      <c r="CX41" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY41" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="42" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="42" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="35" t="s">
         <v>33</v>
@@ -10973,15 +11817,15 @@
       </c>
       <c r="L42" s="38"/>
       <c r="M42" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-9</v>
       </c>
       <c r="N42" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O42" s="13" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="16"/>
@@ -11093,15 +11937,15 @@
       </c>
       <c r="BH42" s="36"/>
       <c r="BI42" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="BJ42" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BK42" s="13" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM42" s="16"/>
@@ -11184,8 +12028,26 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS42" s="16"/>
+      <c r="CT42" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU42" s="17"/>
+      <c r="CV42" s="36"/>
+      <c r="CW42" s="12">
+        <f t="shared" si="33"/>
+        <v>-9</v>
+      </c>
+      <c r="CX42" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY42" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="43" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="43" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="15" t="s">
         <v>10</v>
@@ -11209,15 +12071,15 @@
         <v>140190.47618992999</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" ref="M43:M51" si="48">K43-C43</f>
+        <f t="shared" ref="M43:M51" si="51">K43-C43</f>
         <v>32</v>
       </c>
       <c r="N43" s="14">
-        <f t="shared" ref="N43:N51" si="49">L43-D43</f>
+        <f t="shared" ref="N43:N51" si="52">L43-D43</f>
         <v>36774.285714210011</v>
       </c>
       <c r="O43" s="13">
-        <f t="shared" ref="O43:O51" si="50">(L43-D43)/D43</f>
+        <f t="shared" ref="O43:O51" si="53">(L43-D43)/D43</f>
         <v>0.35559505281567944</v>
       </c>
       <c r="Q43" s="16"/>
@@ -11341,15 +12203,15 @@
         <v>127592.38095183</v>
       </c>
       <c r="BI43" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="BJ43" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1656.1904762000049</v>
       </c>
       <c r="BK43" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.3151028865848499E-2</v>
       </c>
       <c r="BM43" s="16"/>
@@ -11440,8 +12302,30 @@
         <f t="shared" si="32"/>
         <v>-0.35846199381903843</v>
       </c>
+      <c r="CS43" s="16"/>
+      <c r="CT43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CU43" s="12">
+        <v>130</v>
+      </c>
+      <c r="CV43" s="14">
+        <v>123400.95238055992</v>
+      </c>
+      <c r="CW43" s="12">
+        <f t="shared" si="33"/>
+        <v>28</v>
+      </c>
+      <c r="CX43" s="14">
+        <f t="shared" si="34"/>
+        <v>34637.142857119936</v>
+      </c>
+      <c r="CY43" s="13">
+        <f t="shared" si="35"/>
+        <v>0.39021694813552654</v>
+      </c>
     </row>
-    <row r="44" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="44" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="15" t="s">
         <v>9</v>
@@ -11465,15 +12349,15 @@
         <v>84724.761904650004</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>26</v>
       </c>
       <c r="N44" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>14286.666666670004</v>
       </c>
       <c r="O44" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.20282585181216936</v>
       </c>
       <c r="Q44" s="16"/>
@@ -11597,15 +12481,15 @@
         <v>58333.333333240007</v>
       </c>
       <c r="BI44" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-20</v>
       </c>
       <c r="BJ44" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-27973.333333309987</v>
       </c>
       <c r="BK44" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.32411555692894872</v>
       </c>
       <c r="BM44" s="16"/>
@@ -11696,8 +12580,30 @@
         <f t="shared" si="32"/>
         <v>-6.9473900253114659E-2</v>
       </c>
+      <c r="CS44" s="16"/>
+      <c r="CT44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU44" s="12">
+        <v>80</v>
+      </c>
+      <c r="CV44" s="14">
+        <v>101375.23809513998</v>
+      </c>
+      <c r="CW44" s="12">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="CX44" s="14">
+        <f t="shared" si="34"/>
+        <v>23652.380952359978</v>
+      </c>
+      <c r="CY44" s="13">
+        <f t="shared" si="35"/>
+        <v>0.30431692582929121</v>
+      </c>
     </row>
-    <row r="45" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="45" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="15" t="s">
         <v>8</v>
@@ -11721,15 +12627,15 @@
         <v>91266.666666649995</v>
       </c>
       <c r="M45" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-2866.6666666700039</v>
       </c>
       <c r="O45" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-3.0453257790408039E-2</v>
       </c>
       <c r="Q45" s="16"/>
@@ -11853,15 +12759,15 @@
         <v>204697.14285713001</v>
       </c>
       <c r="BI45" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>19</v>
       </c>
       <c r="BJ45" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>139106.66666665999</v>
       </c>
       <c r="BK45" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.120836358356422</v>
       </c>
       <c r="BM45" s="16"/>
@@ -11952,8 +12858,30 @@
         <f t="shared" si="32"/>
         <v>-8.387418871693221E-2</v>
       </c>
+      <c r="CS45" s="16"/>
+      <c r="CT45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU45" s="12">
+        <v>25</v>
+      </c>
+      <c r="CV45" s="14">
+        <v>171190.47619046</v>
+      </c>
+      <c r="CW45" s="12">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="CX45" s="14">
+        <f t="shared" si="34"/>
+        <v>31380.95238095001</v>
+      </c>
+      <c r="CY45" s="13">
+        <f t="shared" si="35"/>
+        <v>0.22445504087193982</v>
+      </c>
     </row>
-    <row r="46" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="46" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="15" t="s">
         <v>7</v>
@@ -11977,15 +12905,15 @@
         <v>300476.19047614001</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>12</v>
       </c>
       <c r="N46" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>133142.85714283999</v>
       </c>
       <c r="O46" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.79567444507689145</v>
       </c>
       <c r="Q46" s="16"/>
@@ -12109,15 +13037,15 @@
         <v>74666.666666659992</v>
       </c>
       <c r="BI46" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-4</v>
       </c>
       <c r="BJ46" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-36761.90476188001</v>
       </c>
       <c r="BK46" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.32991452991440084</v>
       </c>
       <c r="BM46" s="16"/>
@@ -12208,8 +13136,30 @@
         <f t="shared" si="32"/>
         <v>1.0099916736050925</v>
       </c>
+      <c r="CS46" s="16"/>
+      <c r="CT46" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU46" s="12">
+        <v>12</v>
+      </c>
+      <c r="CV46" s="14">
+        <v>131238.09523806002</v>
+      </c>
+      <c r="CW46" s="12">
+        <f t="shared" si="33"/>
+        <v>-4</v>
+      </c>
+      <c r="CX46" s="14">
+        <f t="shared" si="34"/>
+        <v>-98666.66666664998</v>
+      </c>
+      <c r="CY46" s="13">
+        <f t="shared" si="35"/>
+        <v>-0.42916321458163159</v>
+      </c>
     </row>
-    <row r="47" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="47" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="15" t="s">
         <v>6</v>
@@ -12233,15 +13183,15 @@
         <v>0</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-1</v>
       </c>
       <c r="N47" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-2857.1428571400002</v>
       </c>
       <c r="O47" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-1</v>
       </c>
       <c r="Q47" s="16"/>
@@ -12355,15 +13305,15 @@
         <v>0</v>
       </c>
       <c r="BI47" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
       <c r="BJ47" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-2857.1428571400002</v>
       </c>
       <c r="BK47" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="BM47" s="16"/>
@@ -12454,8 +13404,30 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS47" s="16"/>
+      <c r="CT47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU47" s="12">
+        <v>1</v>
+      </c>
+      <c r="CV47" s="14">
+        <v>8857.1428571399993</v>
+      </c>
+      <c r="CW47" s="12">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="CX47" s="14">
+        <f t="shared" si="34"/>
+        <v>8857.1428571399993</v>
+      </c>
+      <c r="CY47" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="48" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="48" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A48" s="16"/>
       <c r="B48" s="15" t="s">
         <v>5</v>
@@ -12479,15 +13451,15 @@
         <v>2190</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N48" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-6800</v>
       </c>
       <c r="O48" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-0.75639599555061177</v>
       </c>
       <c r="Q48" s="16"/>
@@ -12611,15 +13583,15 @@
         <v>4890</v>
       </c>
       <c r="BI48" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-6</v>
       </c>
       <c r="BJ48" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-35540</v>
       </c>
       <c r="BK48" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.8790502102399208</v>
       </c>
       <c r="BM48" s="16"/>
@@ -12710,8 +13682,30 @@
         <f t="shared" si="32"/>
         <v>-0.74491392801251954</v>
       </c>
+      <c r="CS48" s="16"/>
+      <c r="CT48" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU48" s="12">
+        <v>1</v>
+      </c>
+      <c r="CV48" s="14">
+        <v>4890</v>
+      </c>
+      <c r="CW48" s="12">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CX48" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY48" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="49" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="15" t="s">
         <v>4</v>
@@ -12735,15 +13729,15 @@
         <v>53290.476190469999</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-2</v>
       </c>
       <c r="N49" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-76190.476190459987</v>
       </c>
       <c r="O49" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-0.58842999521898287</v>
       </c>
       <c r="Q49" s="16"/>
@@ -12867,15 +13861,15 @@
         <v>117333.33333333</v>
       </c>
       <c r="BI49" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="BJ49" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>53526.666666669997</v>
       </c>
       <c r="BK49" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.83888830843186069</v>
       </c>
       <c r="BM49" s="16"/>
@@ -12966,8 +13960,30 @@
         <f t="shared" si="32"/>
         <v>0.25062656641592107</v>
       </c>
+      <c r="CS49" s="16"/>
+      <c r="CT49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU49" s="12">
+        <v>1</v>
+      </c>
+      <c r="CV49" s="14">
+        <v>28000</v>
+      </c>
+      <c r="CW49" s="12">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="CX49" s="14">
+        <f t="shared" si="34"/>
+        <v>-67047.619047610002</v>
+      </c>
+      <c r="CY49" s="13">
+        <f t="shared" si="35"/>
+        <v>-0.70541082164325852</v>
+      </c>
     </row>
-    <row r="50" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="50" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="15" t="s">
         <v>3</v>
@@ -12991,15 +14007,15 @@
         <v>390285.71428562998</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>13</v>
       </c>
       <c r="N50" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>205619.04761898998</v>
       </c>
       <c r="O50" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1.1134605466733918</v>
       </c>
       <c r="Q50" s="16"/>
@@ -13123,15 +14139,15 @@
         <v>143333.33333331</v>
       </c>
       <c r="BI50" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-2</v>
       </c>
       <c r="BJ50" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-40380.952380940027</v>
       </c>
       <c r="BK50" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.21980300673921857</v>
       </c>
       <c r="BM50" s="16"/>
@@ -13222,8 +14238,30 @@
         <f t="shared" si="32"/>
         <v>-0.58051628764596319</v>
       </c>
+      <c r="CS50" s="16"/>
+      <c r="CT50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU50" s="12">
+        <v>13</v>
+      </c>
+      <c r="CV50" s="14">
+        <v>233809.52380948997</v>
+      </c>
+      <c r="CW50" s="12">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="CX50" s="14">
+        <f t="shared" si="34"/>
+        <v>103809.52380949995</v>
+      </c>
+      <c r="CY50" s="13">
+        <f t="shared" si="35"/>
+        <v>0.79853479853467635</v>
+      </c>
     </row>
-    <row r="51" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="51" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="15" t="s">
         <v>2</v>
@@ -13247,15 +14285,15 @@
         <v>1090714.2857142501</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-6</v>
       </c>
       <c r="N51" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-406999.99999997998</v>
       </c>
       <c r="O51" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>-0.27174742464707802</v>
       </c>
       <c r="Q51" s="16"/>
@@ -13379,15 +14417,15 @@
         <v>2179809.5238094702</v>
       </c>
       <c r="BI51" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
       <c r="BJ51" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>74761.904761900194</v>
       </c>
       <c r="BK51" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>3.5515540876802712E-2</v>
       </c>
       <c r="BM51" s="16"/>
@@ -13478,8 +14516,30 @@
         <f t="shared" si="32"/>
         <v>-0.25223671445511192</v>
       </c>
+      <c r="CS51" s="16"/>
+      <c r="CT51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU51" s="12">
+        <v>51</v>
+      </c>
+      <c r="CV51" s="14">
+        <v>1852761.9047618699</v>
+      </c>
+      <c r="CW51" s="12">
+        <f t="shared" si="33"/>
+        <v>15</v>
+      </c>
+      <c r="CX51" s="14">
+        <f t="shared" si="34"/>
+        <v>531428.57142857974</v>
+      </c>
+      <c r="CY51" s="13">
+        <f t="shared" si="35"/>
+        <v>0.4021911489116527</v>
+      </c>
     </row>
-    <row r="52" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="52" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>11</v>
       </c>
@@ -13504,15 +14564,15 @@
         <v>2153138.5714277201</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" ref="M52:M65" si="51">K52-C52</f>
+        <f t="shared" ref="M52:M65" si="54">K52-C52</f>
         <v>75</v>
       </c>
       <c r="N52" s="9">
-        <f t="shared" ref="N52:N65" si="52">L52-D52</f>
+        <f t="shared" ref="N52:N65" si="55">L52-D52</f>
         <v>-105891.42857153993</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" ref="O52:O65" si="53">(L52-D52)/D52</f>
+        <f t="shared" ref="O52:O65" si="56">(L52-D52)/D52</f>
         <v>-4.6874733213624703E-2</v>
       </c>
       <c r="Q52" s="11" t="s">
@@ -13636,15 +14696,15 @@
         <v>2910655.7142849704</v>
       </c>
       <c r="BI52" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6</v>
       </c>
       <c r="BJ52" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>125538.09523816034</v>
       </c>
       <c r="BK52" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>4.5074611707467134E-2</v>
       </c>
       <c r="BM52" s="11" t="s">
@@ -13735,8 +14795,30 @@
         <f t="shared" si="32"/>
         <v>-0.21553089879045581</v>
       </c>
+      <c r="CS52" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CT52" s="11"/>
+      <c r="CU52" s="10">
+        <v>314</v>
+      </c>
+      <c r="CV52" s="9">
+        <v>2655523.3333327197</v>
+      </c>
+      <c r="CW52" s="29">
+        <f t="shared" si="33"/>
+        <v>56</v>
+      </c>
+      <c r="CX52" s="30">
+        <f t="shared" si="34"/>
+        <v>568051.42857138952</v>
+      </c>
+      <c r="CY52" s="31">
+        <f t="shared" si="35"/>
+        <v>0.27212410728772768</v>
+      </c>
     </row>
-    <row r="53" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="53" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="16">
         <v>84</v>
       </c>
@@ -13755,15 +14837,15 @@
       </c>
       <c r="L53" s="38"/>
       <c r="M53" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N53" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O53" s="13" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="16">
@@ -13870,15 +14952,15 @@
       <c r="BG53" s="17"/>
       <c r="BH53" s="36"/>
       <c r="BI53" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ53" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BK53" s="13" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM53" s="16">
@@ -13963,8 +15045,28 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS53" s="16">
+        <v>84</v>
+      </c>
+      <c r="CT53" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="CU53" s="17"/>
+      <c r="CV53" s="36"/>
+      <c r="CW53" s="12">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CX53" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY53" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="54" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="54" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="35" t="s">
         <v>33</v>
@@ -13985,15 +15087,15 @@
       </c>
       <c r="L54" s="38"/>
       <c r="M54" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-4</v>
       </c>
       <c r="N54" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O54" s="13" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="16"/>
@@ -14105,15 +15207,15 @@
       </c>
       <c r="BH54" s="36"/>
       <c r="BI54" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-2</v>
       </c>
       <c r="BJ54" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BK54" s="13" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM54" s="16"/>
@@ -14196,8 +15298,26 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS54" s="16"/>
+      <c r="CT54" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU54" s="17"/>
+      <c r="CV54" s="36"/>
+      <c r="CW54" s="12">
+        <f t="shared" si="33"/>
+        <v>-6</v>
+      </c>
+      <c r="CX54" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY54" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="55" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="55" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="15" t="s">
         <v>10</v>
@@ -14221,15 +15341,15 @@
         <v>176664.76190412001</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-18</v>
       </c>
       <c r="N55" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-24420.952380899951</v>
       </c>
       <c r="O55" s="13">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-0.12144548640728184</v>
       </c>
       <c r="Q55" s="16"/>
@@ -14353,15 +15473,15 @@
         <v>165906.66666602998</v>
       </c>
       <c r="BI55" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="BJ55" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-72.380952419975074</v>
       </c>
       <c r="BK55" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-4.3608487612462553E-4</v>
       </c>
       <c r="BM55" s="16"/>
@@ -14452,8 +15572,30 @@
         <f t="shared" si="32"/>
         <v>-0.28840102672530821</v>
       </c>
+      <c r="CS55" s="16"/>
+      <c r="CT55" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="CU55" s="12">
+        <v>154</v>
+      </c>
+      <c r="CV55" s="14">
+        <v>137369.52380897995</v>
+      </c>
+      <c r="CW55" s="12">
+        <f t="shared" si="33"/>
+        <v>23</v>
+      </c>
+      <c r="CX55" s="14">
+        <f t="shared" si="34"/>
+        <v>25157.142857049956</v>
+      </c>
+      <c r="CY55" s="13">
+        <f t="shared" si="35"/>
+        <v>0.22419222053426419</v>
+      </c>
     </row>
-    <row r="56" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="56" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A56" s="16"/>
       <c r="B56" s="15" t="s">
         <v>9</v>
@@ -14477,15 +15619,15 @@
         <v>146590.47619036003</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-24</v>
       </c>
       <c r="N56" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-76438.095238119946</v>
       </c>
       <c r="O56" s="13">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-0.34272781621000448</v>
       </c>
       <c r="Q56" s="16"/>
@@ -14609,15 +15751,15 @@
         <v>62961.904761820013</v>
       </c>
       <c r="BI56" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6</v>
       </c>
       <c r="BJ56" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-4819.047619060002</v>
       </c>
       <c r="BK56" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-7.1097372488666641E-2</v>
       </c>
       <c r="BM56" s="16"/>
@@ -14708,8 +15850,30 @@
         <f t="shared" si="32"/>
         <v>-7.8443483631822242E-2</v>
       </c>
+      <c r="CS56" s="16"/>
+      <c r="CT56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU56" s="12">
+        <v>100</v>
+      </c>
+      <c r="CV56" s="14">
+        <v>74514.285714190002</v>
+      </c>
+      <c r="CW56" s="12">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="CX56" s="14">
+        <f t="shared" si="34"/>
+        <v>-10742.857142859997</v>
+      </c>
+      <c r="CY56" s="13">
+        <f t="shared" si="35"/>
+        <v>-0.12600536193046563</v>
+      </c>
     </row>
-    <row r="57" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="57" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="15" t="s">
         <v>8</v>
@@ -14733,15 +15897,15 @@
         <v>119809.52380950999</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>5</v>
       </c>
       <c r="N57" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>24522.857142859983</v>
       </c>
       <c r="O57" s="13">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.2573587470390849</v>
       </c>
       <c r="Q57" s="16"/>
@@ -14865,15 +16029,15 @@
         <v>308152.38095237</v>
       </c>
       <c r="BI57" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>27</v>
       </c>
       <c r="BJ57" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>194028.57142857002</v>
       </c>
       <c r="BK57" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.7001585579572356</v>
       </c>
       <c r="BM57" s="16"/>
@@ -14964,8 +16128,30 @@
         <f t="shared" si="32"/>
         <v>-0.37591289932341659</v>
       </c>
+      <c r="CS57" s="16"/>
+      <c r="CT57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU57" s="12">
+        <v>26</v>
+      </c>
+      <c r="CV57" s="14">
+        <v>169752.38095237</v>
+      </c>
+      <c r="CW57" s="12">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="CX57" s="14">
+        <f t="shared" si="34"/>
+        <v>37095.238095230015</v>
+      </c>
+      <c r="CY57" s="13">
+        <f t="shared" si="35"/>
+        <v>0.27963242156646106</v>
+      </c>
     </row>
-    <row r="58" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="58" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A58" s="16"/>
       <c r="B58" s="15" t="s">
         <v>7</v>
@@ -14989,15 +16175,15 @@
         <v>279142.8571428</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-17</v>
       </c>
       <c r="N58" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-169809.52380950004</v>
       </c>
       <c r="O58" s="13">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-0.37823504454816964</v>
       </c>
       <c r="Q58" s="16"/>
@@ -15121,15 +16307,15 @@
         <v>237428.57142852998</v>
       </c>
       <c r="BI58" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="BJ58" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>78761.904761919985</v>
       </c>
       <c r="BK58" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.49639855942404276</v>
       </c>
       <c r="BM58" s="16"/>
@@ -15220,8 +16406,30 @@
         <f t="shared" si="32"/>
         <v>-4.5998160073610211E-2</v>
       </c>
+      <c r="CS58" s="16"/>
+      <c r="CT58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU58" s="12">
+        <v>15</v>
+      </c>
+      <c r="CV58" s="14">
+        <v>200952.38095233004</v>
+      </c>
+      <c r="CW58" s="12">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="CX58" s="14">
+        <f t="shared" si="34"/>
+        <v>3428.5714285700233</v>
+      </c>
+      <c r="CY58" s="13">
+        <f t="shared" si="35"/>
+        <v>1.7357762777239279E-2</v>
+      </c>
     </row>
-    <row r="59" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="59" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="15" t="s">
         <v>6</v>
@@ -15245,15 +16453,15 @@
         <v>0</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N59" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O59" s="13" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="16"/>
@@ -15362,15 +16570,15 @@
         <v>2857.1428571400002</v>
       </c>
       <c r="BI59" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="BJ59" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>2857.1428571400002</v>
       </c>
       <c r="BK59" s="13" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM59" s="16"/>
@@ -15461,8 +16669,30 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="CS59" s="16"/>
+      <c r="CT59" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU59" s="12">
+        <v>0</v>
+      </c>
+      <c r="CV59" s="14">
+        <v>0</v>
+      </c>
+      <c r="CW59" s="12">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CX59" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CY59" s="13" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="60" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="60" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="15" t="s">
         <v>5</v>
@@ -15486,15 +16716,15 @@
         <v>144623.80952380001</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-1</v>
       </c>
       <c r="N60" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>129873.80952380001</v>
       </c>
       <c r="O60" s="13">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>8.8050040355118657</v>
       </c>
       <c r="Q60" s="16"/>
@@ -15613,15 +16843,15 @@
         <v>7080</v>
       </c>
       <c r="BI60" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="BJ60" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>7080</v>
       </c>
       <c r="BK60" s="13" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM60" s="16"/>
@@ -15712,8 +16942,30 @@
         <f t="shared" si="32"/>
         <v>-0.47440519105984136</v>
       </c>
+      <c r="CS60" s="16"/>
+      <c r="CT60" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU60" s="12">
+        <v>5</v>
+      </c>
+      <c r="CV60" s="14">
+        <v>19350</v>
+      </c>
+      <c r="CW60" s="12">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="CX60" s="14">
+        <f t="shared" si="34"/>
+        <v>12060</v>
+      </c>
+      <c r="CY60" s="13">
+        <f t="shared" si="35"/>
+        <v>1.654320987654321</v>
+      </c>
     </row>
-    <row r="61" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="61" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="15" t="s">
         <v>4</v>
@@ -15737,15 +16989,15 @@
         <v>144623.80952380001</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-3</v>
       </c>
       <c r="N61" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-150952.38095236997</v>
       </c>
       <c r="O61" s="13">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-0.51070548243140745</v>
       </c>
       <c r="Q61" s="16"/>
@@ -15869,15 +17121,15 @@
         <v>82666.666666659992</v>
       </c>
       <c r="BI61" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="BJ61" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>44666.666666659992</v>
       </c>
       <c r="BK61" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.1754385964910525</v>
       </c>
       <c r="BM61" s="16"/>
@@ -15968,8 +17220,30 @@
         <f t="shared" si="32"/>
         <v>-0.72847421203436158</v>
       </c>
+      <c r="CS61" s="16"/>
+      <c r="CT61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU61" s="12">
+        <v>1</v>
+      </c>
+      <c r="CV61" s="14">
+        <v>31333.33333333</v>
+      </c>
+      <c r="CW61" s="12">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CX61" s="14">
+        <f t="shared" si="34"/>
+        <v>-4766.6666666700003</v>
+      </c>
+      <c r="CY61" s="13">
+        <f t="shared" si="35"/>
+        <v>-0.13204062788559556</v>
+      </c>
     </row>
-    <row r="62" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="62" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="15" t="s">
         <v>3</v>
@@ -15993,15 +17267,15 @@
         <v>530333.33333328005</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-6</v>
       </c>
       <c r="N62" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-78476.190476179938</v>
       </c>
       <c r="O62" s="13">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-0.12890105592490822</v>
       </c>
       <c r="Q62" s="16"/>
@@ -16125,15 +17399,15 @@
         <v>157904.76190473</v>
       </c>
       <c r="BI62" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BJ62" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-43333.333333340008</v>
       </c>
       <c r="BK62" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.2153336488405713</v>
       </c>
       <c r="BM62" s="16"/>
@@ -16224,8 +17498,30 @@
         <f t="shared" si="32"/>
         <v>-0.4117647058823814</v>
       </c>
+      <c r="CS62" s="16"/>
+      <c r="CT62" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU62" s="12">
+        <v>11</v>
+      </c>
+      <c r="CV62" s="14">
+        <v>149904.76190473</v>
+      </c>
+      <c r="CW62" s="12">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="CX62" s="14">
+        <f t="shared" si="34"/>
+        <v>-8190.4761904799961</v>
+      </c>
+      <c r="CY62" s="13">
+        <f t="shared" si="35"/>
+        <v>-5.1807228915695933E-2</v>
+      </c>
     </row>
-    <row r="63" spans="1:95" s="12" customFormat="1" ht="20" customHeight="1">
+    <row r="63" spans="1:103" s="12" customFormat="1" ht="20" customHeight="1">
       <c r="A63" s="16"/>
       <c r="B63" s="15" t="s">
         <v>2</v>
@@ -16249,15 +17545,15 @@
         <v>2725142.8571427902</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>7</v>
       </c>
       <c r="N63" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>197904.76190476026</v>
       </c>
       <c r="O63" s="13">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>7.8308712692193111E-2</v>
       </c>
       <c r="Q63" s="16"/>
@@ -16381,15 +17677,15 @@
         <v>2176285.7142856899</v>
       </c>
       <c r="BI63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
       <c r="BJ63" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>261428.57142858999</v>
       </c>
       <c r="BK63" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.13652641002687041</v>
       </c>
       <c r="BM63" s="16"/>
@@ -16480,8 +17776,30 @@
         <f t="shared" si="32"/>
         <v>-0.41881100356909584</v>
       </c>
+      <c r="CS63" s="16"/>
+      <c r="CT63" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU63" s="12">
+        <v>39</v>
+      </c>
+      <c r="CV63" s="14">
+        <v>1370643.8095237701</v>
+      </c>
+      <c r="CW63" s="12">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="CX63" s="14">
+        <f t="shared" si="34"/>
+        <v>287839.99999999022</v>
+      </c>
+      <c r="CY63" s="13">
+        <f t="shared" si="35"/>
+        <v>0.26582839612153103</v>
+      </c>
     </row>
-    <row r="64" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="64" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>1</v>
       </c>
@@ -16506,15 +17824,15 @@
         <v>4128597.6190466601</v>
       </c>
       <c r="M64" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>-60</v>
       </c>
       <c r="N64" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-286129.52380944975</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-6.4812504725793335E-2</v>
       </c>
       <c r="Q64" s="11" t="s">
@@ -16638,15 +17956,15 @@
         <v>3201243.8095229696</v>
       </c>
       <c r="BI64" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>55</v>
       </c>
       <c r="BJ64" s="30">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>540598.09523805976</v>
       </c>
       <c r="BK64" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.20318304400154003</v>
       </c>
       <c r="BM64" s="11" t="s">
@@ -16737,8 +18055,30 @@
         <f t="shared" si="32"/>
         <v>-0.38572302403161801</v>
       </c>
+      <c r="CS64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT64" s="11"/>
+      <c r="CU64" s="10">
+        <v>351</v>
+      </c>
+      <c r="CV64" s="9">
+        <v>2153820.4761897</v>
+      </c>
+      <c r="CW64" s="29">
+        <f t="shared" si="33"/>
+        <v>53</v>
+      </c>
+      <c r="CX64" s="30">
+        <f t="shared" si="34"/>
+        <v>341880.95238082996</v>
+      </c>
+      <c r="CY64" s="31">
+        <f t="shared" si="35"/>
+        <v>0.18868231962961077</v>
+      </c>
     </row>
-    <row r="65" spans="1:95" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="65" spans="1:103" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>0</v>
       </c>
@@ -16763,15 +18103,15 @@
         <v>24485272.857136972</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>19</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>-3955111.4285718128</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-0.13906673654052015</v>
       </c>
       <c r="Q65" s="5" t="s">
@@ -16895,15 +18235,15 @@
         <v>35040738.095232792</v>
       </c>
       <c r="BI65" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>369</v>
       </c>
       <c r="BJ65" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>4376254.2857142128</v>
       </c>
       <c r="BK65" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.14271410250694574</v>
       </c>
       <c r="BM65" s="5" t="s">
@@ -16993,6 +18333,28 @@
       <c r="CQ65" s="32">
         <f t="shared" si="32"/>
         <v>-0.26993366831523635</v>
+      </c>
+      <c r="CS65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT65" s="5"/>
+      <c r="CU65" s="4">
+        <v>2939</v>
+      </c>
+      <c r="CV65" s="3">
+        <v>27710409.047613926</v>
+      </c>
+      <c r="CW65" s="7">
+        <f t="shared" si="33"/>
+        <v>494</v>
+      </c>
+      <c r="CX65" s="6">
+        <f t="shared" si="34"/>
+        <v>6393671.9047610387</v>
+      </c>
+      <c r="CY65" s="32">
+        <f t="shared" si="35"/>
+        <v>0.29993670522436028</v>
       </c>
     </row>
   </sheetData>
@@ -17003,7 +18365,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="96" operator="containsText" id="{84E91190-11E8-AE4A-9A8E-E0B241655290}">
+          <x14:cfRule type="containsText" priority="97" operator="containsText" id="{84E91190-11E8-AE4A-9A8E-E0B241655290}">
             <xm:f>NOT(ISERROR(SEARCH("-",E7)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17015,7 +18377,7 @@
           <xm:sqref>E7:G65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{60840A7F-E021-4B40-B286-D13634467BA2}">
+          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{60840A7F-E021-4B40-B286-D13634467BA2}">
             <xm:f>NOT(ISERROR(SEARCH("-",M5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17027,7 +18389,7 @@
           <xm:sqref>M5:O65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{96F4512B-498A-3E44-B11A-3104E93335EF}">
+          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{96F4512B-498A-3E44-B11A-3104E93335EF}">
             <xm:f>NOT(ISERROR(SEARCH("-",U5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17039,7 +18401,7 @@
           <xm:sqref>U5:W65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{59A196DB-3B52-FC49-B067-A760A3E265FD}">
+          <x14:cfRule type="containsText" priority="42" operator="containsText" id="{59A196DB-3B52-FC49-B067-A760A3E265FD}">
             <xm:f>NOT(ISERROR(SEARCH("-",AC5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17051,7 +18413,7 @@
           <xm:sqref>AC5:AE65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{CBEC2621-80C7-C843-831D-784A61EBAE2F}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{CBEC2621-80C7-C843-831D-784A61EBAE2F}">
             <xm:f>NOT(ISERROR(SEARCH("-",AK5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17063,7 +18425,7 @@
           <xm:sqref>AK5:AM65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{D62FF824-945D-FB42-AE3E-9595C55730D7}">
+          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{D62FF824-945D-FB42-AE3E-9595C55730D7}">
             <xm:f>NOT(ISERROR(SEARCH("-",AS5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17075,7 +18437,7 @@
           <xm:sqref>AS5:AU65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{5770E50C-855E-B144-A816-CD9AC490993E}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{5770E50C-855E-B144-A816-CD9AC490993E}">
             <xm:f>NOT(ISERROR(SEARCH("-",BA5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17087,7 +18449,7 @@
           <xm:sqref>BA5:BC65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{6AB50C64-405B-B04E-92D0-54759F295C03}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{6AB50C64-405B-B04E-92D0-54759F295C03}">
             <xm:f>NOT(ISERROR(SEARCH("-",BI5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17099,7 +18461,7 @@
           <xm:sqref>BI5:BK65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{C8A3EFC3-B895-0845-A11B-C21B6413863E}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{C8A3EFC3-B895-0845-A11B-C21B6413863E}">
             <xm:f>NOT(ISERROR(SEARCH("-",BQ5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17111,7 +18473,7 @@
           <xm:sqref>BQ5:BS65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{F92DB01E-9288-5849-81E4-35B4E2C95774}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{F92DB01E-9288-5849-81E4-35B4E2C95774}">
             <xm:f>NOT(ISERROR(SEARCH("-",BY5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17123,7 +18485,7 @@
           <xm:sqref>BY5:CA65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{DDBF6E41-C389-2344-92BB-6A5E3B3BC008}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{DDBF6E41-C389-2344-92BB-6A5E3B3BC008}">
             <xm:f>NOT(ISERROR(SEARCH("-",CG5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17135,7 +18497,7 @@
           <xm:sqref>CG5:CI65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{00C895F4-D5E3-F04E-93CB-E795A6DC8C2F}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{00C895F4-D5E3-F04E-93CB-E795A6DC8C2F}">
             <xm:f>NOT(ISERROR(SEARCH("-",CO5)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -17146,6 +18508,18 @@
           </x14:cfRule>
           <xm:sqref>CO5:CQ65</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{4126E041-CCDA-FB44-8F91-ACB733D36FB3}">
+            <xm:f>NOT(ISERROR(SEARCH("-",CW5)))</xm:f>
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>CW5:CY65</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/data/FY26Q1.xlsx
+++ b/data/FY26Q1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morio/GitHub/QBR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255689B2-0A3B-FB43-A3FF-A7F6962039AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EFCC8F-3733-2149-983B-376333303236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="700" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
+    <workbookView xWindow="13700" yWindow="1000" windowWidth="19520" windowHeight="20160" xr2:uid="{021FACC0-6583-9245-81B4-0A7BE4D712CF}"/>
   </bookViews>
   <sheets>
     <sheet name="26Q1" sheetId="2" r:id="rId1"/>
@@ -1084,9 +1084,9 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="81" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="81" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV41" sqref="CV41"/>
+      <selection pane="topRight" activeCell="CU54" sqref="CU54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2120,10 +2120,13 @@
       <c r="CT6" s="35" t="s">
         <v>33</v>
       </c>
+      <c r="CU6" s="17">
+        <v>30</v>
+      </c>
       <c r="CV6" s="36"/>
       <c r="CW6" s="12">
         <f t="shared" si="33"/>
-        <v>-21</v>
+        <v>9</v>
       </c>
       <c r="CX6" s="14">
         <f t="shared" si="34"/>
@@ -5430,11 +5433,13 @@
       <c r="CT18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CU18" s="17"/>
+      <c r="CU18" s="17">
+        <v>17</v>
+      </c>
       <c r="CV18" s="36"/>
       <c r="CW18" s="12">
         <f t="shared" si="33"/>
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="CX18" s="14">
         <f t="shared" si="34"/>
@@ -8731,11 +8736,13 @@
       <c r="CT30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CU30" s="17"/>
+      <c r="CU30" s="17">
+        <v>7</v>
+      </c>
       <c r="CV30" s="36"/>
       <c r="CW30" s="12">
         <f t="shared" si="33"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="CX30" s="14">
         <f t="shared" si="34"/>
@@ -12032,11 +12039,13 @@
       <c r="CT42" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CU42" s="17"/>
+      <c r="CU42" s="17">
+        <v>4</v>
+      </c>
       <c r="CV42" s="36"/>
       <c r="CW42" s="12">
         <f t="shared" si="33"/>
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="CX42" s="14">
         <f t="shared" si="34"/>
@@ -15051,7 +15060,9 @@
       <c r="CT53" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="CU53" s="17"/>
+      <c r="CU53" s="17">
+        <v>0</v>
+      </c>
       <c r="CV53" s="36"/>
       <c r="CW53" s="12">
         <f t="shared" si="33"/>
@@ -15302,11 +15313,13 @@
       <c r="CT54" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="CU54" s="17"/>
+      <c r="CU54" s="17">
+        <v>4</v>
+      </c>
       <c r="CV54" s="36"/>
       <c r="CW54" s="12">
         <f t="shared" si="33"/>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="CX54" s="14">
         <f t="shared" si="34"/>
